--- a/items.xlsx
+++ b/items.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D675"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -418,44 +418,44 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>NEWGENE COVID 19 Home Self Test Rapid Antigen Kit (RTK) (Sputum/Saliva) [MDA/KKM Approved][LUCKY PHARMACY] 1PCS ONLY / 25PCS OR 1BOX</v>
+        <v>[LUCKY PHARMACY] [READY STOCK] ALLtest saliva antigen test kit 1s (READY STOCK) Covid 19 Home Test Kit READY STOCK LUCKY PHARMACY 1S OR 200PCS</v>
       </c>
       <c r="B2" t="str">
-        <v>10237</v>
+        <v>4797</v>
       </c>
       <c r="C2" t="str">
-        <v>RM3.52</v>
+        <v>RM4.49</v>
       </c>
       <c r="D2" t="str">
-        <v>NEWGENE X1TEST</v>
+        <v>TESTNGO X1SSS</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>NEWGENE COVID 19 Home Self Test Rapid Antigen Kit (RTK) (Sputum/Saliva) [MDA/KKM Approved][LUCKY PHARMACY] 1PCS ONLY / 25PCS OR 1BOX</v>
+        <v>[LUCKY PHARMACY] [READY STOCK] ALLtest saliva antigen test kit 1s (READY STOCK) Covid 19 Home Test Kit READY STOCK LUCKY PHARMACY 1S OR 200PCS</v>
       </c>
       <c r="B3" t="str">
-        <v>10237</v>
+        <v>4797</v>
       </c>
       <c r="C3" t="str">
-        <v>RM92.30</v>
+        <v>RM5.20</v>
       </c>
       <c r="D3" t="str">
-        <v>NEWGENE X1BOX/25TEST</v>
+        <v>ALLTEST 1S</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>[LUCKY PHARMACY] GENFARM 2 IN 1 NASAL &amp; SALIVA Covid-19 RTK Test Kit 1 test kit / 25 PCS PER BOX</v>
+        <v>[LUCKY PHARMACY] [READY STOCK] ALLtest saliva antigen test kit 1s (READY STOCK) Covid 19 Home Test Kit READY STOCK LUCKY PHARMACY 1S OR 200PCS</v>
       </c>
       <c r="B4" t="str">
-        <v>161</v>
+        <v>4797</v>
       </c>
       <c r="C4" t="str">
-        <v>RM2,499.00</v>
+        <v>RM1,159.98</v>
       </c>
       <c r="D4" t="str">
-        <v>GENFARM X500TEST</v>
+        <v>ALLTEST 200PCS</v>
       </c>
     </row>
     <row r="5">
@@ -466,10 +466,10 @@
         <v>161</v>
       </c>
       <c r="C5" t="str">
-        <v>RM4.65</v>
+        <v>RM2,499.00</v>
       </c>
       <c r="D5" t="str">
-        <v>GENFARM X1PCS</v>
+        <v>GENFARM X500TEST</v>
       </c>
     </row>
     <row r="6">
@@ -480,105 +480,105 @@
         <v>161</v>
       </c>
       <c r="C6" t="str">
-        <v>RM115.00</v>
+        <v>RM4.65</v>
       </c>
       <c r="D6" t="str">
-        <v>GENFARM X 25PCS</v>
+        <v>GENFARM X1PCS</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>[LUCKY PHARMACY] [READY STOCK] ALLtest saliva antigen test kit 1s (READY STOCK) Covid 19 Home Test Kit READY STOCK LUCKY PHARMACY 1S OR 200PCS</v>
+        <v>[LUCKY PHARMACY] GENFARM 2 IN 1 NASAL &amp; SALIVA Covid-19 RTK Test Kit 1 test kit / 25 PCS PER BOX</v>
       </c>
       <c r="B7" t="str">
-        <v>4797</v>
+        <v>161</v>
       </c>
       <c r="C7" t="str">
-        <v>RM4.49</v>
+        <v>RM115.00</v>
       </c>
       <c r="D7" t="str">
-        <v>TESTNGO X1SSS</v>
+        <v>GENFARM X 25PCS</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>[LUCKY PHARMACY] [READY STOCK] ALLtest saliva antigen test kit 1s (READY STOCK) Covid 19 Home Test Kit READY STOCK LUCKY PHARMACY 1S OR 200PCS</v>
+        <v>NEWGENE COVID 19 Home Self Test Rapid Antigen Kit (RTK) (Sputum/Saliva) [MDA/KKM Approved][LUCKY PHARMACY] 1PCS ONLY / 25PCS OR 1BOX</v>
       </c>
       <c r="B8" t="str">
-        <v>4797</v>
+        <v>10242</v>
       </c>
       <c r="C8" t="str">
-        <v>RM5.20</v>
+        <v>RM3.52</v>
       </c>
       <c r="D8" t="str">
-        <v>ALLTEST 1S</v>
+        <v>NEWGENE X1TEST</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>[LUCKY PHARMACY] [READY STOCK] ALLtest saliva antigen test kit 1s (READY STOCK) Covid 19 Home Test Kit READY STOCK LUCKY PHARMACY 1S OR 200PCS</v>
+        <v>NEWGENE COVID 19 Home Self Test Rapid Antigen Kit (RTK) (Sputum/Saliva) [MDA/KKM Approved][LUCKY PHARMACY] 1PCS ONLY / 25PCS OR 1BOX</v>
       </c>
       <c r="B9" t="str">
-        <v>4797</v>
+        <v>10242</v>
       </c>
       <c r="C9" t="str">
-        <v>RM1,159.98</v>
+        <v>RM92.30</v>
       </c>
       <c r="D9" t="str">
-        <v>ALLTEST 200PCS</v>
+        <v>NEWGENE X1BOX/25TEST</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>[LUCKY PHARMACY] GENFARM 2 IN 1 NASAL &amp; SALIVA Covid-19 RTK Test Kit 1 test kit / 25 PCS PER BOX</v>
+        <v>[POST IN 24HOURS] NEWGENE COVID 19 Home Self Test Rapid Antigen Kit (RTK) (Sputum/Saliva)[2IN1] [MDA/KKM Approved][LUCKY PHARMACY]</v>
       </c>
       <c r="B10" t="str">
-        <v>161</v>
+        <v>2519</v>
       </c>
       <c r="C10" t="str">
-        <v>RM2,499.00</v>
+        <v>RM3.52</v>
       </c>
       <c r="D10" t="str">
-        <v>GENFARM X500TEST</v>
+        <v>NEWGENE 1PCS</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>[LUCKY PHARMACY] GENFARM 2 IN 1 NASAL &amp; SALIVA Covid-19 RTK Test Kit 1 test kit / 25 PCS PER BOX</v>
+        <v>[POST IN 24HOURS] NEWGENE COVID 19 Home Self Test Rapid Antigen Kit (RTK) (Sputum/Saliva)[2IN1] [MDA/KKM Approved][LUCKY PHARMACY]</v>
       </c>
       <c r="B11" t="str">
-        <v>161</v>
+        <v>2519</v>
       </c>
       <c r="C11" t="str">
-        <v>RM4.65</v>
+        <v>RM92.30</v>
       </c>
       <c r="D11" t="str">
-        <v>GENFARM X1PCS</v>
+        <v>NEWGENE 25PCS</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>[LUCKY PHARMACY] GENFARM 2 IN 1 NASAL &amp; SALIVA Covid-19 RTK Test Kit 1 test kit / 25 PCS PER BOX</v>
+        <v>(QR Code Stock) Newgene Covid Test KIT 1S [LUCKY PHARMACY]</v>
       </c>
       <c r="B12" t="str">
-        <v>161</v>
+        <v>84</v>
       </c>
       <c r="C12" t="str">
-        <v>RM115.00</v>
+        <v>RM3.52</v>
       </c>
       <c r="D12" t="str">
-        <v>GENFARM X 25PCS</v>
+        <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>[LUCKY PHARMACY] Sejoy Covid-19 Rapid Test Kit (Saliva) 1S</v>
+        <v>[LUCKY PHARMACY] Biooats Beta Glucan 500G WITH COQ10 [BUY 6 FREE 1 TINS][BUY 2 FREE SHAKER]</v>
       </c>
       <c r="B13" t="str">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C13" t="str">
-        <v>RM5.29</v>
+        <v>RM55.00</v>
       </c>
       <c r="D13" t="str">
         <v/>
@@ -586,349 +586,349 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>[FREE SHAKER] SwissMed PROB-ATIV 60S</v>
+        <v>pharmacy stock Ready Stock Super Pre Probiotics (益生菌）2gx30sticks/ SUPER postbiotics 5gx30 sticks</v>
       </c>
       <c r="B14" t="str">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C14" t="str">
-        <v>RM199.90</v>
+        <v>RM29.99</v>
       </c>
       <c r="D14" t="str">
-        <v>ultrabiotic x60s</v>
+        <v>POSTbiotics</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>[FREE SHAKER] SwissMed PROB-ATIV 60S</v>
+        <v>JUSCHEK / JUSCHECK saliva antigen test kit 1s (READY STOCK) Covid 19 Home Test Kit READY STOCK LUCKY PHARMACY 1PCS OR 200PCS</v>
       </c>
       <c r="B15" t="str">
-        <v>36</v>
+        <v>234</v>
       </c>
       <c r="C15" t="str">
-        <v>RM209.00</v>
+        <v>RM5.89</v>
       </c>
       <c r="D15" t="str">
-        <v>swissmed probativx60</v>
+        <v>JUSCHEK 1PCS</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>NEUTROVIS PREMIUM 4PLY EXTRA PROTECTION MERLOT/FEATHER IRIS 50PCS/BOX</v>
+        <v>MEDIPRO Surgitech Premium Black Ultimate Protection medical face mask 50pcs/box</v>
       </c>
       <c r="B16" t="str">
-        <v>95</v>
+        <v>223</v>
       </c>
       <c r="C16" t="str">
-        <v>RM27.00</v>
+        <v>RM25.90</v>
       </c>
       <c r="D16" t="str">
-        <v>MERLOT</v>
+        <v/>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>NEUTROVIS PREMIUM 4PLY EXTRA PROTECTION MERLOT/FEATHER IRIS 50PCS/BOX</v>
+        <v>[LUCKY PHARMACY] ALLTEST/ WIKANG SARS-CoV-2 Antigen Detection Kit (Colloidal Gold Method)[ALLTEST/ SALIXIUM/ GMATE/ WIKANG/ NEWGENE/BERIGHT</v>
       </c>
       <c r="B17" t="str">
-        <v>95</v>
+        <v>809</v>
       </c>
       <c r="C17" t="str">
-        <v>RM27.00</v>
+        <v>RM5.20</v>
       </c>
       <c r="D17" t="str">
-        <v>FEATHER IRIS</v>
+        <v>ALLTEST X1TESTS</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>NEUTROVIS PREMIUM 4PLY EXTRA PROTECTION MERLOT/FEATHER IRIS 50PCS/BOX</v>
+        <v>[LUCKY PHARMACY] ALLTEST/ WIKANG SARS-CoV-2 Antigen Detection Kit (Colloidal Gold Method)[ALLTEST/ SALIXIUM/ GMATE/ WIKANG/ NEWGENE/BERIGHT</v>
       </c>
       <c r="B18" t="str">
-        <v>95</v>
+        <v>809</v>
       </c>
       <c r="C18" t="str">
-        <v>RM25.78</v>
+        <v>RM4.90</v>
       </c>
       <c r="D18" t="str">
-        <v>MEDIPRO DENIM</v>
+        <v>WIKANG X1TESTS</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>NEUTROVIS PREMIUM 4PLY EXTRA PROTECTION MERLOT/FEATHER IRIS 50PCS/BOX</v>
+        <v>[LUCKY PHARMACY] ALLTEST/ WIKANG SARS-CoV-2 Antigen Detection Kit (Colloidal Gold Method)[ALLTEST/ SALIXIUM/ GMATE/ WIKANG/ NEWGENE/BERIGHT</v>
       </c>
       <c r="B19" t="str">
-        <v>95</v>
+        <v>809</v>
       </c>
       <c r="C19" t="str">
-        <v>RM25.78</v>
+        <v>RM4.49</v>
       </c>
       <c r="D19" t="str">
-        <v>MEDIPRO BLACK</v>
+        <v>TESTNGO X1TESTS</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>[KL READY STOCK] EasyCare/ safety plus Adult Non-Surgical Disposable 3ply Face Mask</v>
+        <v>(MDA Approved) Gmate / Salixium /All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP/ GENRUI Saliva Antigen Self Test Kit [LUCKY PHARMACY]SHIP IN 24HOURS</v>
       </c>
       <c r="B20" t="str">
-        <v>43</v>
+        <v>1572</v>
       </c>
       <c r="C20" t="str">
-        <v>RM10.90</v>
+        <v>RM6.78</v>
       </c>
       <c r="D20" t="str">
-        <v>SAFETY PLUS GREEN</v>
+        <v>LYHER 1SS</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>[KL READY STOCK] EasyCare/ safety plus Adult Non-Surgical Disposable 3ply Face Mask</v>
+        <v>(MDA Approved) Gmate / Salixium /All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP/ GENRUI Saliva Antigen Self Test Kit [LUCKY PHARMACY]SHIP IN 24HOURS</v>
       </c>
       <c r="B21" t="str">
-        <v>43</v>
+        <v>1572</v>
       </c>
       <c r="C21" t="str">
-        <v>RM8.81</v>
+        <v>RM14.98</v>
       </c>
       <c r="D21" t="str">
-        <v>EC Black</v>
+        <v>GMATE 1S</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>[KL READY STOCK] EasyCare/ safety plus Adult Non-Surgical Disposable 3ply Face Mask</v>
+        <v>(MDA Approved) Gmate / Salixium /All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP/ GENRUI Saliva Antigen Self Test Kit [LUCKY PHARMACY]SHIP IN 24HOURS</v>
       </c>
       <c r="B22" t="str">
-        <v>43</v>
+        <v>1572</v>
       </c>
       <c r="C22" t="str">
-        <v>RM10.90</v>
+        <v>RM7.90</v>
       </c>
       <c r="D22" t="str">
-        <v>EC MILKTEA</v>
+        <v>SALIXIUM 1S</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>[KL READY STOCK] EasyCare/ safety plus Adult Non-Surgical Disposable 3ply Face Mask</v>
+        <v>(MDA Approved) Gmate / Salixium /All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP/ GENRUI Saliva Antigen Self Test Kit [LUCKY PHARMACY]SHIP IN 24HOURS</v>
       </c>
       <c r="B23" t="str">
-        <v>43</v>
+        <v>1572</v>
       </c>
       <c r="C23" t="str">
-        <v>RM10.90</v>
+        <v>RM5.75</v>
       </c>
       <c r="D23" t="str">
-        <v>EC DAY PINK</v>
+        <v>ALLTEST 1S</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>[KL READY STOCK] EasyCare/ safety plus Adult Non-Surgical Disposable 3ply Face Mask</v>
+        <v>(MDA Approved) Gmate / Salixium /All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP/ GENRUI Saliva Antigen Self Test Kit [LUCKY PHARMACY]SHIP IN 24HOURS</v>
       </c>
       <c r="B24" t="str">
-        <v>43</v>
+        <v>1572</v>
       </c>
       <c r="C24" t="str">
-        <v>RM10.90</v>
+        <v>RM5.85</v>
       </c>
       <c r="D24" t="str">
-        <v>EC SUNRISE ORANGE</v>
+        <v>BERIGHT 1S</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>[KL READY STOCK] EasyCare/ safety plus Adult Non-Surgical Disposable 3ply Face Mask</v>
+        <v>(MDA Approved) Gmate / Salixium /All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP/ GENRUI Saliva Antigen Self Test Kit [LUCKY PHARMACY]SHIP IN 24HOURS</v>
       </c>
       <c r="B25" t="str">
-        <v>43</v>
+        <v>1572</v>
       </c>
       <c r="C25" t="str">
-        <v>RM10.90</v>
+        <v>RM5.85</v>
       </c>
       <c r="D25" t="str">
-        <v>EC WIZARD GREEN</v>
+        <v>JUSCHECK 1S</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>[KL READY STOCK] EasyCare/ safety plus Adult Non-Surgical Disposable 3ply Face Mask</v>
+        <v>(MDA Approved) Gmate / Salixium /All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP/ GENRUI Saliva Antigen Self Test Kit [LUCKY PHARMACY]SHIP IN 24HOURS</v>
       </c>
       <c r="B26" t="str">
-        <v>43</v>
+        <v>1572</v>
       </c>
       <c r="C26" t="str">
-        <v>RM10.90</v>
+        <v>RM3.68</v>
       </c>
       <c r="D26" t="str">
-        <v>SAFETY PLUS PINK</v>
+        <v>NEWGENE 1S</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>[KL READY STOCK] EasyCare/ safety plus Adult Non-Surgical Disposable 3ply Face Mask</v>
+        <v>(MDA Approved) Gmate / Salixium /All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP/ GENRUI Saliva Antigen Self Test Kit [LUCKY PHARMACY]SHIP IN 24HOURS</v>
       </c>
       <c r="B27" t="str">
-        <v>43</v>
+        <v>1572</v>
       </c>
       <c r="C27" t="str">
-        <v>RM10.90</v>
+        <v>RM5.99</v>
       </c>
       <c r="D27" t="str">
-        <v>SAFETY PLUS GREY</v>
+        <v>DIACEGENE 1S</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>[KL READY STOCK] EasyCare/ safety plus Adult Non-Surgical Disposable 3ply Face Mask</v>
+        <v>(MDA Approved) Gmate / Salixium /All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP/ GENRUI Saliva Antigen Self Test Kit [LUCKY PHARMACY]SHIP IN 24HOURS</v>
       </c>
       <c r="B28" t="str">
-        <v>43</v>
+        <v>1572</v>
       </c>
       <c r="C28" t="str">
-        <v>RM13.50</v>
+        <v>RM5.90</v>
       </c>
       <c r="D28" t="str">
-        <v>EC KIDS KITTY PINK</v>
+        <v>WHISTLING LOLLIPOP</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>[KL READY STOCK] EasyCare/ safety plus Adult Non-Surgical Disposable 3ply Face Mask</v>
+        <v>(MDA Approved) Gmate / Salixium /All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP/ GENRUI Saliva Antigen Self Test Kit [LUCKY PHARMACY]SHIP IN 24HOURS</v>
       </c>
       <c r="B29" t="str">
-        <v>43</v>
+        <v>1572</v>
       </c>
       <c r="C29" t="str">
-        <v>RM13.50</v>
+        <v>RM6.90</v>
       </c>
       <c r="D29" t="str">
-        <v>EC KIDS KITTY PURPLE</v>
+        <v>GENRUI LOLLIPOP</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>[KL READY STOCK] EasyCare/ safety plus Adult Non-Surgical Disposable 3ply Face Mask</v>
+        <v>(MDA Approved) Gmate / Salixium /All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP/ GENRUI Saliva Antigen Self Test Kit [LUCKY PHARMACY]SHIP IN 24HOURS</v>
       </c>
       <c r="B30" t="str">
-        <v>43</v>
+        <v>1572</v>
       </c>
       <c r="C30" t="str">
-        <v>RM13.50</v>
+        <v>RM5.29</v>
       </c>
       <c r="D30" t="str">
-        <v>EC KIDS DORAEMON</v>
+        <v>SEJOY 1S</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>[KL READY STOCK] EasyCare/ safety plus Adult Non-Surgical Disposable 3ply Face Mask</v>
+        <v>(MDA Approved) Gmate / Salixium /All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP/ GENRUI Saliva Antigen Self Test Kit [LUCKY PHARMACY]SHIP IN 24HOURS</v>
       </c>
       <c r="B31" t="str">
-        <v>43</v>
+        <v>1572</v>
       </c>
       <c r="C31" t="str">
-        <v>RM13.50</v>
+        <v>RM4.50</v>
       </c>
       <c r="D31" t="str">
-        <v>EC KIDS MINION</v>
+        <v>TESTNGO 1S</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>[KL READY STOCK] EasyCare/ safety plus Adult Non-Surgical Disposable 3ply Face Mask</v>
+        <v>[POST IN 1DAY][LUCKY PHARMACY] Whistling COVID-19 Home Rapid Antigen test Kit (RTK) Lollipop Design - 5KITS</v>
       </c>
       <c r="B32" t="str">
-        <v>43</v>
+        <v>1960</v>
       </c>
       <c r="C32" t="str">
-        <v>RM13.50</v>
+        <v>RM32.50</v>
       </c>
       <c r="D32" t="str">
-        <v>EC KIDS FROZEN</v>
+        <v/>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>[KL READY STOCK] EasyCare/ safety plus Adult Non-Surgical Disposable 3ply Face Mask</v>
+        <v>[LUCKY PHARMACY]【BEWARE FAKE PRODUCT, 4PLY MASK WITH AUTHENTIC STICKER]100% ORIGINAL WITH LOGO EMBOSSED] Neutrovis 4ply premium BLACK EXTRA PROTECTION for sensitive skin</v>
       </c>
       <c r="B33" t="str">
-        <v>43</v>
+        <v>3157</v>
       </c>
       <c r="C33" t="str">
-        <v>RM13.50</v>
+        <v>RM25.75</v>
       </c>
       <c r="D33" t="str">
-        <v>EC KIDS CAR</v>
+        <v>MEDIPRO BLACK</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>[KL READY STOCK] EasyCare/ safety plus Adult Non-Surgical Disposable 3ply Face Mask</v>
+        <v>[LUCKY PHARMACY]【BEWARE FAKE PRODUCT, 4PLY MASK WITH AUTHENTIC STICKER]100% ORIGINAL WITH LOGO EMBOSSED] Neutrovis 4ply premium BLACK EXTRA PROTECTION for sensitive skin</v>
       </c>
       <c r="B34" t="str">
-        <v>43</v>
+        <v>3157</v>
       </c>
       <c r="C34" t="str">
-        <v>RM13.50</v>
+        <v>RM27.00</v>
       </c>
       <c r="D34" t="str">
-        <v>EC KIDS PONY</v>
+        <v>NEUTROVIS BLACK 50S</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>[KL READY STOCK] EasyCare/ safety plus Adult Non-Surgical Disposable 3ply Face Mask</v>
+        <v>[LUCKY PHARMACY]【BEWARE FAKE PRODUCT, 4PLY MASK WITH AUTHENTIC STICKER]100% ORIGINAL WITH LOGO EMBOSSED] Neutrovis 4ply premium BLACK EXTRA PROTECTION for sensitive skin</v>
       </c>
       <c r="B35" t="str">
-        <v>43</v>
+        <v>3157</v>
       </c>
       <c r="C35" t="str">
-        <v>RM13.50</v>
+        <v>RM25.75</v>
       </c>
       <c r="D35" t="str">
-        <v>EC KIDS AVENGERS</v>
+        <v>MEDIPRO DENIM</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>[NEW STOCK] Country Farm Organics Virgin Coconut Oil 1000ml +100ML [2 set]</v>
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED NEUTROVIS Medical Face Mask For Adult | 3-Ply Ear-Loop | 50 PCS | BFE 98% | PFE 96% | Daily Use [SKY BLUE]</v>
       </c>
       <c r="B36" t="str">
-        <v>4</v>
+        <v>3503</v>
       </c>
       <c r="C36" t="str">
-        <v>RM115.00</v>
+        <v>RM15.50</v>
       </c>
       <c r="D36" t="str">
-        <v/>
+        <v>MEDIPRO SKY BLUE</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>[READY STOCK] HIMAYA Headloop Hijab Premium medical face mask SOFT OLIVE ultra soft for sensitive skin</v>
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED NEUTROVIS Medical Face Mask For Adult | 3-Ply Ear-Loop | 50 PCS | BFE 98% | PFE 96% | Daily Use [SKY BLUE]</v>
       </c>
       <c r="B37" t="str">
-        <v>83</v>
+        <v>3503</v>
       </c>
       <c r="C37" t="str">
-        <v>RM29.99</v>
+        <v>RM17.50</v>
       </c>
       <c r="D37" t="str">
-        <v/>
+        <v>NEUTROVIS SKY BLUE</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Bio-D SleepTite Bed Bug and Dust Mite Control Spray 300ml (NATURAL)</v>
+        <v>[LUCKY PHARMACY] (NEW ARRIVAL) BioDetect SALIVA COVID 19 RAPID Antigen Test Kit 1 BOX / TEST KIT</v>
       </c>
       <c r="B38" t="str">
-        <v>5</v>
+        <v>No</v>
       </c>
       <c r="C38" t="str">
-        <v>RM39.90</v>
+        <v>RM4.70</v>
       </c>
       <c r="D38" t="str">
         <v/>
@@ -936,91 +936,8925 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Suu Balm™ Cooling Itch Relief Facial Moisturiser 50ML [suitable for sensitive skin]</v>
+        <v>LUCKY PHARMACY Covid 19 Home Self Test Kit- Gmate / Salixium / DIACEGENE / All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP Saliva Antigen Self Home Test Kit</v>
       </c>
       <c r="B39" t="str">
-        <v>No</v>
+        <v>959</v>
       </c>
       <c r="C39" t="str">
-        <v>RM89.90</v>
+        <v>RM7.90</v>
       </c>
       <c r="D39" t="str">
-        <v/>
+        <v>SALIXIUM 2IN1 X1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>[FAST SHIPMENT]MegaLive Natto Plus 2 x 60's Free 30's</v>
+        <v>LUCKY PHARMACY Covid 19 Home Self Test Kit- Gmate / Salixium / DIACEGENE / All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP Saliva Antigen Self Home Test Kit</v>
       </c>
       <c r="B40" t="str">
-        <v>3</v>
+        <v>959</v>
       </c>
       <c r="C40" t="str">
-        <v>RM169.80</v>
+        <v>RM14.98</v>
       </c>
       <c r="D40" t="str">
-        <v/>
+        <v>GMATE [SALIVA] X1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>LUCKY PHARMACY Portable Finger Oximeter Fingertip Pulsoximeter Medical Equipment With Sleep Monitor Heart Rate Spo2 PR Pulse Oximeter</v>
+        <v>LUCKY PHARMACY Covid 19 Home Self Test Kit- Gmate / Salixium / DIACEGENE / All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP Saliva Antigen Self Home Test Kit</v>
       </c>
       <c r="B41" t="str">
-        <v>9</v>
+        <v>959</v>
       </c>
       <c r="C41" t="str">
-        <v>RM29.90</v>
+        <v>RM5.74</v>
       </c>
       <c r="D41" t="str">
-        <v>OXIMETER LK88</v>
+        <v>ALLTEST SALIVA X1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>LUCKY PHARMACY Portable Finger Oximeter Fingertip Pulsoximeter Medical Equipment With Sleep Monitor Heart Rate Spo2 PR Pulse Oximeter</v>
+        <v>LUCKY PHARMACY Covid 19 Home Self Test Kit- Gmate / Salixium / DIACEGENE / All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP Saliva Antigen Self Home Test Kit</v>
       </c>
       <c r="B42" t="str">
-        <v>9</v>
+        <v>959</v>
       </c>
       <c r="C42" t="str">
-        <v>RM59.90</v>
+        <v>RM5.85</v>
       </c>
       <c r="D42" t="str">
-        <v>OXIMETER SMH01 BLACK</v>
+        <v>BERIGHT SALIVA X1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>LUCKY PHARMACY Portable Finger Oximeter Fingertip Pulsoximeter Medical Equipment With Sleep Monitor Heart Rate Spo2 PR Pulse Oximeter</v>
+        <v>LUCKY PHARMACY Covid 19 Home Self Test Kit- Gmate / Salixium / DIACEGENE / All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP Saliva Antigen Self Home Test Kit</v>
       </c>
       <c r="B43" t="str">
-        <v>9</v>
+        <v>959</v>
       </c>
       <c r="C43" t="str">
-        <v>RM59.90</v>
+        <v>RM5.85</v>
       </c>
       <c r="D43" t="str">
-        <v>OXIMETER SMH01 WHITE</v>
+        <v>JUSCHEK SALIVA X1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
+        <v>LUCKY PHARMACY Covid 19 Home Self Test Kit- Gmate / Salixium / DIACEGENE / All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP Saliva Antigen Self Home Test Kit</v>
+      </c>
+      <c r="B44" t="str">
+        <v>959</v>
+      </c>
+      <c r="C44" t="str">
+        <v>RM3.68</v>
+      </c>
+      <c r="D44" t="str">
+        <v>NEWGENE 2IN1 X1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>LUCKY PHARMACY Covid 19 Home Self Test Kit- Gmate / Salixium / DIACEGENE / All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP Saliva Antigen Self Home Test Kit</v>
+      </c>
+      <c r="B45" t="str">
+        <v>959</v>
+      </c>
+      <c r="C45" t="str">
+        <v>RM5.95</v>
+      </c>
+      <c r="D45" t="str">
+        <v>DIACEGENE NASAL X1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>LUCKY PHARMACY Covid 19 Home Self Test Kit- Gmate / Salixium / DIACEGENE / All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP Saliva Antigen Self Home Test Kit</v>
+      </c>
+      <c r="B46" t="str">
+        <v>959</v>
+      </c>
+      <c r="C46" t="str">
+        <v>RM5.90</v>
+      </c>
+      <c r="D46" t="str">
+        <v>WHISTLING LOLLIPOPX1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>LUCKY PHARMACY Covid 19 Home Self Test Kit- Gmate / Salixium / DIACEGENE / All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP Saliva Antigen Self Home Test Kit</v>
+      </c>
+      <c r="B47" t="str">
+        <v>959</v>
+      </c>
+      <c r="C47" t="str">
+        <v>RM6.90</v>
+      </c>
+      <c r="D47" t="str">
+        <v>GENRUI LOLLIPOPX1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>LUCKY PHARMACY Covid 19 Home Self Test Kit- Gmate / Salixium / DIACEGENE / All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP Saliva Antigen Self Home Test Kit</v>
+      </c>
+      <c r="B48" t="str">
+        <v>959</v>
+      </c>
+      <c r="C48" t="str">
+        <v>RM5.29</v>
+      </c>
+      <c r="D48" t="str">
+        <v>SEJOY X1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>LUCKY PHARMACY Covid 19 Home Self Test Kit- Gmate / Salixium / DIACEGENE / All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP Saliva Antigen Self Home Test Kit</v>
+      </c>
+      <c r="B49" t="str">
+        <v>959</v>
+      </c>
+      <c r="C49" t="str">
+        <v>RM4.59</v>
+      </c>
+      <c r="D49" t="str">
+        <v>TESTNGO X1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>[LUCKY PHARMACY] RAYCUS LOLLIPOP Design COVID-19 Home Self Test Rapid Antigen Test Kit - 1 set / WHISTLING TEST KIT 1S</v>
+      </c>
+      <c r="B50" t="str">
+        <v>23</v>
+      </c>
+      <c r="C50" t="str">
+        <v>RM6.39</v>
+      </c>
+      <c r="D50" t="str">
+        <v>RAYCUS LOLLIPOP X1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>[LUCKY PHARMACY] RAYCUS LOLLIPOP Design COVID-19 Home Self Test Rapid Antigen Test Kit - 1 set / WHISTLING TEST KIT 1S</v>
+      </c>
+      <c r="B51" t="str">
+        <v>23</v>
+      </c>
+      <c r="C51" t="str">
+        <v>RM5.90</v>
+      </c>
+      <c r="D51" t="str">
+        <v>WHISTLING X1PCS</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>[LUCKY PHARMACY] RAYCUS LOLLIPOP Design COVID-19 Home Self Test Rapid Antigen Test Kit - 1 set / WHISTLING TEST KIT 1S</v>
+      </c>
+      <c r="B52" t="str">
+        <v>23</v>
+      </c>
+      <c r="C52" t="str">
+        <v>RM29.90</v>
+      </c>
+      <c r="D52" t="str">
+        <v>WHISTLING X5PCS</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B53" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C53" t="str">
+        <v>RM27.00</v>
+      </c>
+      <c r="D53" t="str">
+        <v>4 ply hunter green earloop</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B54" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C54" t="str">
+        <v>RM27.00</v>
+      </c>
+      <c r="D54" t="str">
+        <v>4 ply premium black extra protection earloop</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B55" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C55" t="str">
+        <v>RM27.00</v>
+      </c>
+      <c r="D55" t="str">
+        <v>4 ply premium denim blue extra protection earloop</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B56" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C56" t="str">
+        <v>RM27.00</v>
+      </c>
+      <c r="D56" t="str">
+        <v>4PLY STEEL GREY</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B57" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C57" t="str">
+        <v>RM27.00</v>
+      </c>
+      <c r="D57" t="str">
+        <v>4PLY MERLOT</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B58" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C58" t="str">
+        <v>RM27.00</v>
+      </c>
+      <c r="D58" t="str">
+        <v>4PLY FEATHER IRIS</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B59" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C59" t="str">
+        <v>RM35.00</v>
+      </c>
+      <c r="D59" t="str">
+        <v>4ply misty blue</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B60" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C60" t="str">
+        <v>RM28.99</v>
+      </c>
+      <c r="D60" t="str">
+        <v>4ply sage green</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B61" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C61" t="str">
+        <v>RM33.90</v>
+      </c>
+      <c r="D61" t="str">
+        <v>4ply premium barracks series earloop</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B62" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C62" t="str">
+        <v>RM33.90</v>
+      </c>
+      <c r="D62" t="str">
+        <v>4ply premium earthly brown series earloop</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B63" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C63" t="str">
+        <v>RM26.50</v>
+      </c>
+      <c r="D63" t="str">
+        <v>KF94 JET BLACK 10s</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B64" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C64" t="str">
+        <v>RM26.50</v>
+      </c>
+      <c r="D64" t="str">
+        <v>kf94 pool blue 10s</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B65" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C65" t="str">
+        <v>RM26.50</v>
+      </c>
+      <c r="D65" t="str">
+        <v>kf94dynamitegrey 10s</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B66" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C66" t="str">
+        <v>RM26.50</v>
+      </c>
+      <c r="D66" t="str">
+        <v>kf94 oxford blue 10s</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B67" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C67" t="str">
+        <v>RM26.50</v>
+      </c>
+      <c r="D67" t="str">
+        <v>KF94 MACARONPINK 10s</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B68" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C68" t="str">
+        <v>RM17.42</v>
+      </c>
+      <c r="D68" t="str">
+        <v>3 ply basic blue earloop</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B69" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C69" t="str">
+        <v>RM28.00</v>
+      </c>
+      <c r="D69" t="str">
+        <v>3ply basic lavender EARLOOP</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B70" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C70" t="str">
+        <v>RM19.90</v>
+      </c>
+      <c r="D70" t="str">
+        <v>3ply basic sweet pink earloop</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B71" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C71" t="str">
+        <v>RM22.00</v>
+      </c>
+      <c r="D71" t="str">
+        <v>3 ply basic arctic lime earloop</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B72" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C72" t="str">
+        <v>RM28.50</v>
+      </c>
+      <c r="D72" t="str">
+        <v>3ply premium white earloop</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B73" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C73" t="str">
+        <v>RM24.90</v>
+      </c>
+      <c r="D73" t="str">
+        <v>3 ply premium lavender earloop</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B74" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C74" t="str">
+        <v>RM32.90</v>
+      </c>
+      <c r="D74" t="str">
+        <v>3 ply premium baby yellow earloop</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B75" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C75" t="str">
+        <v>RM33.90</v>
+      </c>
+      <c r="D75" t="str">
+        <v>3ply airy secure dusty rose</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B76" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C76" t="str">
+        <v>RM32.87</v>
+      </c>
+      <c r="D76" t="str">
+        <v>3ply premium ombre mojito mint earloop</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B77" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C77" t="str">
+        <v>RM28.00</v>
+      </c>
+      <c r="D77" t="str">
+        <v>3 ply premium baby pink earloop</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B78" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C78" t="str">
+        <v>RM30.00</v>
+      </c>
+      <c r="D78" t="str">
+        <v>3ply premium omni grey earloop</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B79" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C79" t="str">
+        <v>RM27.90</v>
+      </c>
+      <c r="D79" t="str">
+        <v>neutrovis bluejay</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B80" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C80" t="str">
+        <v>RM28.00</v>
+      </c>
+      <c r="D80" t="str">
+        <v>PREMIUM GAYA RAYA SERIES</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B81" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C81" t="str">
+        <v>RM28.00</v>
+      </c>
+      <c r="D81" t="str">
+        <v>PREMIUM JOM RAYA SERIES</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B82" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C82" t="str">
+        <v>RM35.00</v>
+      </c>
+      <c r="D82" t="str">
+        <v>3PLY BASIC KIDS earloop</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B83" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C83" t="str">
+        <v>RM28.99</v>
+      </c>
+      <c r="D83" t="str">
+        <v>4ply kid denim blue</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B84" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C84" t="str">
+        <v>RM28.99</v>
+      </c>
+      <c r="D84" t="str">
+        <v>4ply kid hunter gree</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B85" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C85" t="str">
+        <v>RM28.99</v>
+      </c>
+      <c r="D85" t="str">
+        <v>4ply kid black</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B86" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C86" t="str">
+        <v>RM30.00</v>
+      </c>
+      <c r="D86" t="str">
+        <v>3 ply premium lavender for KIDS</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B87" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C87" t="str">
+        <v>RM24.90</v>
+      </c>
+      <c r="D87" t="str">
+        <v>3PLY basic sky blue HEADLOOP</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B88" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C88" t="str">
+        <v>RM28.50</v>
+      </c>
+      <c r="D88" t="str">
+        <v>3ply premium lavender HEADLOOP</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B89" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C89" t="str">
+        <v>RM29.90</v>
+      </c>
+      <c r="D89" t="str">
+        <v>himaya headloop latte</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B90" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C90" t="str">
+        <v>RM27.90</v>
+      </c>
+      <c r="D90" t="str">
+        <v>himaya headloop olive</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B91" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C91" t="str">
+        <v>RM27.90</v>
+      </c>
+      <c r="D91" t="str">
+        <v>himaya headloop apricot</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B92" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C92" t="str">
+        <v>RM29.90</v>
+      </c>
+      <c r="D92" t="str">
+        <v>himaya headloop lagoon</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B93" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C93" t="str">
+        <v>RM21.90</v>
+      </c>
+      <c r="D93" t="str">
+        <v>4PLY YOOHOO30S ADULT</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B94" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C94" t="str">
+        <v>RM21.90</v>
+      </c>
+      <c r="D94" t="str">
+        <v>4PLY YOOHOO KIDS 30S</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B95" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C95" t="str">
+        <v>RM38.90</v>
+      </c>
+      <c r="D95" t="str">
+        <v>KF94 BLOSSOM16S ADUL</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B96" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C96" t="str">
+        <v>RM38.90</v>
+      </c>
+      <c r="D96" t="str">
+        <v>KF94 BLOSSOM16SKIDS</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B97" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C97" t="str">
+        <v>RM38.90</v>
+      </c>
+      <c r="D97" t="str">
+        <v>KF94 SPRING ADULT16S</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B98" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C98" t="str">
+        <v>RM38.90</v>
+      </c>
+      <c r="D98" t="str">
+        <v>KF94 AUSPI ADULT16S</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B99" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C99" t="str">
+        <v>RM38.90</v>
+      </c>
+      <c r="D99" t="str">
+        <v>KF94 AUSPI KIDS 16S</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B100" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C100" t="str">
+        <v>RM15.50</v>
+      </c>
+      <c r="D100" t="str">
+        <v>MEDIPRO SKY BLUE</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B101" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C101" t="str">
+        <v>RM25.75</v>
+      </c>
+      <c r="D101" t="str">
+        <v>MEDIPRO DENIM</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B102" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C102" t="str">
+        <v>RM25.75</v>
+      </c>
+      <c r="D102" t="str">
+        <v>MEDIPRO BLACK</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>MEDIPRO DENIM BLUE 4PLY MEDICAL FACE MASK [DENIM BLUE] [2BOX FREE 1 HAND SANITIZER]</v>
+      </c>
+      <c r="B103" t="str">
+        <v>472</v>
+      </c>
+      <c r="C103" t="str">
+        <v>RM22.91</v>
+      </c>
+      <c r="D103" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>[LUCKY PHARMACY] NEUTROVIS COVID 19 TEST KIT - NASAL SWAB 1PCS</v>
+      </c>
+      <c r="B104" t="str">
+        <v>8</v>
+      </c>
+      <c r="C104" t="str">
+        <v>RM6.50</v>
+      </c>
+      <c r="D104" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>[LUCKY PHARMACY] LEPU Medical Covid-19 RTK Test Kit (Nasal Swab) 1 test kit / box / WHISTLING LOLLIPOP / EAGLE BIO / ALLTEST/ NEWGENE/ SALIXIUM / BERIGHT</v>
+      </c>
+      <c r="B105" t="str">
+        <v>77</v>
+      </c>
+      <c r="C105" t="str">
+        <v>RM7.68</v>
+      </c>
+      <c r="D105" t="str">
+        <v>LEPU X1 PCSS</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>[LUCKY PHARMACY] LEPU Medical Covid-19 RTK Test Kit (Nasal Swab) 1 test kit / box / WHISTLING LOLLIPOP / EAGLE BIO / ALLTEST/ NEWGENE/ SALIXIUM / BERIGHT</v>
+      </c>
+      <c r="B106" t="str">
+        <v>77</v>
+      </c>
+      <c r="C106" t="str">
+        <v>RM37.45</v>
+      </c>
+      <c r="D106" t="str">
+        <v>LEPU X5PCS</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>[LUCKY PHARMACY] LEPU Medical Covid-19 RTK Test Kit (Nasal Swab) 1 test kit / box / WHISTLING LOLLIPOP / EAGLE BIO / ALLTEST/ NEWGENE/ SALIXIUM / BERIGHT</v>
+      </c>
+      <c r="B107" t="str">
+        <v>77</v>
+      </c>
+      <c r="C107" t="str">
+        <v>RM6.90</v>
+      </c>
+      <c r="D107" t="str">
+        <v>WHISTLING X1PCSS</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>[LUCKY PHARMACY] LEPU Medical Covid-19 RTK Test Kit (Nasal Swab) 1 test kit / box / WHISTLING LOLLIPOP / EAGLE BIO / ALLTEST/ NEWGENE/ SALIXIUM / BERIGHT</v>
+      </c>
+      <c r="B108" t="str">
+        <v>77</v>
+      </c>
+      <c r="C108" t="str">
+        <v>RM30.50</v>
+      </c>
+      <c r="D108" t="str">
+        <v>WHISTLING X5PCSS</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>[LUCKY PHARMACY] LEPU Medical Covid-19 RTK Test Kit (Nasal Swab) 1 test kit / box / WHISTLING LOLLIPOP / EAGLE BIO / ALLTEST/ NEWGENE/ SALIXIUM / BERIGHT</v>
+      </c>
+      <c r="B109" t="str">
+        <v>77</v>
+      </c>
+      <c r="C109" t="str">
+        <v>RM5.28</v>
+      </c>
+      <c r="D109" t="str">
+        <v>ADULT N KIDS X1PCS</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>Eagle Bio Covid 19 Antigen IVD Lolipop Test Kit 1'S / WHISTLING LOLLIPOP X1S</v>
+      </c>
+      <c r="B110" t="str">
+        <v>1089</v>
+      </c>
+      <c r="C110" t="str">
+        <v>RM5.35</v>
+      </c>
+      <c r="D110" t="str">
+        <v>EAGLE BIO X1TESTS</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>Eagle Bio Covid 19 Antigen IVD Lolipop Test Kit 1'S / WHISTLING LOLLIPOP X1S</v>
+      </c>
+      <c r="B111" t="str">
+        <v>1089</v>
+      </c>
+      <c r="C111" t="str">
+        <v>RM7.50</v>
+      </c>
+      <c r="D111" t="str">
+        <v>WHISTLING X1TESTS</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>Eagle Bio Covid 19 Antigen IVD Lolipop Test Kit 1'S / WHISTLING LOLLIPOP X1S</v>
+      </c>
+      <c r="B112" t="str">
+        <v>1089</v>
+      </c>
+      <c r="C112" t="str">
+        <v>RM5.25</v>
+      </c>
+      <c r="D112" t="str">
+        <v>ADULT N KIDS X1PCS</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>MEDIPRO SURGITECH 4ply premium medical face mask earloop 50pcs/box [VIRGIN COTTON WHITE]</v>
+      </c>
+      <c r="B113" t="str">
+        <v>46</v>
+      </c>
+      <c r="C113" t="str">
+        <v>RM25.78</v>
+      </c>
+      <c r="D113" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>[NEW STOCK ARRIVED TODAY!! READY STOCK!! ]SALIXIUM Rapid Antigen Test 1s/ 6s [READY STOCK]LUCKY PHARMACY</v>
+      </c>
+      <c r="B114" t="str">
+        <v>2134</v>
+      </c>
+      <c r="C114" t="str">
+        <v>RM7.85</v>
+      </c>
+      <c r="D114" t="str">
+        <v>salixium 1s</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>[NEW STOCK ARRIVED TODAY!! READY STOCK!! ]SALIXIUM Rapid Antigen Test 1s/ 6s [READY STOCK]LUCKY PHARMACY</v>
+      </c>
+      <c r="B115" t="str">
+        <v>2134</v>
+      </c>
+      <c r="C115" t="str">
+        <v>RM4.30</v>
+      </c>
+      <c r="D115" t="str">
+        <v>TESTNGO X1PCSS</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>[NEW STOCK]Lohas Premium Raw Honey 1KG</v>
+      </c>
+      <c r="B116" t="str">
+        <v>227</v>
+      </c>
+      <c r="C116" t="str">
+        <v>RM28.99</v>
+      </c>
+      <c r="D116" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>MEDIPRO SURGITECH 4ply/ 3ply PREMIUM ULTRA SOFT FACE MASK [READY STOCK IN KL]</v>
+      </c>
+      <c r="B117" t="str">
+        <v>1698</v>
+      </c>
+      <c r="C117" t="str">
+        <v>RM15.82</v>
+      </c>
+      <c r="D117" t="str">
+        <v>Blue 3PLY</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>MEDIPRO SURGITECH 4ply/ 3ply PREMIUM ULTRA SOFT FACE MASK [READY STOCK IN KL]</v>
+      </c>
+      <c r="B118" t="str">
+        <v>1698</v>
+      </c>
+      <c r="C118" t="str">
+        <v>RM20.19</v>
+      </c>
+      <c r="D118" t="str">
+        <v>White 3PLY</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>MEDIPRO SURGITECH 4ply/ 3ply PREMIUM ULTRA SOFT FACE MASK [READY STOCK IN KL]</v>
+      </c>
+      <c r="B119" t="str">
+        <v>1698</v>
+      </c>
+      <c r="C119" t="str">
+        <v>RM23.67</v>
+      </c>
+      <c r="D119" t="str">
+        <v>Black 4PLY</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>MEDIPRO SURGITECH 4ply/ 3ply PREMIUM ULTRA SOFT FACE MASK [READY STOCK IN KL]</v>
+      </c>
+      <c r="B120" t="str">
+        <v>1698</v>
+      </c>
+      <c r="C120" t="str">
+        <v>RM23.67</v>
+      </c>
+      <c r="D120" t="str">
+        <v>denim blue 4PLY</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>MEDIPRO SURGITECH 4ply/ 3ply PREMIUM ULTRA SOFT FACE MASK [READY STOCK IN KL]</v>
+      </c>
+      <c r="B121" t="str">
+        <v>1698</v>
+      </c>
+      <c r="C121" t="str">
+        <v>RM25.30</v>
+      </c>
+      <c r="D121" t="str">
+        <v>WHITE 4PLY</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>MEDIPRO SURGITECH Premium denim blue 4PLY ULTIMATE PROTECTION medical face mask 50pcs/box</v>
+      </c>
+      <c r="B122" t="str">
+        <v>268</v>
+      </c>
+      <c r="C122" t="str">
+        <v>RM23.37</v>
+      </c>
+      <c r="D122" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>MEDIPRO SURGITECH 3ply premium medical face mask earloop 50pcs/box</v>
+      </c>
+      <c r="B123" t="str">
+        <v>155</v>
+      </c>
+      <c r="C123" t="str">
+        <v>RM16.89</v>
+      </c>
+      <c r="D123" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>LUCKY PHARMACY Maxsure Platinum Vanilla Flavour 850g Buy 8 Free 1 400g/ Ensure Good Health No Dairy Suitable for Vegetarian Halal</v>
+      </c>
+      <c r="B124" t="str">
+        <v>39</v>
+      </c>
+      <c r="C124" t="str">
+        <v>RM82.00</v>
+      </c>
+      <c r="D124" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>BERIGHT saliva antigen test kit 1s (READY STOCK) Covid 19 Home Test Kit READY STOCK LUCKY PHARMACY</v>
+      </c>
+      <c r="B125" t="str">
+        <v>1172</v>
+      </c>
+      <c r="C125" t="str">
+        <v>RM5.90</v>
+      </c>
+      <c r="D125" t="str">
+        <v>BERIHGT X1PCS</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>BERIGHT saliva antigen test kit 1s (READY STOCK) Covid 19 Home Test Kit READY STOCK LUCKY PHARMACY</v>
+      </c>
+      <c r="B126" t="str">
+        <v>1172</v>
+      </c>
+      <c r="C126" t="str">
+        <v>RM119.90</v>
+      </c>
+      <c r="D126" t="str">
+        <v>BERIGHT X20PCS</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>BERIGHT saliva antigen test kit 1s (READY STOCK) Covid 19 Home Test Kit READY STOCK LUCKY PHARMACY</v>
+      </c>
+      <c r="B127" t="str">
+        <v>1172</v>
+      </c>
+      <c r="C127" t="str">
+        <v>RM2,879.90</v>
+      </c>
+      <c r="D127" t="str">
+        <v>BERIGHT X480PCS</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>BERIGHT saliva antigen test kit 1s (READY STOCK) Covid 19 Home Test Kit READY STOCK LUCKY PHARMACY</v>
+      </c>
+      <c r="B128" t="str">
+        <v>1172</v>
+      </c>
+      <c r="C128" t="str">
+        <v>RM5.75</v>
+      </c>
+      <c r="D128" t="str">
+        <v>ALLTEST 1S</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>[LUCKY PHARMACY] genuine with authentic sticker MAKE SURE 4PLY NEUTROVIS FACE MASK WITH AUTHENTIC STICKER! neutrovis 4ply extra protection medical face mask HUNTER GREEN 50pcs</v>
+      </c>
+      <c r="B129" t="str">
+        <v>603</v>
+      </c>
+      <c r="C129" t="str">
+        <v>RM28.99</v>
+      </c>
+      <c r="D129" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>[LUCKY PHARMACY] MEDIVEN ProDetect® SALIVA COVID-19 Antigen Rapid Home Self Test Kit Covid Self Test Kit</v>
+      </c>
+      <c r="B130" t="str">
+        <v>6</v>
+      </c>
+      <c r="C130" t="str">
+        <v>RM7.79</v>
+      </c>
+      <c r="D130" t="str">
+        <v>PRODETECT X1PCS</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>[LUCKY PHARMACY] UD-Bio TestNGo Antigen Saliva Self Test Kit 1PCS / 20 PCS (MDA Approved)</v>
+      </c>
+      <c r="B131" t="str">
+        <v>24</v>
+      </c>
+      <c r="C131" t="str">
+        <v>RM4.98</v>
+      </c>
+      <c r="D131" t="str">
+        <v>TESTNGO X1PCS</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>[LUCKY PHARMACY] UD-Bio TestNGo Antigen Saliva Self Test Kit 1PCS / 20 PCS (MDA Approved)</v>
+      </c>
+      <c r="B132" t="str">
+        <v>24</v>
+      </c>
+      <c r="C132" t="str">
+        <v>RM99.40</v>
+      </c>
+      <c r="D132" t="str">
+        <v>TESTNGO X20PCS</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>[POST IN 24HOURS] NEWGENE COVID 19 Home Self Test Rapid Antigen Kit (RTK) (Sputum/Saliva)[2in1] 25TEST/ 1 BOX [LUCKY PHARMACY] 1PCS / 25PCS</v>
+      </c>
+      <c r="B133" t="str">
+        <v>773</v>
+      </c>
+      <c r="C133" t="str">
+        <v>RM92.30</v>
+      </c>
+      <c r="D133" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>BioConnexion Oat Grain 35 With FOS 500g [READY STOCK]/ BIO OATS BETA GLUCAN KING</v>
+      </c>
+      <c r="B134" t="str">
+        <v>128</v>
+      </c>
+      <c r="C134" t="str">
+        <v>RM43.90</v>
+      </c>
+      <c r="D134" t="str">
+        <v>BIO OATS BETA GLUCAN</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>BioConnexion Oat Grain 35 With FOS 500g [READY STOCK]/ BIO OATS BETA GLUCAN KING</v>
+      </c>
+      <c r="B135" t="str">
+        <v>128</v>
+      </c>
+      <c r="C135" t="str">
+        <v>RM48.99</v>
+      </c>
+      <c r="D135" t="str">
+        <v>OAT GRAIN 35</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>(MDA Approved) [ READY STOCK] Gmate / Salixium /All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP/ GENRUI Saliva Antigen Self Test Kit [LUCKY PHARMACY]</v>
+      </c>
+      <c r="B136" t="str">
+        <v>1503</v>
+      </c>
+      <c r="C136" t="str">
+        <v>RM5.29</v>
+      </c>
+      <c r="D136" t="str">
+        <v>SEJOY X1S</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>(MDA Approved) [ READY STOCK] Gmate / Salixium /All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP/ GENRUI Saliva Antigen Self Test Kit [LUCKY PHARMACY]</v>
+      </c>
+      <c r="B137" t="str">
+        <v>1503</v>
+      </c>
+      <c r="C137" t="str">
+        <v>RM5.85</v>
+      </c>
+      <c r="D137" t="str">
+        <v>BERIGHT 1S</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>(MDA Approved) [ READY STOCK] Gmate / Salixium /All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP/ GENRUI Saliva Antigen Self Test Kit [LUCKY PHARMACY]</v>
+      </c>
+      <c r="B138" t="str">
+        <v>1503</v>
+      </c>
+      <c r="C138" t="str">
+        <v>RM5.85</v>
+      </c>
+      <c r="D138" t="str">
+        <v>ALLTEST 1S</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>(MDA Approved) [ READY STOCK] Gmate / Salixium /All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP/ GENRUI Saliva Antigen Self Test Kit [LUCKY PHARMACY]</v>
+      </c>
+      <c r="B139" t="str">
+        <v>1503</v>
+      </c>
+      <c r="C139" t="str">
+        <v>RM7.90</v>
+      </c>
+      <c r="D139" t="str">
+        <v>SALIXIUM 1S</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>(MDA Approved) [ READY STOCK] Gmate / Salixium /All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP/ GENRUI Saliva Antigen Self Test Kit [LUCKY PHARMACY]</v>
+      </c>
+      <c r="B140" t="str">
+        <v>1503</v>
+      </c>
+      <c r="C140" t="str">
+        <v>RM3.68</v>
+      </c>
+      <c r="D140" t="str">
+        <v>NEWGENE 1S</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>(MDA Approved) [ READY STOCK] Gmate / Salixium /All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP/ GENRUI Saliva Antigen Self Test Kit [LUCKY PHARMACY]</v>
+      </c>
+      <c r="B141" t="str">
+        <v>1503</v>
+      </c>
+      <c r="C141" t="str">
+        <v>RM99.00</v>
+      </c>
+      <c r="D141" t="str">
+        <v>NEWGENE 25S/1BOX</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>(MDA Approved) [ READY STOCK] Gmate / Salixium /All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP/ GENRUI Saliva Antigen Self Test Kit [LUCKY PHARMACY]</v>
+      </c>
+      <c r="B142" t="str">
+        <v>1503</v>
+      </c>
+      <c r="C142" t="str">
+        <v>RM5.90</v>
+      </c>
+      <c r="D142" t="str">
+        <v>JUSCHECK 1S</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>(MDA Approved) [ READY STOCK] Gmate / Salixium /All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP/ GENRUI Saliva Antigen Self Test Kit [LUCKY PHARMACY]</v>
+      </c>
+      <c r="B143" t="str">
+        <v>1503</v>
+      </c>
+      <c r="C143" t="str">
+        <v>RM14.85</v>
+      </c>
+      <c r="D143" t="str">
+        <v>GMATE 1S</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>(MDA Approved) [ READY STOCK] Gmate / Salixium /All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP/ GENRUI Saliva Antigen Self Test Kit [LUCKY PHARMACY]</v>
+      </c>
+      <c r="B144" t="str">
+        <v>1503</v>
+      </c>
+      <c r="C144" t="str">
+        <v>RM5.99</v>
+      </c>
+      <c r="D144" t="str">
+        <v>DIACEGENE 1S</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>(MDA Approved) [ READY STOCK] Gmate / Salixium /All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP/ GENRUI Saliva Antigen Self Test Kit [LUCKY PHARMACY]</v>
+      </c>
+      <c r="B145" t="str">
+        <v>1503</v>
+      </c>
+      <c r="C145" t="str">
+        <v>RM6.90</v>
+      </c>
+      <c r="D145" t="str">
+        <v>LYHER 1S</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>(MDA Approved) [ READY STOCK] Gmate / Salixium /All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP/ GENRUI Saliva Antigen Self Test Kit [LUCKY PHARMACY]</v>
+      </c>
+      <c r="B146" t="str">
+        <v>1503</v>
+      </c>
+      <c r="C146" t="str">
+        <v>RM5.90</v>
+      </c>
+      <c r="D146" t="str">
+        <v>WHISTLING 1S</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>(MDA Approved) [ READY STOCK] Gmate / Salixium /All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP/ GENRUI Saliva Antigen Self Test Kit [LUCKY PHARMACY]</v>
+      </c>
+      <c r="B147" t="str">
+        <v>1503</v>
+      </c>
+      <c r="C147" t="str">
+        <v>RM6.90</v>
+      </c>
+      <c r="D147" t="str">
+        <v>GENRUI X1S</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>NEUTROVIS 4PLY PREMIUM FACE MASK STEEL GREY/ MISTY BLUE/SAGE GREEN/ MERLOT/FEATHER IRIS [NEW COLOUR] /MEDIPRO MEDICAL FACE MASK</v>
+      </c>
+      <c r="B148" t="str">
+        <v>329</v>
+      </c>
+      <c r="C148" t="str">
+        <v>RM27.00</v>
+      </c>
+      <c r="D148" t="str">
+        <v>MERLOT</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>NEUTROVIS 4PLY PREMIUM FACE MASK STEEL GREY/ MISTY BLUE/SAGE GREEN/ MERLOT/FEATHER IRIS [NEW COLOUR] /MEDIPRO MEDICAL FACE MASK</v>
+      </c>
+      <c r="B149" t="str">
+        <v>329</v>
+      </c>
+      <c r="C149" t="str">
+        <v>RM27.00</v>
+      </c>
+      <c r="D149" t="str">
+        <v>STEEL GREY</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>NEUTROVIS 4PLY PREMIUM FACE MASK STEEL GREY/ MISTY BLUE/SAGE GREEN/ MERLOT/FEATHER IRIS [NEW COLOUR] /MEDIPRO MEDICAL FACE MASK</v>
+      </c>
+      <c r="B150" t="str">
+        <v>329</v>
+      </c>
+      <c r="C150" t="str">
+        <v>RM27.00</v>
+      </c>
+      <c r="D150" t="str">
+        <v>MISTY BLUE</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>NEUTROVIS 4PLY PREMIUM FACE MASK STEEL GREY/ MISTY BLUE/SAGE GREEN/ MERLOT/FEATHER IRIS [NEW COLOUR] /MEDIPRO MEDICAL FACE MASK</v>
+      </c>
+      <c r="B151" t="str">
+        <v>329</v>
+      </c>
+      <c r="C151" t="str">
+        <v>RM27.00</v>
+      </c>
+      <c r="D151" t="str">
+        <v>FEATHER IRIS</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>NEUTROVIS 4PLY PREMIUM FACE MASK STEEL GREY/ MISTY BLUE/SAGE GREEN/ MERLOT/FEATHER IRIS [NEW COLOUR] /MEDIPRO MEDICAL FACE MASK</v>
+      </c>
+      <c r="B152" t="str">
+        <v>329</v>
+      </c>
+      <c r="C152" t="str">
+        <v>RM27.00</v>
+      </c>
+      <c r="D152" t="str">
+        <v>SAGE GREEN</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>NEUTROVIS 4PLY PREMIUM FACE MASK STEEL GREY/ MISTY BLUE/SAGE GREEN/ MERLOT/FEATHER IRIS [NEW COLOUR] /MEDIPRO MEDICAL FACE MASK</v>
+      </c>
+      <c r="B153" t="str">
+        <v>329</v>
+      </c>
+      <c r="C153" t="str">
+        <v>RM25.78</v>
+      </c>
+      <c r="D153" t="str">
+        <v>MEDIPRO DENIM 4PLY</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>NEUTROVIS 4PLY PREMIUM FACE MASK STEEL GREY/ MISTY BLUE/SAGE GREEN/ MERLOT/FEATHER IRIS [NEW COLOUR] /MEDIPRO MEDICAL FACE MASK</v>
+      </c>
+      <c r="B154" t="str">
+        <v>329</v>
+      </c>
+      <c r="C154" t="str">
+        <v>RM25.78</v>
+      </c>
+      <c r="D154" t="str">
+        <v>MEDIPRO BLACK 4PLY</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>NEUTROVIS 4PLY PREMIUM FACE MASK STEEL GREY/ MISTY BLUE/SAGE GREEN/ MERLOT/FEATHER IRIS [NEW COLOUR] /MEDIPRO MEDICAL FACE MASK</v>
+      </c>
+      <c r="B155" t="str">
+        <v>329</v>
+      </c>
+      <c r="C155" t="str">
+        <v>RM15.50</v>
+      </c>
+      <c r="D155" t="str">
+        <v>MEDIPRO SKY BLUE 3PL</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>NEUTROVIS 4PLY PREMIUM FACE MASK STEEL GREY/ MISTY BLUE/SAGE GREEN/ MERLOT/FEATHER IRIS [NEW COLOUR] /MEDIPRO MEDICAL FACE MASK</v>
+      </c>
+      <c r="B156" t="str">
+        <v>329</v>
+      </c>
+      <c r="C156" t="str">
+        <v>RM17.90</v>
+      </c>
+      <c r="D156" t="str">
+        <v>MEDIPRO KIDS BLUE</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>MEDIPRO SURGITECH 3ply premium medical face mask earloop 50pcs/box [NEW SKY BLUE] 2BOX FOR RM31.80 + FREE 1 HAND SANITIZER</v>
+      </c>
+      <c r="B157" t="str">
+        <v>172</v>
+      </c>
+      <c r="C157" t="str">
+        <v>RM31.80</v>
+      </c>
+      <c r="D157" t="str">
+        <v>2BOX +1 HAND SANITIZ</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>MEDIPRO SURGITECH 3ply premium medical face mask earloop 50pcs/box [NEW SKY BLUE] 2BOX FOR RM31.80 + FREE 1 HAND SANITIZER</v>
+      </c>
+      <c r="B158" t="str">
+        <v>172</v>
+      </c>
+      <c r="C158" t="str">
+        <v>RM16.90</v>
+      </c>
+      <c r="D158" t="str">
+        <v>1BOX</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>[LUCKY PHARMACY]【BEWARE FAKE PRODUCT, 4PLY WITH AUTHENTIC STICKER]100% ORIGINAL WITH LOGO EMBOSSED 4ply Earloop Extra Protection Premium Denim Blue Medical Face Mask by Neutrovis (Adult) 50 sheets</v>
+      </c>
+      <c r="B159" t="str">
+        <v>5199</v>
+      </c>
+      <c r="C159" t="str">
+        <v>RM27.00</v>
+      </c>
+      <c r="D159" t="str">
+        <v>NEUTROVIS DENIM X50</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>[LUCKY PHARMACY]【BEWARE FAKE PRODUCT, 4PLY WITH AUTHENTIC STICKER]100% ORIGINAL WITH LOGO EMBOSSED 4ply Earloop Extra Protection Premium Denim Blue Medical Face Mask by Neutrovis (Adult) 50 sheets</v>
+      </c>
+      <c r="B160" t="str">
+        <v>5199</v>
+      </c>
+      <c r="C160" t="str">
+        <v>RM25.78</v>
+      </c>
+      <c r="D160" t="str">
+        <v>MEDIPRO DENIM X50</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>[LUCKY PHARMACY]【BEWARE FAKE PRODUCT, 4PLY WITH AUTHENTIC STICKER]100% ORIGINAL WITH LOGO EMBOSSED 4ply Earloop Extra Protection Premium Denim Blue Medical Face Mask by Neutrovis (Adult) 50 sheets</v>
+      </c>
+      <c r="B161" t="str">
+        <v>5199</v>
+      </c>
+      <c r="C161" t="str">
+        <v>RM25.78</v>
+      </c>
+      <c r="D161" t="str">
+        <v>MEDIPRO BLACK X50</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>[LUCKY PHARMACY]NEUTROVIS PREMIUM MEDICAL FACE MASK AIRY SECURE SERIES- SKY BLUE 50PCS earloop</v>
+      </c>
+      <c r="B162" t="str">
+        <v>162</v>
+      </c>
+      <c r="C162" t="str">
+        <v>RM23.90</v>
+      </c>
+      <c r="D162" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>[LUCKY PHARMACY] [READY STOCK] ALLtest saliva antigen test kit 1s (READY STOCK) Covid 19 Home Test Kit READY STOCK LUCKY PHARMACY 1S OR 200PCS</v>
+      </c>
+      <c r="B163" t="str">
+        <v>4797</v>
+      </c>
+      <c r="C163" t="str">
+        <v>RM4.49</v>
+      </c>
+      <c r="D163" t="str">
+        <v>TESTNGO X1SSS</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>[LUCKY PHARMACY] [READY STOCK] ALLtest saliva antigen test kit 1s (READY STOCK) Covid 19 Home Test Kit READY STOCK LUCKY PHARMACY 1S OR 200PCS</v>
+      </c>
+      <c r="B164" t="str">
+        <v>4797</v>
+      </c>
+      <c r="C164" t="str">
+        <v>RM5.20</v>
+      </c>
+      <c r="D164" t="str">
+        <v>ALLTEST 1S</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>[LUCKY PHARMACY] [READY STOCK] ALLtest saliva antigen test kit 1s (READY STOCK) Covid 19 Home Test Kit READY STOCK LUCKY PHARMACY 1S OR 200PCS</v>
+      </c>
+      <c r="B165" t="str">
+        <v>4797</v>
+      </c>
+      <c r="C165" t="str">
+        <v>RM1,159.98</v>
+      </c>
+      <c r="D165" t="str">
+        <v>ALLTEST 200PCS</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>[LUCKY PHARMACY] GENFARM 2 IN 1 NASAL &amp; SALIVA Covid-19 RTK Test Kit 1 test kit / 25 PCS PER BOX</v>
+      </c>
+      <c r="B166" t="str">
+        <v>161</v>
+      </c>
+      <c r="C166" t="str">
+        <v>RM2,499.00</v>
+      </c>
+      <c r="D166" t="str">
+        <v>GENFARM X500TEST</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>[LUCKY PHARMACY] GENFARM 2 IN 1 NASAL &amp; SALIVA Covid-19 RTK Test Kit 1 test kit / 25 PCS PER BOX</v>
+      </c>
+      <c r="B167" t="str">
+        <v>161</v>
+      </c>
+      <c r="C167" t="str">
+        <v>RM4.65</v>
+      </c>
+      <c r="D167" t="str">
+        <v>GENFARM X1PCS</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>[LUCKY PHARMACY] GENFARM 2 IN 1 NASAL &amp; SALIVA Covid-19 RTK Test Kit 1 test kit / 25 PCS PER BOX</v>
+      </c>
+      <c r="B168" t="str">
+        <v>161</v>
+      </c>
+      <c r="C168" t="str">
+        <v>RM115.00</v>
+      </c>
+      <c r="D168" t="str">
+        <v>GENFARM X 25PCS</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>NEWGENE COVID 19 Home Self Test Rapid Antigen Kit (RTK) (Sputum/Saliva) [MDA/KKM Approved][LUCKY PHARMACY] 1PCS ONLY / 25PCS OR 1BOX</v>
+      </c>
+      <c r="B169" t="str">
+        <v>10242</v>
+      </c>
+      <c r="C169" t="str">
+        <v>RM3.52</v>
+      </c>
+      <c r="D169" t="str">
+        <v>NEWGENE X1TEST</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>NEWGENE COVID 19 Home Self Test Rapid Antigen Kit (RTK) (Sputum/Saliva) [MDA/KKM Approved][LUCKY PHARMACY] 1PCS ONLY / 25PCS OR 1BOX</v>
+      </c>
+      <c r="B170" t="str">
+        <v>10242</v>
+      </c>
+      <c r="C170" t="str">
+        <v>RM92.30</v>
+      </c>
+      <c r="D170" t="str">
+        <v>NEWGENE X1BOX/25TEST</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>[POST IN 24HOURS] NEWGENE COVID 19 Home Self Test Rapid Antigen Kit (RTK) (Sputum/Saliva)[2IN1] [MDA/KKM Approved][LUCKY PHARMACY]</v>
+      </c>
+      <c r="B171" t="str">
+        <v>2519</v>
+      </c>
+      <c r="C171" t="str">
+        <v>RM3.52</v>
+      </c>
+      <c r="D171" t="str">
+        <v>NEWGENE 1PCS</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>[POST IN 24HOURS] NEWGENE COVID 19 Home Self Test Rapid Antigen Kit (RTK) (Sputum/Saliva)[2IN1] [MDA/KKM Approved][LUCKY PHARMACY]</v>
+      </c>
+      <c r="B172" t="str">
+        <v>2519</v>
+      </c>
+      <c r="C172" t="str">
+        <v>RM92.30</v>
+      </c>
+      <c r="D172" t="str">
+        <v>NEWGENE 25PCS</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>(QR Code Stock) Newgene Covid Test KIT 1S [LUCKY PHARMACY]</v>
+      </c>
+      <c r="B173" t="str">
+        <v>84</v>
+      </c>
+      <c r="C173" t="str">
+        <v>RM3.52</v>
+      </c>
+      <c r="D173" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>[LUCKY PHARMACY] Biooats Beta Glucan 500G WITH COQ10 [BUY 6 FREE 1 TINS][BUY 2 FREE SHAKER]</v>
+      </c>
+      <c r="B174" t="str">
+        <v>34</v>
+      </c>
+      <c r="C174" t="str">
+        <v>RM55.00</v>
+      </c>
+      <c r="D174" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>pharmacy stock Ready Stock Super Pre Probiotics (益生菌）2gx30sticks/ SUPER postbiotics 5gx30 sticks</v>
+      </c>
+      <c r="B175" t="str">
+        <v>19</v>
+      </c>
+      <c r="C175" t="str">
+        <v>RM29.99</v>
+      </c>
+      <c r="D175" t="str">
+        <v>POSTbiotics</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>JUSCHEK / JUSCHECK saliva antigen test kit 1s (READY STOCK) Covid 19 Home Test Kit READY STOCK LUCKY PHARMACY 1PCS OR 200PCS</v>
+      </c>
+      <c r="B176" t="str">
+        <v>234</v>
+      </c>
+      <c r="C176" t="str">
+        <v>RM5.89</v>
+      </c>
+      <c r="D176" t="str">
+        <v>JUSCHEK 1PCS</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>MEDIPRO Surgitech Premium Black Ultimate Protection medical face mask 50pcs/box</v>
+      </c>
+      <c r="B177" t="str">
+        <v>223</v>
+      </c>
+      <c r="C177" t="str">
+        <v>RM25.90</v>
+      </c>
+      <c r="D177" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>[LUCKY PHARMACY] ALLTEST/ WIKANG SARS-CoV-2 Antigen Detection Kit (Colloidal Gold Method)[ALLTEST/ SALIXIUM/ GMATE/ WIKANG/ NEWGENE/BERIGHT</v>
+      </c>
+      <c r="B178" t="str">
+        <v>808</v>
+      </c>
+      <c r="C178" t="str">
+        <v>RM5.20</v>
+      </c>
+      <c r="D178" t="str">
+        <v>ALLTEST X1TESTS</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>[LUCKY PHARMACY] ALLTEST/ WIKANG SARS-CoV-2 Antigen Detection Kit (Colloidal Gold Method)[ALLTEST/ SALIXIUM/ GMATE/ WIKANG/ NEWGENE/BERIGHT</v>
+      </c>
+      <c r="B179" t="str">
+        <v>808</v>
+      </c>
+      <c r="C179" t="str">
+        <v>RM4.90</v>
+      </c>
+      <c r="D179" t="str">
+        <v>WIKANG X1TESTS</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>[LUCKY PHARMACY] ALLTEST/ WIKANG SARS-CoV-2 Antigen Detection Kit (Colloidal Gold Method)[ALLTEST/ SALIXIUM/ GMATE/ WIKANG/ NEWGENE/BERIGHT</v>
+      </c>
+      <c r="B180" t="str">
+        <v>808</v>
+      </c>
+      <c r="C180" t="str">
+        <v>RM4.49</v>
+      </c>
+      <c r="D180" t="str">
+        <v>TESTNGO X1TESTS</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>(MDA Approved) Gmate / Salixium /All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP/ GENRUI Saliva Antigen Self Test Kit [LUCKY PHARMACY]SHIP IN 24HOURS</v>
+      </c>
+      <c r="B181" t="str">
+        <v>1572</v>
+      </c>
+      <c r="C181" t="str">
+        <v>RM6.78</v>
+      </c>
+      <c r="D181" t="str">
+        <v>LYHER 1SS</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>(MDA Approved) Gmate / Salixium /All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP/ GENRUI Saliva Antigen Self Test Kit [LUCKY PHARMACY]SHIP IN 24HOURS</v>
+      </c>
+      <c r="B182" t="str">
+        <v>1572</v>
+      </c>
+      <c r="C182" t="str">
+        <v>RM14.98</v>
+      </c>
+      <c r="D182" t="str">
+        <v>GMATE 1S</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>(MDA Approved) Gmate / Salixium /All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP/ GENRUI Saliva Antigen Self Test Kit [LUCKY PHARMACY]SHIP IN 24HOURS</v>
+      </c>
+      <c r="B183" t="str">
+        <v>1572</v>
+      </c>
+      <c r="C183" t="str">
+        <v>RM7.90</v>
+      </c>
+      <c r="D183" t="str">
+        <v>SALIXIUM 1S</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>(MDA Approved) Gmate / Salixium /All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP/ GENRUI Saliva Antigen Self Test Kit [LUCKY PHARMACY]SHIP IN 24HOURS</v>
+      </c>
+      <c r="B184" t="str">
+        <v>1572</v>
+      </c>
+      <c r="C184" t="str">
+        <v>RM5.75</v>
+      </c>
+      <c r="D184" t="str">
+        <v>ALLTEST 1S</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>(MDA Approved) Gmate / Salixium /All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP/ GENRUI Saliva Antigen Self Test Kit [LUCKY PHARMACY]SHIP IN 24HOURS</v>
+      </c>
+      <c r="B185" t="str">
+        <v>1572</v>
+      </c>
+      <c r="C185" t="str">
+        <v>RM5.85</v>
+      </c>
+      <c r="D185" t="str">
+        <v>BERIGHT 1S</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>(MDA Approved) Gmate / Salixium /All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP/ GENRUI Saliva Antigen Self Test Kit [LUCKY PHARMACY]SHIP IN 24HOURS</v>
+      </c>
+      <c r="B186" t="str">
+        <v>1572</v>
+      </c>
+      <c r="C186" t="str">
+        <v>RM5.85</v>
+      </c>
+      <c r="D186" t="str">
+        <v>JUSCHECK 1S</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>(MDA Approved) Gmate / Salixium /All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP/ GENRUI Saliva Antigen Self Test Kit [LUCKY PHARMACY]SHIP IN 24HOURS</v>
+      </c>
+      <c r="B187" t="str">
+        <v>1572</v>
+      </c>
+      <c r="C187" t="str">
+        <v>RM3.68</v>
+      </c>
+      <c r="D187" t="str">
+        <v>NEWGENE 1S</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>(MDA Approved) Gmate / Salixium /All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP/ GENRUI Saliva Antigen Self Test Kit [LUCKY PHARMACY]SHIP IN 24HOURS</v>
+      </c>
+      <c r="B188" t="str">
+        <v>1572</v>
+      </c>
+      <c r="C188" t="str">
+        <v>RM5.99</v>
+      </c>
+      <c r="D188" t="str">
+        <v>DIACEGENE 1S</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>(MDA Approved) Gmate / Salixium /All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP/ GENRUI Saliva Antigen Self Test Kit [LUCKY PHARMACY]SHIP IN 24HOURS</v>
+      </c>
+      <c r="B189" t="str">
+        <v>1572</v>
+      </c>
+      <c r="C189" t="str">
+        <v>RM5.90</v>
+      </c>
+      <c r="D189" t="str">
+        <v>WHISTLING LOLLIPOP</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>(MDA Approved) Gmate / Salixium /All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP/ GENRUI Saliva Antigen Self Test Kit [LUCKY PHARMACY]SHIP IN 24HOURS</v>
+      </c>
+      <c r="B190" t="str">
+        <v>1572</v>
+      </c>
+      <c r="C190" t="str">
+        <v>RM6.90</v>
+      </c>
+      <c r="D190" t="str">
+        <v>GENRUI LOLLIPOP</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>(MDA Approved) Gmate / Salixium /All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP/ GENRUI Saliva Antigen Self Test Kit [LUCKY PHARMACY]SHIP IN 24HOURS</v>
+      </c>
+      <c r="B191" t="str">
+        <v>1572</v>
+      </c>
+      <c r="C191" t="str">
+        <v>RM5.29</v>
+      </c>
+      <c r="D191" t="str">
+        <v>SEJOY 1S</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>(MDA Approved) Gmate / Salixium /All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP/ GENRUI Saliva Antigen Self Test Kit [LUCKY PHARMACY]SHIP IN 24HOURS</v>
+      </c>
+      <c r="B192" t="str">
+        <v>1572</v>
+      </c>
+      <c r="C192" t="str">
+        <v>RM4.50</v>
+      </c>
+      <c r="D192" t="str">
+        <v>TESTNGO 1S</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>[POST IN 1DAY][LUCKY PHARMACY] Whistling COVID-19 Home Rapid Antigen test Kit (RTK) Lollipop Design - 5KITS</v>
+      </c>
+      <c r="B193" t="str">
+        <v>1960</v>
+      </c>
+      <c r="C193" t="str">
+        <v>RM32.50</v>
+      </c>
+      <c r="D193" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>[LUCKY PHARMACY]【BEWARE FAKE PRODUCT, 4PLY MASK WITH AUTHENTIC STICKER]100% ORIGINAL WITH LOGO EMBOSSED] Neutrovis 4ply premium BLACK EXTRA PROTECTION for sensitive skin</v>
+      </c>
+      <c r="B194" t="str">
+        <v>3157</v>
+      </c>
+      <c r="C194" t="str">
+        <v>RM25.75</v>
+      </c>
+      <c r="D194" t="str">
+        <v>MEDIPRO BLACK</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>[LUCKY PHARMACY]【BEWARE FAKE PRODUCT, 4PLY MASK WITH AUTHENTIC STICKER]100% ORIGINAL WITH LOGO EMBOSSED] Neutrovis 4ply premium BLACK EXTRA PROTECTION for sensitive skin</v>
+      </c>
+      <c r="B195" t="str">
+        <v>3157</v>
+      </c>
+      <c r="C195" t="str">
+        <v>RM27.00</v>
+      </c>
+      <c r="D195" t="str">
+        <v>NEUTROVIS BLACK 50S</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>[LUCKY PHARMACY]【BEWARE FAKE PRODUCT, 4PLY MASK WITH AUTHENTIC STICKER]100% ORIGINAL WITH LOGO EMBOSSED] Neutrovis 4ply premium BLACK EXTRA PROTECTION for sensitive skin</v>
+      </c>
+      <c r="B196" t="str">
+        <v>3157</v>
+      </c>
+      <c r="C196" t="str">
+        <v>RM25.75</v>
+      </c>
+      <c r="D196" t="str">
+        <v>MEDIPRO DENIM</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED NEUTROVIS Medical Face Mask For Adult | 3-Ply Ear-Loop | 50 PCS | BFE 98% | PFE 96% | Daily Use [SKY BLUE]</v>
+      </c>
+      <c r="B197" t="str">
+        <v>3503</v>
+      </c>
+      <c r="C197" t="str">
+        <v>RM15.50</v>
+      </c>
+      <c r="D197" t="str">
+        <v>MEDIPRO SKY BLUE</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED NEUTROVIS Medical Face Mask For Adult | 3-Ply Ear-Loop | 50 PCS | BFE 98% | PFE 96% | Daily Use [SKY BLUE]</v>
+      </c>
+      <c r="B198" t="str">
+        <v>3503</v>
+      </c>
+      <c r="C198" t="str">
+        <v>RM17.50</v>
+      </c>
+      <c r="D198" t="str">
+        <v>NEUTROVIS SKY BLUE</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>[LUCKY PHARMACY] (NEW ARRIVAL) BioDetect SALIVA COVID 19 RAPID Antigen Test Kit 1 BOX / TEST KIT</v>
+      </c>
+      <c r="B199" t="str">
+        <v>No</v>
+      </c>
+      <c r="C199" t="str">
+        <v>RM4.70</v>
+      </c>
+      <c r="D199" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>LUCKY PHARMACY Covid 19 Home Self Test Kit- Gmate / Salixium / DIACEGENE / All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP Saliva Antigen Self Home Test Kit</v>
+      </c>
+      <c r="B200" t="str">
+        <v>959</v>
+      </c>
+      <c r="C200" t="str">
+        <v>RM7.90</v>
+      </c>
+      <c r="D200" t="str">
+        <v>SALIXIUM 2IN1 X1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>LUCKY PHARMACY Covid 19 Home Self Test Kit- Gmate / Salixium / DIACEGENE / All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP Saliva Antigen Self Home Test Kit</v>
+      </c>
+      <c r="B201" t="str">
+        <v>959</v>
+      </c>
+      <c r="C201" t="str">
+        <v>RM14.98</v>
+      </c>
+      <c r="D201" t="str">
+        <v>GMATE [SALIVA] X1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>LUCKY PHARMACY Covid 19 Home Self Test Kit- Gmate / Salixium / DIACEGENE / All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP Saliva Antigen Self Home Test Kit</v>
+      </c>
+      <c r="B202" t="str">
+        <v>959</v>
+      </c>
+      <c r="C202" t="str">
+        <v>RM5.74</v>
+      </c>
+      <c r="D202" t="str">
+        <v>ALLTEST SALIVA X1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>LUCKY PHARMACY Covid 19 Home Self Test Kit- Gmate / Salixium / DIACEGENE / All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP Saliva Antigen Self Home Test Kit</v>
+      </c>
+      <c r="B203" t="str">
+        <v>959</v>
+      </c>
+      <c r="C203" t="str">
+        <v>RM5.85</v>
+      </c>
+      <c r="D203" t="str">
+        <v>BERIGHT SALIVA X1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>LUCKY PHARMACY Covid 19 Home Self Test Kit- Gmate / Salixium / DIACEGENE / All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP Saliva Antigen Self Home Test Kit</v>
+      </c>
+      <c r="B204" t="str">
+        <v>959</v>
+      </c>
+      <c r="C204" t="str">
+        <v>RM5.85</v>
+      </c>
+      <c r="D204" t="str">
+        <v>JUSCHEK SALIVA X1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>LUCKY PHARMACY Covid 19 Home Self Test Kit- Gmate / Salixium / DIACEGENE / All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP Saliva Antigen Self Home Test Kit</v>
+      </c>
+      <c r="B205" t="str">
+        <v>959</v>
+      </c>
+      <c r="C205" t="str">
+        <v>RM3.68</v>
+      </c>
+      <c r="D205" t="str">
+        <v>NEWGENE 2IN1 X1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>LUCKY PHARMACY Covid 19 Home Self Test Kit- Gmate / Salixium / DIACEGENE / All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP Saliva Antigen Self Home Test Kit</v>
+      </c>
+      <c r="B206" t="str">
+        <v>959</v>
+      </c>
+      <c r="C206" t="str">
+        <v>RM5.95</v>
+      </c>
+      <c r="D206" t="str">
+        <v>DIACEGENE NASAL X1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>LUCKY PHARMACY Covid 19 Home Self Test Kit- Gmate / Salixium / DIACEGENE / All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP Saliva Antigen Self Home Test Kit</v>
+      </c>
+      <c r="B207" t="str">
+        <v>959</v>
+      </c>
+      <c r="C207" t="str">
+        <v>RM5.90</v>
+      </c>
+      <c r="D207" t="str">
+        <v>WHISTLING LOLLIPOPX1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>LUCKY PHARMACY Covid 19 Home Self Test Kit- Gmate / Salixium / DIACEGENE / All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP Saliva Antigen Self Home Test Kit</v>
+      </c>
+      <c r="B208" t="str">
+        <v>959</v>
+      </c>
+      <c r="C208" t="str">
+        <v>RM6.90</v>
+      </c>
+      <c r="D208" t="str">
+        <v>GENRUI LOLLIPOPX1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>LUCKY PHARMACY Covid 19 Home Self Test Kit- Gmate / Salixium / DIACEGENE / All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP Saliva Antigen Self Home Test Kit</v>
+      </c>
+      <c r="B209" t="str">
+        <v>959</v>
+      </c>
+      <c r="C209" t="str">
+        <v>RM5.29</v>
+      </c>
+      <c r="D209" t="str">
+        <v>SEJOY X1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>LUCKY PHARMACY Covid 19 Home Self Test Kit- Gmate / Salixium / DIACEGENE / All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP Saliva Antigen Self Home Test Kit</v>
+      </c>
+      <c r="B210" t="str">
+        <v>959</v>
+      </c>
+      <c r="C210" t="str">
+        <v>RM4.59</v>
+      </c>
+      <c r="D210" t="str">
+        <v>TESTNGO X1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>[LUCKY PHARMACY] RAYCUS LOLLIPOP Design COVID-19 Home Self Test Rapid Antigen Test Kit - 1 set / WHISTLING TEST KIT 1S</v>
+      </c>
+      <c r="B211" t="str">
+        <v>23</v>
+      </c>
+      <c r="C211" t="str">
+        <v>RM6.39</v>
+      </c>
+      <c r="D211" t="str">
+        <v>RAYCUS LOLLIPOP X1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>[LUCKY PHARMACY] RAYCUS LOLLIPOP Design COVID-19 Home Self Test Rapid Antigen Test Kit - 1 set / WHISTLING TEST KIT 1S</v>
+      </c>
+      <c r="B212" t="str">
+        <v>23</v>
+      </c>
+      <c r="C212" t="str">
+        <v>RM5.90</v>
+      </c>
+      <c r="D212" t="str">
+        <v>WHISTLING X1PCS</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>[LUCKY PHARMACY] RAYCUS LOLLIPOP Design COVID-19 Home Self Test Rapid Antigen Test Kit - 1 set / WHISTLING TEST KIT 1S</v>
+      </c>
+      <c r="B213" t="str">
+        <v>23</v>
+      </c>
+      <c r="C213" t="str">
+        <v>RM29.90</v>
+      </c>
+      <c r="D213" t="str">
+        <v>WHISTLING X5PCS</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B214" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C214" t="str">
+        <v>RM27.00</v>
+      </c>
+      <c r="D214" t="str">
+        <v>4 ply hunter green earloop</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B215" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C215" t="str">
+        <v>RM27.00</v>
+      </c>
+      <c r="D215" t="str">
+        <v>4 ply premium black extra protection earloop</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B216" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C216" t="str">
+        <v>RM27.00</v>
+      </c>
+      <c r="D216" t="str">
+        <v>4 ply premium denim blue extra protection earloop</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B217" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C217" t="str">
+        <v>RM27.00</v>
+      </c>
+      <c r="D217" t="str">
+        <v>4PLY STEEL GREY</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B218" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C218" t="str">
+        <v>RM27.00</v>
+      </c>
+      <c r="D218" t="str">
+        <v>4PLY MERLOT</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B219" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C219" t="str">
+        <v>RM27.00</v>
+      </c>
+      <c r="D219" t="str">
+        <v>4PLY FEATHER IRIS</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B220" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C220" t="str">
+        <v>RM35.00</v>
+      </c>
+      <c r="D220" t="str">
+        <v>4ply misty blue</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B221" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C221" t="str">
+        <v>RM28.99</v>
+      </c>
+      <c r="D221" t="str">
+        <v>4ply sage green</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B222" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C222" t="str">
+        <v>RM33.90</v>
+      </c>
+      <c r="D222" t="str">
+        <v>4ply premium barracks series earloop</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B223" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C223" t="str">
+        <v>RM33.90</v>
+      </c>
+      <c r="D223" t="str">
+        <v>4ply premium earthly brown series earloop</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B224" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C224" t="str">
+        <v>RM26.50</v>
+      </c>
+      <c r="D224" t="str">
+        <v>KF94 JET BLACK 10s</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B225" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C225" t="str">
+        <v>RM26.50</v>
+      </c>
+      <c r="D225" t="str">
+        <v>kf94 pool blue 10s</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B226" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C226" t="str">
+        <v>RM26.50</v>
+      </c>
+      <c r="D226" t="str">
+        <v>kf94dynamitegrey 10s</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B227" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C227" t="str">
+        <v>RM26.50</v>
+      </c>
+      <c r="D227" t="str">
+        <v>kf94 oxford blue 10s</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B228" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C228" t="str">
+        <v>RM26.50</v>
+      </c>
+      <c r="D228" t="str">
+        <v>KF94 MACARONPINK 10s</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B229" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C229" t="str">
+        <v>RM17.42</v>
+      </c>
+      <c r="D229" t="str">
+        <v>3 ply basic blue earloop</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B230" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C230" t="str">
+        <v>RM28.00</v>
+      </c>
+      <c r="D230" t="str">
+        <v>3ply basic lavender EARLOOP</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B231" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C231" t="str">
+        <v>RM19.90</v>
+      </c>
+      <c r="D231" t="str">
+        <v>3ply basic sweet pink earloop</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B232" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C232" t="str">
+        <v>RM22.00</v>
+      </c>
+      <c r="D232" t="str">
+        <v>3 ply basic arctic lime earloop</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B233" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C233" t="str">
+        <v>RM28.50</v>
+      </c>
+      <c r="D233" t="str">
+        <v>3ply premium white earloop</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B234" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C234" t="str">
+        <v>RM24.90</v>
+      </c>
+      <c r="D234" t="str">
+        <v>3 ply premium lavender earloop</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B235" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C235" t="str">
+        <v>RM32.90</v>
+      </c>
+      <c r="D235" t="str">
+        <v>3 ply premium baby yellow earloop</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B236" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C236" t="str">
+        <v>RM33.90</v>
+      </c>
+      <c r="D236" t="str">
+        <v>3ply airy secure dusty rose</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B237" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C237" t="str">
+        <v>RM32.87</v>
+      </c>
+      <c r="D237" t="str">
+        <v>3ply premium ombre mojito mint earloop</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B238" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C238" t="str">
+        <v>RM28.00</v>
+      </c>
+      <c r="D238" t="str">
+        <v>3 ply premium baby pink earloop</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B239" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C239" t="str">
+        <v>RM30.00</v>
+      </c>
+      <c r="D239" t="str">
+        <v>3ply premium omni grey earloop</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B240" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C240" t="str">
+        <v>RM27.90</v>
+      </c>
+      <c r="D240" t="str">
+        <v>neutrovis bluejay</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B241" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C241" t="str">
+        <v>RM28.00</v>
+      </c>
+      <c r="D241" t="str">
+        <v>PREMIUM GAYA RAYA SERIES</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B242" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C242" t="str">
+        <v>RM28.00</v>
+      </c>
+      <c r="D242" t="str">
+        <v>PREMIUM JOM RAYA SERIES</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B243" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C243" t="str">
+        <v>RM35.00</v>
+      </c>
+      <c r="D243" t="str">
+        <v>3PLY BASIC KIDS earloop</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B244" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C244" t="str">
+        <v>RM28.99</v>
+      </c>
+      <c r="D244" t="str">
+        <v>4ply kid denim blue</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B245" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C245" t="str">
+        <v>RM28.99</v>
+      </c>
+      <c r="D245" t="str">
+        <v>4ply kid hunter gree</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B246" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C246" t="str">
+        <v>RM28.99</v>
+      </c>
+      <c r="D246" t="str">
+        <v>4ply kid black</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B247" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C247" t="str">
+        <v>RM30.00</v>
+      </c>
+      <c r="D247" t="str">
+        <v>3 ply premium lavender for KIDS</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B248" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C248" t="str">
+        <v>RM24.90</v>
+      </c>
+      <c r="D248" t="str">
+        <v>3PLY basic sky blue HEADLOOP</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B249" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C249" t="str">
+        <v>RM28.50</v>
+      </c>
+      <c r="D249" t="str">
+        <v>3ply premium lavender HEADLOOP</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B250" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C250" t="str">
+        <v>RM29.90</v>
+      </c>
+      <c r="D250" t="str">
+        <v>himaya headloop latte</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B251" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C251" t="str">
+        <v>RM27.90</v>
+      </c>
+      <c r="D251" t="str">
+        <v>himaya headloop olive</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B252" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C252" t="str">
+        <v>RM27.90</v>
+      </c>
+      <c r="D252" t="str">
+        <v>himaya headloop apricot</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B253" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C253" t="str">
+        <v>RM29.90</v>
+      </c>
+      <c r="D253" t="str">
+        <v>himaya headloop lagoon</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B254" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C254" t="str">
+        <v>RM21.90</v>
+      </c>
+      <c r="D254" t="str">
+        <v>4PLY YOOHOO30S ADULT</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B255" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C255" t="str">
+        <v>RM21.90</v>
+      </c>
+      <c r="D255" t="str">
+        <v>4PLY YOOHOO KIDS 30S</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B256" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C256" t="str">
+        <v>RM38.90</v>
+      </c>
+      <c r="D256" t="str">
+        <v>KF94 BLOSSOM16S ADUL</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B257" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C257" t="str">
+        <v>RM38.90</v>
+      </c>
+      <c r="D257" t="str">
+        <v>KF94 BLOSSOM16SKIDS</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B258" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C258" t="str">
+        <v>RM38.90</v>
+      </c>
+      <c r="D258" t="str">
+        <v>KF94 SPRING ADULT16S</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B259" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C259" t="str">
+        <v>RM38.90</v>
+      </c>
+      <c r="D259" t="str">
+        <v>KF94 AUSPI ADULT16S</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B260" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C260" t="str">
+        <v>RM38.90</v>
+      </c>
+      <c r="D260" t="str">
+        <v>KF94 AUSPI KIDS 16S</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B261" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C261" t="str">
+        <v>RM15.50</v>
+      </c>
+      <c r="D261" t="str">
+        <v>MEDIPRO SKY BLUE</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B262" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C262" t="str">
+        <v>RM25.75</v>
+      </c>
+      <c r="D262" t="str">
+        <v>MEDIPRO DENIM</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED Neutrovis medical/ premium medical face mask 50pcs/ kf94 10pcs</v>
+      </c>
+      <c r="B263" t="str">
+        <v>8045</v>
+      </c>
+      <c r="C263" t="str">
+        <v>RM25.75</v>
+      </c>
+      <c r="D263" t="str">
+        <v>MEDIPRO BLACK</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v>MEDIPRO DENIM BLUE 4PLY MEDICAL FACE MASK [DENIM BLUE] [2BOX FREE 1 HAND SANITIZER]</v>
+      </c>
+      <c r="B264" t="str">
+        <v>472</v>
+      </c>
+      <c r="C264" t="str">
+        <v>RM22.91</v>
+      </c>
+      <c r="D264" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v>[LUCKY PHARMACY] NEUTROVIS COVID 19 TEST KIT - NASAL SWAB 1PCS</v>
+      </c>
+      <c r="B265" t="str">
+        <v>8</v>
+      </c>
+      <c r="C265" t="str">
+        <v>RM6.50</v>
+      </c>
+      <c r="D265" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v>[LUCKY PHARMACY] LEPU Medical Covid-19 RTK Test Kit (Nasal Swab) 1 test kit / box / WHISTLING LOLLIPOP / EAGLE BIO / ALLTEST/ NEWGENE/ SALIXIUM / BERIGHT</v>
+      </c>
+      <c r="B266" t="str">
+        <v>77</v>
+      </c>
+      <c r="C266" t="str">
+        <v>RM7.68</v>
+      </c>
+      <c r="D266" t="str">
+        <v>LEPU X1 PCSS</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v>[LUCKY PHARMACY] LEPU Medical Covid-19 RTK Test Kit (Nasal Swab) 1 test kit / box / WHISTLING LOLLIPOP / EAGLE BIO / ALLTEST/ NEWGENE/ SALIXIUM / BERIGHT</v>
+      </c>
+      <c r="B267" t="str">
+        <v>77</v>
+      </c>
+      <c r="C267" t="str">
+        <v>RM37.45</v>
+      </c>
+      <c r="D267" t="str">
+        <v>LEPU X5PCS</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="str">
+        <v>[LUCKY PHARMACY] LEPU Medical Covid-19 RTK Test Kit (Nasal Swab) 1 test kit / box / WHISTLING LOLLIPOP / EAGLE BIO / ALLTEST/ NEWGENE/ SALIXIUM / BERIGHT</v>
+      </c>
+      <c r="B268" t="str">
+        <v>77</v>
+      </c>
+      <c r="C268" t="str">
+        <v>RM6.90</v>
+      </c>
+      <c r="D268" t="str">
+        <v>WHISTLING X1PCSS</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v>[LUCKY PHARMACY] LEPU Medical Covid-19 RTK Test Kit (Nasal Swab) 1 test kit / box / WHISTLING LOLLIPOP / EAGLE BIO / ALLTEST/ NEWGENE/ SALIXIUM / BERIGHT</v>
+      </c>
+      <c r="B269" t="str">
+        <v>77</v>
+      </c>
+      <c r="C269" t="str">
+        <v>RM30.50</v>
+      </c>
+      <c r="D269" t="str">
+        <v>WHISTLING X5PCSS</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v>[LUCKY PHARMACY] LEPU Medical Covid-19 RTK Test Kit (Nasal Swab) 1 test kit / box / WHISTLING LOLLIPOP / EAGLE BIO / ALLTEST/ NEWGENE/ SALIXIUM / BERIGHT</v>
+      </c>
+      <c r="B270" t="str">
+        <v>77</v>
+      </c>
+      <c r="C270" t="str">
+        <v>RM5.28</v>
+      </c>
+      <c r="D270" t="str">
+        <v>ADULT N KIDS X1PCS</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v>Eagle Bio Covid 19 Antigen IVD Lolipop Test Kit 1'S / WHISTLING LOLLIPOP X1S</v>
+      </c>
+      <c r="B271" t="str">
+        <v>1089</v>
+      </c>
+      <c r="C271" t="str">
+        <v>RM5.35</v>
+      </c>
+      <c r="D271" t="str">
+        <v>EAGLE BIO X1TESTS</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="str">
+        <v>Eagle Bio Covid 19 Antigen IVD Lolipop Test Kit 1'S / WHISTLING LOLLIPOP X1S</v>
+      </c>
+      <c r="B272" t="str">
+        <v>1089</v>
+      </c>
+      <c r="C272" t="str">
+        <v>RM7.50</v>
+      </c>
+      <c r="D272" t="str">
+        <v>WHISTLING X1TESTS</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="str">
+        <v>Eagle Bio Covid 19 Antigen IVD Lolipop Test Kit 1'S / WHISTLING LOLLIPOP X1S</v>
+      </c>
+      <c r="B273" t="str">
+        <v>1089</v>
+      </c>
+      <c r="C273" t="str">
+        <v>RM5.25</v>
+      </c>
+      <c r="D273" t="str">
+        <v>ADULT N KIDS X1PCS</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="str">
+        <v>MEDIPRO SURGITECH 4ply premium medical face mask earloop 50pcs/box [VIRGIN COTTON WHITE]</v>
+      </c>
+      <c r="B274" t="str">
+        <v>46</v>
+      </c>
+      <c r="C274" t="str">
+        <v>RM25.78</v>
+      </c>
+      <c r="D274" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="str">
+        <v>[NEW STOCK ARRIVED TODAY!! READY STOCK!! ]SALIXIUM Rapid Antigen Test 1s/ 6s [READY STOCK]LUCKY PHARMACY</v>
+      </c>
+      <c r="B275" t="str">
+        <v>2134</v>
+      </c>
+      <c r="C275" t="str">
+        <v>RM7.85</v>
+      </c>
+      <c r="D275" t="str">
+        <v>salixium 1s</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="str">
+        <v>[NEW STOCK ARRIVED TODAY!! READY STOCK!! ]SALIXIUM Rapid Antigen Test 1s/ 6s [READY STOCK]LUCKY PHARMACY</v>
+      </c>
+      <c r="B276" t="str">
+        <v>2134</v>
+      </c>
+      <c r="C276" t="str">
+        <v>RM4.30</v>
+      </c>
+      <c r="D276" t="str">
+        <v>TESTNGO X1PCSS</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="str">
+        <v>[NEW STOCK]Lohas Premium Raw Honey 1KG</v>
+      </c>
+      <c r="B277" t="str">
+        <v>227</v>
+      </c>
+      <c r="C277" t="str">
+        <v>RM28.99</v>
+      </c>
+      <c r="D277" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="str">
+        <v>MEDIPRO SURGITECH 4ply/ 3ply PREMIUM ULTRA SOFT FACE MASK [READY STOCK IN KL]</v>
+      </c>
+      <c r="B278" t="str">
+        <v>1698</v>
+      </c>
+      <c r="C278" t="str">
+        <v>RM15.82</v>
+      </c>
+      <c r="D278" t="str">
+        <v>Blue 3PLY</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="str">
+        <v>MEDIPRO SURGITECH 4ply/ 3ply PREMIUM ULTRA SOFT FACE MASK [READY STOCK IN KL]</v>
+      </c>
+      <c r="B279" t="str">
+        <v>1698</v>
+      </c>
+      <c r="C279" t="str">
+        <v>RM20.19</v>
+      </c>
+      <c r="D279" t="str">
+        <v>White 3PLY</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="str">
+        <v>MEDIPRO SURGITECH 4ply/ 3ply PREMIUM ULTRA SOFT FACE MASK [READY STOCK IN KL]</v>
+      </c>
+      <c r="B280" t="str">
+        <v>1698</v>
+      </c>
+      <c r="C280" t="str">
+        <v>RM23.67</v>
+      </c>
+      <c r="D280" t="str">
+        <v>Black 4PLY</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="str">
+        <v>MEDIPRO SURGITECH 4ply/ 3ply PREMIUM ULTRA SOFT FACE MASK [READY STOCK IN KL]</v>
+      </c>
+      <c r="B281" t="str">
+        <v>1698</v>
+      </c>
+      <c r="C281" t="str">
+        <v>RM23.67</v>
+      </c>
+      <c r="D281" t="str">
+        <v>denim blue 4PLY</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="str">
+        <v>MEDIPRO SURGITECH 4ply/ 3ply PREMIUM ULTRA SOFT FACE MASK [READY STOCK IN KL]</v>
+      </c>
+      <c r="B282" t="str">
+        <v>1698</v>
+      </c>
+      <c r="C282" t="str">
+        <v>RM25.30</v>
+      </c>
+      <c r="D282" t="str">
+        <v>WHITE 4PLY</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="str">
+        <v>MEDIPRO SURGITECH Premium denim blue 4PLY ULTIMATE PROTECTION medical face mask 50pcs/box</v>
+      </c>
+      <c r="B283" t="str">
+        <v>268</v>
+      </c>
+      <c r="C283" t="str">
+        <v>RM23.37</v>
+      </c>
+      <c r="D283" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="str">
+        <v>MEDIPRO SURGITECH 3ply premium medical face mask earloop 50pcs/box</v>
+      </c>
+      <c r="B284" t="str">
+        <v>155</v>
+      </c>
+      <c r="C284" t="str">
+        <v>RM16.89</v>
+      </c>
+      <c r="D284" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="str">
+        <v>LUCKY PHARMACY Maxsure Platinum Vanilla Flavour 850g Buy 8 Free 1 400g/ Ensure Good Health No Dairy Suitable for Vegetarian Halal</v>
+      </c>
+      <c r="B285" t="str">
+        <v>39</v>
+      </c>
+      <c r="C285" t="str">
+        <v>RM82.00</v>
+      </c>
+      <c r="D285" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="str">
+        <v>[LUCKY PHARMACY] genuine with authentic sticker MAKE SURE 4PLY NEUTROVIS FACE MASK WITH AUTHENTIC STICKER! neutrovis 4ply extra protection medical face mask HUNTER GREEN 50pcs</v>
+      </c>
+      <c r="B286" t="str">
+        <v>603</v>
+      </c>
+      <c r="C286" t="str">
+        <v>RM28.99</v>
+      </c>
+      <c r="D286" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="str">
+        <v>BERIGHT saliva antigen test kit 1s (READY STOCK) Covid 19 Home Test Kit READY STOCK LUCKY PHARMACY</v>
+      </c>
+      <c r="B287" t="str">
+        <v>1172</v>
+      </c>
+      <c r="C287" t="str">
+        <v>RM5.90</v>
+      </c>
+      <c r="D287" t="str">
+        <v>BERIHGT X1PCS</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="str">
+        <v>BERIGHT saliva antigen test kit 1s (READY STOCK) Covid 19 Home Test Kit READY STOCK LUCKY PHARMACY</v>
+      </c>
+      <c r="B288" t="str">
+        <v>1172</v>
+      </c>
+      <c r="C288" t="str">
+        <v>RM119.90</v>
+      </c>
+      <c r="D288" t="str">
+        <v>BERIGHT X20PCS</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="str">
+        <v>BERIGHT saliva antigen test kit 1s (READY STOCK) Covid 19 Home Test Kit READY STOCK LUCKY PHARMACY</v>
+      </c>
+      <c r="B289" t="str">
+        <v>1172</v>
+      </c>
+      <c r="C289" t="str">
+        <v>RM2,879.90</v>
+      </c>
+      <c r="D289" t="str">
+        <v>BERIGHT X480PCS</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="str">
+        <v>BERIGHT saliva antigen test kit 1s (READY STOCK) Covid 19 Home Test Kit READY STOCK LUCKY PHARMACY</v>
+      </c>
+      <c r="B290" t="str">
+        <v>1172</v>
+      </c>
+      <c r="C290" t="str">
+        <v>RM5.75</v>
+      </c>
+      <c r="D290" t="str">
+        <v>ALLTEST 1S</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="str">
+        <v>[LUCKY PHARMACY] MEDIVEN ProDetect® SALIVA COVID-19 Antigen Rapid Home Self Test Kit Covid Self Test Kit</v>
+      </c>
+      <c r="B291" t="str">
+        <v>6</v>
+      </c>
+      <c r="C291" t="str">
+        <v>RM7.79</v>
+      </c>
+      <c r="D291" t="str">
+        <v>PRODETECT X1PCS</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="str">
+        <v>[LUCKY PHARMACY] UD-Bio TestNGo Antigen Saliva Self Test Kit 1PCS / 20 PCS (MDA Approved)</v>
+      </c>
+      <c r="B292" t="str">
+        <v>24</v>
+      </c>
+      <c r="C292" t="str">
+        <v>RM4.98</v>
+      </c>
+      <c r="D292" t="str">
+        <v>TESTNGO X1PCS</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="str">
+        <v>[LUCKY PHARMACY] UD-Bio TestNGo Antigen Saliva Self Test Kit 1PCS / 20 PCS (MDA Approved)</v>
+      </c>
+      <c r="B293" t="str">
+        <v>24</v>
+      </c>
+      <c r="C293" t="str">
+        <v>RM99.40</v>
+      </c>
+      <c r="D293" t="str">
+        <v>TESTNGO X20PCS</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="str">
+        <v>[POST IN 24HOURS] NEWGENE COVID 19 Home Self Test Rapid Antigen Kit (RTK) (Sputum/Saliva)[2in1] 25TEST/ 1 BOX [LUCKY PHARMACY] 1PCS / 25PCS</v>
+      </c>
+      <c r="B294" t="str">
+        <v>773</v>
+      </c>
+      <c r="C294" t="str">
+        <v>RM92.30</v>
+      </c>
+      <c r="D294" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="str">
+        <v>BioConnexion Oat Grain 35 With FOS 500g [READY STOCK]/ BIO OATS BETA GLUCAN KING</v>
+      </c>
+      <c r="B295" t="str">
+        <v>128</v>
+      </c>
+      <c r="C295" t="str">
+        <v>RM43.90</v>
+      </c>
+      <c r="D295" t="str">
+        <v>BIO OATS BETA GLUCAN</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="str">
+        <v>BioConnexion Oat Grain 35 With FOS 500g [READY STOCK]/ BIO OATS BETA GLUCAN KING</v>
+      </c>
+      <c r="B296" t="str">
+        <v>128</v>
+      </c>
+      <c r="C296" t="str">
+        <v>RM48.99</v>
+      </c>
+      <c r="D296" t="str">
+        <v>OAT GRAIN 35</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="str">
+        <v>(MDA Approved) [ READY STOCK] Gmate / Salixium /All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP/ GENRUI Saliva Antigen Self Test Kit [LUCKY PHARMACY]</v>
+      </c>
+      <c r="B297" t="str">
+        <v>1503</v>
+      </c>
+      <c r="C297" t="str">
+        <v>RM5.29</v>
+      </c>
+      <c r="D297" t="str">
+        <v>SEJOY X1S</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="str">
+        <v>(MDA Approved) [ READY STOCK] Gmate / Salixium /All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP/ GENRUI Saliva Antigen Self Test Kit [LUCKY PHARMACY]</v>
+      </c>
+      <c r="B298" t="str">
+        <v>1503</v>
+      </c>
+      <c r="C298" t="str">
+        <v>RM5.85</v>
+      </c>
+      <c r="D298" t="str">
+        <v>BERIGHT 1S</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="str">
+        <v>(MDA Approved) [ READY STOCK] Gmate / Salixium /All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP/ GENRUI Saliva Antigen Self Test Kit [LUCKY PHARMACY]</v>
+      </c>
+      <c r="B299" t="str">
+        <v>1503</v>
+      </c>
+      <c r="C299" t="str">
+        <v>RM5.85</v>
+      </c>
+      <c r="D299" t="str">
+        <v>ALLTEST 1S</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="str">
+        <v>(MDA Approved) [ READY STOCK] Gmate / Salixium /All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP/ GENRUI Saliva Antigen Self Test Kit [LUCKY PHARMACY]</v>
+      </c>
+      <c r="B300" t="str">
+        <v>1503</v>
+      </c>
+      <c r="C300" t="str">
+        <v>RM7.90</v>
+      </c>
+      <c r="D300" t="str">
+        <v>SALIXIUM 1S</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="str">
+        <v>(MDA Approved) [ READY STOCK] Gmate / Salixium /All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP/ GENRUI Saliva Antigen Self Test Kit [LUCKY PHARMACY]</v>
+      </c>
+      <c r="B301" t="str">
+        <v>1503</v>
+      </c>
+      <c r="C301" t="str">
+        <v>RM3.68</v>
+      </c>
+      <c r="D301" t="str">
+        <v>NEWGENE 1S</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="str">
+        <v>(MDA Approved) [ READY STOCK] Gmate / Salixium /All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP/ GENRUI Saliva Antigen Self Test Kit [LUCKY PHARMACY]</v>
+      </c>
+      <c r="B302" t="str">
+        <v>1503</v>
+      </c>
+      <c r="C302" t="str">
+        <v>RM99.00</v>
+      </c>
+      <c r="D302" t="str">
+        <v>NEWGENE 25S/1BOX</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="str">
+        <v>(MDA Approved) [ READY STOCK] Gmate / Salixium /All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP/ GENRUI Saliva Antigen Self Test Kit [LUCKY PHARMACY]</v>
+      </c>
+      <c r="B303" t="str">
+        <v>1503</v>
+      </c>
+      <c r="C303" t="str">
+        <v>RM5.90</v>
+      </c>
+      <c r="D303" t="str">
+        <v>JUSCHECK 1S</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="str">
+        <v>(MDA Approved) [ READY STOCK] Gmate / Salixium /All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP/ GENRUI Saliva Antigen Self Test Kit [LUCKY PHARMACY]</v>
+      </c>
+      <c r="B304" t="str">
+        <v>1503</v>
+      </c>
+      <c r="C304" t="str">
+        <v>RM14.85</v>
+      </c>
+      <c r="D304" t="str">
+        <v>GMATE 1S</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="str">
+        <v>(MDA Approved) [ READY STOCK] Gmate / Salixium /All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP/ GENRUI Saliva Antigen Self Test Kit [LUCKY PHARMACY]</v>
+      </c>
+      <c r="B305" t="str">
+        <v>1503</v>
+      </c>
+      <c r="C305" t="str">
+        <v>RM5.99</v>
+      </c>
+      <c r="D305" t="str">
+        <v>DIACEGENE 1S</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="str">
+        <v>(MDA Approved) [ READY STOCK] Gmate / Salixium /All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP/ GENRUI Saliva Antigen Self Test Kit [LUCKY PHARMACY]</v>
+      </c>
+      <c r="B306" t="str">
+        <v>1503</v>
+      </c>
+      <c r="C306" t="str">
+        <v>RM6.90</v>
+      </c>
+      <c r="D306" t="str">
+        <v>LYHER 1S</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="str">
+        <v>(MDA Approved) [ READY STOCK] Gmate / Salixium /All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP/ GENRUI Saliva Antigen Self Test Kit [LUCKY PHARMACY]</v>
+      </c>
+      <c r="B307" t="str">
+        <v>1503</v>
+      </c>
+      <c r="C307" t="str">
+        <v>RM5.90</v>
+      </c>
+      <c r="D307" t="str">
+        <v>WHISTLING 1S</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="str">
+        <v>(MDA Approved) [ READY STOCK] Gmate / Salixium /All Test/ NEWGENE / Beright / Juscheck/ WHISTLING LOLLIPOP/ GENRUI Saliva Antigen Self Test Kit [LUCKY PHARMACY]</v>
+      </c>
+      <c r="B308" t="str">
+        <v>1503</v>
+      </c>
+      <c r="C308" t="str">
+        <v>RM6.90</v>
+      </c>
+      <c r="D308" t="str">
+        <v>GENRUI X1S</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="str">
+        <v>NEUTROVIS 4PLY PREMIUM FACE MASK STEEL GREY/ MISTY BLUE/SAGE GREEN/ MERLOT/FEATHER IRIS [NEW COLOUR] /MEDIPRO MEDICAL FACE MASK</v>
+      </c>
+      <c r="B309" t="str">
+        <v>330</v>
+      </c>
+      <c r="C309" t="str">
+        <v>RM27.00</v>
+      </c>
+      <c r="D309" t="str">
+        <v>MERLOT</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="str">
+        <v>NEUTROVIS 4PLY PREMIUM FACE MASK STEEL GREY/ MISTY BLUE/SAGE GREEN/ MERLOT/FEATHER IRIS [NEW COLOUR] /MEDIPRO MEDICAL FACE MASK</v>
+      </c>
+      <c r="B310" t="str">
+        <v>330</v>
+      </c>
+      <c r="C310" t="str">
+        <v>RM27.00</v>
+      </c>
+      <c r="D310" t="str">
+        <v>STEEL GREY</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="str">
+        <v>NEUTROVIS 4PLY PREMIUM FACE MASK STEEL GREY/ MISTY BLUE/SAGE GREEN/ MERLOT/FEATHER IRIS [NEW COLOUR] /MEDIPRO MEDICAL FACE MASK</v>
+      </c>
+      <c r="B311" t="str">
+        <v>330</v>
+      </c>
+      <c r="C311" t="str">
+        <v>RM27.00</v>
+      </c>
+      <c r="D311" t="str">
+        <v>MISTY BLUE</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="str">
+        <v>NEUTROVIS 4PLY PREMIUM FACE MASK STEEL GREY/ MISTY BLUE/SAGE GREEN/ MERLOT/FEATHER IRIS [NEW COLOUR] /MEDIPRO MEDICAL FACE MASK</v>
+      </c>
+      <c r="B312" t="str">
+        <v>330</v>
+      </c>
+      <c r="C312" t="str">
+        <v>RM27.00</v>
+      </c>
+      <c r="D312" t="str">
+        <v>FEATHER IRIS</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="str">
+        <v>NEUTROVIS 4PLY PREMIUM FACE MASK STEEL GREY/ MISTY BLUE/SAGE GREEN/ MERLOT/FEATHER IRIS [NEW COLOUR] /MEDIPRO MEDICAL FACE MASK</v>
+      </c>
+      <c r="B313" t="str">
+        <v>330</v>
+      </c>
+      <c r="C313" t="str">
+        <v>RM27.00</v>
+      </c>
+      <c r="D313" t="str">
+        <v>SAGE GREEN</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="str">
+        <v>NEUTROVIS 4PLY PREMIUM FACE MASK STEEL GREY/ MISTY BLUE/SAGE GREEN/ MERLOT/FEATHER IRIS [NEW COLOUR] /MEDIPRO MEDICAL FACE MASK</v>
+      </c>
+      <c r="B314" t="str">
+        <v>330</v>
+      </c>
+      <c r="C314" t="str">
+        <v>RM25.78</v>
+      </c>
+      <c r="D314" t="str">
+        <v>MEDIPRO DENIM 4PLY</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="str">
+        <v>NEUTROVIS 4PLY PREMIUM FACE MASK STEEL GREY/ MISTY BLUE/SAGE GREEN/ MERLOT/FEATHER IRIS [NEW COLOUR] /MEDIPRO MEDICAL FACE MASK</v>
+      </c>
+      <c r="B315" t="str">
+        <v>330</v>
+      </c>
+      <c r="C315" t="str">
+        <v>RM25.78</v>
+      </c>
+      <c r="D315" t="str">
+        <v>MEDIPRO BLACK 4PLY</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="str">
+        <v>NEUTROVIS 4PLY PREMIUM FACE MASK STEEL GREY/ MISTY BLUE/SAGE GREEN/ MERLOT/FEATHER IRIS [NEW COLOUR] /MEDIPRO MEDICAL FACE MASK</v>
+      </c>
+      <c r="B316" t="str">
+        <v>330</v>
+      </c>
+      <c r="C316" t="str">
+        <v>RM15.50</v>
+      </c>
+      <c r="D316" t="str">
+        <v>MEDIPRO SKY BLUE 3PL</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="str">
+        <v>NEUTROVIS 4PLY PREMIUM FACE MASK STEEL GREY/ MISTY BLUE/SAGE GREEN/ MERLOT/FEATHER IRIS [NEW COLOUR] /MEDIPRO MEDICAL FACE MASK</v>
+      </c>
+      <c r="B317" t="str">
+        <v>330</v>
+      </c>
+      <c r="C317" t="str">
+        <v>RM17.90</v>
+      </c>
+      <c r="D317" t="str">
+        <v>MEDIPRO KIDS BLUE</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="str">
+        <v>MEDIPRO SURGITECH 3ply premium medical face mask earloop 50pcs/box [NEW SKY BLUE] 2BOX FOR RM31.80 + FREE 1 HAND SANITIZER</v>
+      </c>
+      <c r="B318" t="str">
+        <v>172</v>
+      </c>
+      <c r="C318" t="str">
+        <v>RM31.80</v>
+      </c>
+      <c r="D318" t="str">
+        <v>2BOX +1 HAND SANITIZ</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="str">
+        <v>MEDIPRO SURGITECH 3ply premium medical face mask earloop 50pcs/box [NEW SKY BLUE] 2BOX FOR RM31.80 + FREE 1 HAND SANITIZER</v>
+      </c>
+      <c r="B319" t="str">
+        <v>172</v>
+      </c>
+      <c r="C319" t="str">
+        <v>RM16.90</v>
+      </c>
+      <c r="D319" t="str">
+        <v>1BOX</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="str">
+        <v>[LUCKY PHARMACY]【BEWARE FAKE PRODUCT, 4PLY WITH AUTHENTIC STICKER]100% ORIGINAL WITH LOGO EMBOSSED 4ply Earloop Extra Protection Premium Denim Blue Medical Face Mask by Neutrovis (Adult) 50 sheets</v>
+      </c>
+      <c r="B320" t="str">
+        <v>5199</v>
+      </c>
+      <c r="C320" t="str">
+        <v>RM27.00</v>
+      </c>
+      <c r="D320" t="str">
+        <v>NEUTROVIS DENIM X50</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="str">
+        <v>[LUCKY PHARMACY]【BEWARE FAKE PRODUCT, 4PLY WITH AUTHENTIC STICKER]100% ORIGINAL WITH LOGO EMBOSSED 4ply Earloop Extra Protection Premium Denim Blue Medical Face Mask by Neutrovis (Adult) 50 sheets</v>
+      </c>
+      <c r="B321" t="str">
+        <v>5199</v>
+      </c>
+      <c r="C321" t="str">
+        <v>RM25.78</v>
+      </c>
+      <c r="D321" t="str">
+        <v>MEDIPRO DENIM X50</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="str">
+        <v>[LUCKY PHARMACY]【BEWARE FAKE PRODUCT, 4PLY WITH AUTHENTIC STICKER]100% ORIGINAL WITH LOGO EMBOSSED 4ply Earloop Extra Protection Premium Denim Blue Medical Face Mask by Neutrovis (Adult) 50 sheets</v>
+      </c>
+      <c r="B322" t="str">
+        <v>5199</v>
+      </c>
+      <c r="C322" t="str">
+        <v>RM25.78</v>
+      </c>
+      <c r="D322" t="str">
+        <v>MEDIPRO BLACK X50</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="str">
+        <v>[LUCKY PHARMACY]NEUTROVIS PREMIUM MEDICAL FACE MASK AIRY SECURE SERIES- SKY BLUE 50PCS earloop</v>
+      </c>
+      <c r="B323" t="str">
+        <v>162</v>
+      </c>
+      <c r="C323" t="str">
+        <v>RM23.90</v>
+      </c>
+      <c r="D323" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="str">
+        <v>[LUCKY PHARMACY] Sejoy Covid-19 Rapid Test Kit (Saliva) 1S</v>
+      </c>
+      <c r="B324" t="str">
+        <v>3</v>
+      </c>
+      <c r="C324" t="str">
+        <v>RM5.29</v>
+      </c>
+      <c r="D324" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="str">
+        <v>[FREE SHAKER] SwissMed PROB-ATIV 60S</v>
+      </c>
+      <c r="B325" t="str">
+        <v>36</v>
+      </c>
+      <c r="C325" t="str">
+        <v>RM199.90</v>
+      </c>
+      <c r="D325" t="str">
+        <v>ultrabiotic x60s</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="str">
+        <v>[FREE SHAKER] SwissMed PROB-ATIV 60S</v>
+      </c>
+      <c r="B326" t="str">
+        <v>36</v>
+      </c>
+      <c r="C326" t="str">
+        <v>RM209.00</v>
+      </c>
+      <c r="D326" t="str">
+        <v>swissmed probativx60</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="str">
+        <v>SteriLAB INSTANT HAND SANITIZER / SANITISER (30mL/100mL)</v>
+      </c>
+      <c r="B327" t="str">
+        <v>156</v>
+      </c>
+      <c r="C327" t="str">
+        <v>RM9.90</v>
+      </c>
+      <c r="D327" t="str">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="str">
+        <v>SteriLAB INSTANT HAND SANITIZER / SANITISER (30mL/100mL)</v>
+      </c>
+      <c r="B328" t="str">
+        <v>156</v>
+      </c>
+      <c r="C328" t="str">
+        <v>RM3.50</v>
+      </c>
+      <c r="D328" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="str">
+        <v>SteriLAB INSTANT HAND SANITIZER / SANITISER (30mL/100mL)</v>
+      </c>
+      <c r="B329" t="str">
+        <v>156</v>
+      </c>
+      <c r="C329" t="str">
+        <v>RM8.90</v>
+      </c>
+      <c r="D329" t="str">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="str">
+        <v>SteriLAB INSTANT HAND SANITIZER / SANITISER (30mL/100mL)</v>
+      </c>
+      <c r="B330" t="str">
+        <v>156</v>
+      </c>
+      <c r="C330" t="str">
+        <v>RM10.50</v>
+      </c>
+      <c r="D330" t="str">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="str">
+        <v>Empro Aerofit Surgical 3 Ply Face Mask 50s</v>
+      </c>
+      <c r="B331" t="str">
+        <v>365</v>
+      </c>
+      <c r="C331" t="str">
+        <v>RM32.89</v>
+      </c>
+      <c r="D331" t="str">
+        <v>GREY</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="str">
+        <v>Empro Aerofit Surgical 3 Ply Face Mask 50s</v>
+      </c>
+      <c r="B332" t="str">
+        <v>365</v>
+      </c>
+      <c r="C332" t="str">
+        <v>RM32.89</v>
+      </c>
+      <c r="D332" t="str">
+        <v>WHITE (PINK AND BLUE EARLOOP)</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="str">
+        <v>Empro Aerofit Surgical 3 Ply Face Mask 50s</v>
+      </c>
+      <c r="B333" t="str">
+        <v>365</v>
+      </c>
+      <c r="C333" t="str">
+        <v>RM32.89</v>
+      </c>
+      <c r="D333" t="str">
+        <v>BLACK</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="str">
+        <v>Empro Aerofit Surgical 3 Ply Face Mask 50s</v>
+      </c>
+      <c r="B334" t="str">
+        <v>365</v>
+      </c>
+      <c r="C334" t="str">
+        <v>RM32.89</v>
+      </c>
+      <c r="D334" t="str">
+        <v>THREE COLOURS</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="str">
+        <v>Empro Aerofit Surgical 3 Ply Face Mask 50s</v>
+      </c>
+      <c r="B335" t="str">
+        <v>365</v>
+      </c>
+      <c r="C335" t="str">
+        <v>RM34.90</v>
+      </c>
+      <c r="D335" t="str">
+        <v>empro copper oxide</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="str">
+        <v>Empro Aerofit Surgical 3 Ply Face Mask 50s</v>
+      </c>
+      <c r="B336" t="str">
+        <v>365</v>
+      </c>
+      <c r="C336" t="str">
+        <v>RM34.90</v>
+      </c>
+      <c r="D336" t="str">
+        <v>empro 2 colors</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="str">
+        <v>NEUTROVIS PREMIUM COTTON WHITE 3 PLY MEDICAL MASK FOR SENSITIVE SKIN</v>
+      </c>
+      <c r="B337" t="str">
+        <v>466</v>
+      </c>
+      <c r="C337" t="str">
+        <v>RM25.80</v>
+      </c>
+      <c r="D337" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="str">
+        <v>MEDIPRO SURGITECH 3ply/4PLY premium medical face mask earloop 50pcs/box [NEW SKY BLUE 3PLY][WHITE 4PLY][ BLACK 4PLY][DENIM 4PLY]</v>
+      </c>
+      <c r="B338" t="str">
+        <v>836</v>
+      </c>
+      <c r="C338" t="str">
+        <v>RM25.90</v>
+      </c>
+      <c r="D338" t="str">
+        <v>BLACK 4PLY</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="str">
+        <v>MEDIPRO SURGITECH 3ply/4PLY premium medical face mask earloop 50pcs/box [NEW SKY BLUE 3PLY][WHITE 4PLY][ BLACK 4PLY][DENIM 4PLY]</v>
+      </c>
+      <c r="B339" t="str">
+        <v>836</v>
+      </c>
+      <c r="C339" t="str">
+        <v>RM16.50</v>
+      </c>
+      <c r="D339" t="str">
+        <v>SKY BLUE 3PLY</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="str">
+        <v>MEDIPRO SURGITECH 3ply/4PLY premium medical face mask earloop 50pcs/box [NEW SKY BLUE 3PLY][WHITE 4PLY][ BLACK 4PLY][DENIM 4PLY]</v>
+      </c>
+      <c r="B340" t="str">
+        <v>836</v>
+      </c>
+      <c r="C340" t="str">
+        <v>RM21.90</v>
+      </c>
+      <c r="D340" t="str">
+        <v>WHITE 3PLY</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="str">
+        <v>MEDIPRO SURGITECH 3ply/4PLY premium medical face mask earloop 50pcs/box [NEW SKY BLUE 3PLY][WHITE 4PLY][ BLACK 4PLY][DENIM 4PLY]</v>
+      </c>
+      <c r="B341" t="str">
+        <v>836</v>
+      </c>
+      <c r="C341" t="str">
+        <v>RM25.90</v>
+      </c>
+      <c r="D341" t="str">
+        <v>DENIM 4PLY</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="str">
+        <v>MEDIPRO SURGITECH 3ply/4PLY premium medical face mask earloop 50pcs/box [NEW SKY BLUE 3PLY][WHITE 4PLY][ BLACK 4PLY][DENIM 4PLY]</v>
+      </c>
+      <c r="B342" t="str">
+        <v>836</v>
+      </c>
+      <c r="C342" t="str">
+        <v>RM19.90</v>
+      </c>
+      <c r="D342" t="str">
+        <v>KIDS 3PLY BLUE</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="str">
+        <v>MEDIPRO SURGITECH 3ply/4PLY premium medical face mask earloop 50pcs/box [NEW SKY BLUE 3PLY][WHITE 4PLY][ BLACK 4PLY][DENIM 4PLY]</v>
+      </c>
+      <c r="B343" t="str">
+        <v>836</v>
+      </c>
+      <c r="C343" t="str">
+        <v>RM25.90</v>
+      </c>
+      <c r="D343" t="str">
+        <v>WHITE 4PLY</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="str">
+        <v>[POST IN 1DAY][LUCKY PHARMACY] GENRUI / Whistling COVID-19 Home Rapid Antigen TEST Kit (RTK) Lollipop Design - 1Kit</v>
+      </c>
+      <c r="B344" t="str">
+        <v>621</v>
+      </c>
+      <c r="C344" t="str">
+        <v>RM7.24</v>
+      </c>
+      <c r="D344" t="str">
+        <v>WHISTLING LOLLIPOPX1</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="str">
+        <v>[POST IN 1DAY][LUCKY PHARMACY] GENRUI / Whistling COVID-19 Home Rapid Antigen TEST Kit (RTK) Lollipop Design - 1Kit</v>
+      </c>
+      <c r="B345" t="str">
+        <v>621</v>
+      </c>
+      <c r="C345" t="str">
+        <v>RM7.29</v>
+      </c>
+      <c r="D345" t="str">
+        <v>GENRUI LOLLIPOP X1</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="str">
+        <v>HIJAB Neutrovis SKY BLUE Medical Mask 3-Ply Headloop (Adult) 50s</v>
+      </c>
+      <c r="B346" t="str">
+        <v>72</v>
+      </c>
+      <c r="C346" t="str">
+        <v>RM22.89</v>
+      </c>
+      <c r="D346" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="str">
+        <v>MEDISENSE PREMIUM DISPOSABLE FACE MASK ultra soft BFE&amp;gt;98 PFE&amp;gt;96 ombre dusty rose / ombre latte / ombre olive. 50pcs</v>
+      </c>
+      <c r="B347" t="str">
+        <v>357</v>
+      </c>
+      <c r="C347" t="str">
+        <v>RM22.90</v>
+      </c>
+      <c r="D347" t="str">
+        <v>ombre dusty rose</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="str">
+        <v>MEDISENSE PREMIUM DISPOSABLE FACE MASK ultra soft BFE&amp;gt;98 PFE&amp;gt;96 ombre dusty rose / ombre latte / ombre olive. 50pcs</v>
+      </c>
+      <c r="B348" t="str">
+        <v>357</v>
+      </c>
+      <c r="C348" t="str">
+        <v>RM22.90</v>
+      </c>
+      <c r="D348" t="str">
+        <v>ombre latte</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="str">
+        <v>MEDISENSE PREMIUM DISPOSABLE FACE MASK ultra soft BFE&amp;gt;98 PFE&amp;gt;96 ombre dusty rose / ombre latte / ombre olive. 50pcs</v>
+      </c>
+      <c r="B349" t="str">
+        <v>357</v>
+      </c>
+      <c r="C349" t="str">
+        <v>RM22.90</v>
+      </c>
+      <c r="D349" t="str">
+        <v>ombre olive</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="str">
+        <v>LUCKY PHARMACY MEDISENSE PREMIUM DISPOSABLE FACE MASK ultra soft BFE&amp;gt;98 PFE&amp;gt;96 [ombre olive] 50pcs [HEADLOOP/EARLOOP]</v>
+      </c>
+      <c r="B350" t="str">
+        <v>34</v>
+      </c>
+      <c r="C350" t="str">
+        <v>RM23.90</v>
+      </c>
+      <c r="D350" t="str">
+        <v>OLIVE HEADLOOP</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="str">
+        <v>LUCKY PHARMACY MEDISENSE PREMIUM DISPOSABLE FACE MASK ultra soft BFE&amp;gt;98 PFE&amp;gt;96 [ombre olive] 50pcs [HEADLOOP/EARLOOP]</v>
+      </c>
+      <c r="B351" t="str">
+        <v>34</v>
+      </c>
+      <c r="C351" t="str">
+        <v>RM22.90</v>
+      </c>
+      <c r="D351" t="str">
+        <v>OLIVE EARLOOP</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="str">
+        <v>[LUCKY PHARMACY] NOVA ACTIMAX VANILLA (700G)</v>
+      </c>
+      <c r="B352" t="str">
+        <v>No</v>
+      </c>
+      <c r="C352" t="str">
+        <v>RM61.90</v>
+      </c>
+      <c r="D352" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="str">
+        <v>[LUCKY PHARMACY][MALAYSIA READY STOCK][EAST MALAYSIA PLS PM] AWELD Portable Oxygen Inhaler 600ml/ ESC OXYGEN BOOSTER 1000ML | Oxygen Tank with Mask/ OXIHEAL OXYGEN WITH MASK</v>
+      </c>
+      <c r="B353" t="str">
+        <v>610</v>
+      </c>
+      <c r="C353" t="str">
+        <v>RM12.90</v>
+      </c>
+      <c r="D353" t="str">
+        <v>OXIHEAL 1000ML</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="str">
+        <v>[LUCKY PHARMACY][MALAYSIA READY STOCK][EAST MALAYSIA PLS PM] AWELD Portable Oxygen Inhaler 600ml/ ESC OXYGEN BOOSTER 1000ML | Oxygen Tank with Mask/ OXIHEAL OXYGEN WITH MASK</v>
+      </c>
+      <c r="B354" t="str">
+        <v>610</v>
+      </c>
+      <c r="C354" t="str">
+        <v>RM6.90</v>
+      </c>
+      <c r="D354" t="str">
+        <v>aweld 600ml</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="str">
+        <v>[LUCKY PHARMACY][MALAYSIA READY STOCK][EAST MALAYSIA PLS PM] AWELD Portable Oxygen Inhaler 600ml/ ESC OXYGEN BOOSTER 1000ML | Oxygen Tank with Mask/ OXIHEAL OXYGEN WITH MASK</v>
+      </c>
+      <c r="B355" t="str">
+        <v>610</v>
+      </c>
+      <c r="C355" t="str">
+        <v>RM40.00</v>
+      </c>
+      <c r="D355" t="str">
+        <v>esc oxygen 1000ml</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="str">
+        <v>[LUCKY PHARMACY][MALAYSIA READY STOCK][EAST MALAYSIA PLS PM] AWELD Portable Oxygen Inhaler 600ml/ ESC OXYGEN BOOSTER 1000ML | Oxygen Tank with Mask/ OXIHEAL OXYGEN WITH MASK</v>
+      </c>
+      <c r="B356" t="str">
+        <v>610</v>
+      </c>
+      <c r="C356" t="str">
+        <v>RM39.90</v>
+      </c>
+      <c r="D356" t="str">
+        <v>OXIHEAL 600ML</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="str">
+        <v>READY STOCK RAINFOREST HERB KETOCREME COFFEE 400GM ketogenic diet or drink</v>
+      </c>
+      <c r="B357" t="str">
+        <v>24</v>
+      </c>
+      <c r="C357" t="str">
+        <v>RM73.99</v>
+      </c>
+      <c r="D357" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="str">
+        <v>MEDICOS SUBMICRON ULTRA SOFT SURGICAL FACE MASK EARLOOP 50PCS [SEA BLUE/SNOW WHITE/COTTON CANDY/PEACH CRUSH/NEON GREEN]</v>
+      </c>
+      <c r="B358" t="str">
+        <v>607</v>
+      </c>
+      <c r="C358" t="str">
+        <v>RM28.90</v>
+      </c>
+      <c r="D358" t="str">
+        <v>yellow</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="str">
+        <v>MEDICOS SUBMICRON ULTRA SOFT SURGICAL FACE MASK EARLOOP 50PCS [SEA BLUE/SNOW WHITE/COTTON CANDY/PEACH CRUSH/NEON GREEN]</v>
+      </c>
+      <c r="B359" t="str">
+        <v>607</v>
+      </c>
+      <c r="C359" t="str">
+        <v>RM26.99</v>
+      </c>
+      <c r="D359" t="str">
+        <v>peach crush</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="str">
+        <v>MEDICOS SUBMICRON ULTRA SOFT SURGICAL FACE MASK EARLOOP 50PCS [SEA BLUE/SNOW WHITE/COTTON CANDY/PEACH CRUSH/NEON GREEN]</v>
+      </c>
+      <c r="B360" t="str">
+        <v>607</v>
+      </c>
+      <c r="C360" t="str">
+        <v>RM26.99</v>
+      </c>
+      <c r="D360" t="str">
+        <v>cotton candy</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="str">
+        <v>MEDICOS SUBMICRON ULTRA SOFT SURGICAL FACE MASK EARLOOP 50PCS [SEA BLUE/SNOW WHITE/COTTON CANDY/PEACH CRUSH/NEON GREEN]</v>
+      </c>
+      <c r="B361" t="str">
+        <v>607</v>
+      </c>
+      <c r="C361" t="str">
+        <v>RM26.99</v>
+      </c>
+      <c r="D361" t="str">
+        <v>sea blue</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="str">
+        <v>MEDICOS SUBMICRON ULTRA SOFT SURGICAL FACE MASK EARLOOP 50PCS [SEA BLUE/SNOW WHITE/COTTON CANDY/PEACH CRUSH/NEON GREEN]</v>
+      </c>
+      <c r="B362" t="str">
+        <v>607</v>
+      </c>
+      <c r="C362" t="str">
+        <v>RM26.99</v>
+      </c>
+      <c r="D362" t="str">
+        <v>snow white</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="str">
+        <v>MEDICOS SUBMICRON ULTRA SOFT SURGICAL FACE MASK EARLOOP 50PCS [SEA BLUE/SNOW WHITE/COTTON CANDY/PEACH CRUSH/NEON GREEN]</v>
+      </c>
+      <c r="B363" t="str">
+        <v>607</v>
+      </c>
+      <c r="C363" t="str">
+        <v>RM26.99</v>
+      </c>
+      <c r="D363" t="str">
+        <v>aqua coral</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="str">
+        <v>MEDICOS SUBMICRON ULTRA SOFT SURGICAL FACE MASK EARLOOP 50PCS [SEA BLUE/SNOW WHITE/COTTON CANDY/PEACH CRUSH/NEON GREEN]</v>
+      </c>
+      <c r="B364" t="str">
+        <v>607</v>
+      </c>
+      <c r="C364" t="str">
+        <v>RM26.99</v>
+      </c>
+      <c r="D364" t="str">
+        <v>neon green</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="str">
+        <v>MEDICOS SUBMICRON ULTRA SOFT SURGICAL FACE MASK EARLOOP 50PCS [SEA BLUE/SNOW WHITE/COTTON CANDY/PEACH CRUSH/NEON GREEN]</v>
+      </c>
+      <c r="B365" t="str">
+        <v>607</v>
+      </c>
+      <c r="C365" t="str">
+        <v>RM29.50</v>
+      </c>
+      <c r="D365" t="str">
+        <v>Black</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="str">
+        <v>MEDICOS SUBMICRON ULTRA SOFT SURGICAL FACE MASK EARLOOP 50PCS [SEA BLUE/SNOW WHITE/COTTON CANDY/PEACH CRUSH/NEON GREEN]</v>
+      </c>
+      <c r="B366" t="str">
+        <v>607</v>
+      </c>
+      <c r="C366" t="str">
+        <v>RM29.40</v>
+      </c>
+      <c r="D366" t="str">
+        <v>galaxy maroon</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="str">
+        <v>MEDICOS SUBMICRON ULTRA SOFT SURGICAL FACE MASK EARLOOP 50PCS [SEA BLUE/SNOW WHITE/COTTON CANDY/PEACH CRUSH/NEON GREEN]</v>
+      </c>
+      <c r="B367" t="str">
+        <v>607</v>
+      </c>
+      <c r="C367" t="str">
+        <v>RM29.40</v>
+      </c>
+      <c r="D367" t="str">
+        <v>laguna green</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="str">
+        <v>MEDICOS SUBMICRON ULTRA SOFT SURGICAL FACE MASK EARLOOP 50PCS [SEA BLUE/SNOW WHITE/COTTON CANDY/PEACH CRUSH/NEON GREEN]</v>
+      </c>
+      <c r="B368" t="str">
+        <v>607</v>
+      </c>
+      <c r="C368" t="str">
+        <v>RM28.90</v>
+      </c>
+      <c r="D368" t="str">
+        <v>Pink</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="str">
+        <v>MEDICOS SUBMICRON ULTRA SOFT SURGICAL FACE MASK EARLOOP 50PCS [SEA BLUE/SNOW WHITE/COTTON CANDY/PEACH CRUSH/NEON GREEN]</v>
+      </c>
+      <c r="B369" t="str">
+        <v>607</v>
+      </c>
+      <c r="C369" t="str">
+        <v>RM29.50</v>
+      </c>
+      <c r="D369" t="str">
+        <v>SANTORINIBLUE HYDRO</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="str">
+        <v>MEDICOS SUBMICRON ULTRA SOFT SURGICAL FACE MASK EARLOOP 50PCS [SEA BLUE/SNOW WHITE/COTTON CANDY/PEACH CRUSH/NEON GREEN]</v>
+      </c>
+      <c r="B370" t="str">
+        <v>607</v>
+      </c>
+      <c r="C370" t="str">
+        <v>RM29.50</v>
+      </c>
+      <c r="D370" t="str">
+        <v>PINK RIBBON</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="str">
+        <v>MEDICOS SUBMICRON ULTRA SOFT SURGICAL FACE MASK EARLOOP 50PCS [SEA BLUE/SNOW WHITE/COTTON CANDY/PEACH CRUSH/NEON GREEN]</v>
+      </c>
+      <c r="B371" t="str">
+        <v>607</v>
+      </c>
+      <c r="C371" t="str">
+        <v>RM31.50</v>
+      </c>
+      <c r="D371" t="str">
+        <v>SANTORINI BLUE SENSO</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="str">
+        <v>Neutrovis sweet pink 3ply medical face mask</v>
+      </c>
+      <c r="B372" t="str">
+        <v>412</v>
+      </c>
+      <c r="C372" t="str">
+        <v>RM19.90</v>
+      </c>
+      <c r="D372" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="str">
+        <v>READY STOCK RAINFOREST HERBS INTELLIGENT C8 MCT OIL 500ML ketogenic drink</v>
+      </c>
+      <c r="B373" t="str">
+        <v>13</v>
+      </c>
+      <c r="C373" t="str">
+        <v>RM103.00</v>
+      </c>
+      <c r="D373" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="str">
+        <v>[LUCKY PHARMACY] Yuka Zan Kf94 4 Ply Protective Face Mask 10S (Navy Blue/Black)</v>
+      </c>
+      <c r="B374" t="str">
+        <v>No</v>
+      </c>
+      <c r="C374" t="str">
+        <v>RM12.90</v>
+      </c>
+      <c r="D374" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="str">
+        <v>LUCKY PHARMACY MEDISENSE PREMIUM DISPOSABLE FACE MASK ultra soft BFE&amp;gt;98 PFE&amp;gt;96 [OMBRE LATTE] 50pcs [HEADLOOP/EARLOOP]</v>
+      </c>
+      <c r="B375" t="str">
+        <v>69</v>
+      </c>
+      <c r="C375" t="str">
+        <v>RM23.90</v>
+      </c>
+      <c r="D375" t="str">
+        <v>LATTE HEADLOOP</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="str">
+        <v>LUCKY PHARMACY MEDISENSE PREMIUM DISPOSABLE FACE MASK ultra soft BFE&amp;gt;98 PFE&amp;gt;96 [OMBRE LATTE] 50pcs [HEADLOOP/EARLOOP]</v>
+      </c>
+      <c r="B376" t="str">
+        <v>69</v>
+      </c>
+      <c r="C376" t="str">
+        <v>RM21.90</v>
+      </c>
+      <c r="D376" t="str">
+        <v>LATTE EARLOOP</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="str">
+        <v>NEUTROVIS MEDICAL KIDS MASK 50PCS/BOX BFE98|PFE96</v>
+      </c>
+      <c r="B377" t="str">
+        <v>239</v>
+      </c>
+      <c r="C377" t="str">
+        <v>RM19.90</v>
+      </c>
+      <c r="D377" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="str">
+        <v>LUCKY PHARMACY YUKA ZAN KF94 Disposable Protective Face Mask (Lavender + Peach) 10s</v>
+      </c>
+      <c r="B378" t="str">
+        <v>1</v>
+      </c>
+      <c r="C378" t="str">
+        <v>RM12.90</v>
+      </c>
+      <c r="D378" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="str">
+        <v>MEDICOS (NEW) M99 PRO Respirator with HydroCharge Filter - Adjustable Ear Loop</v>
+      </c>
+      <c r="B379" t="str">
+        <v>No</v>
+      </c>
+      <c r="C379" t="str">
+        <v>RM27.99</v>
+      </c>
+      <c r="D379" t="str">
+        <v>Rose</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="str">
+        <v>[LUCKY PHARMACY] Bluejay (NEW) Neutrovis NEW PREMIUM 3 PLY MEDICAL FACE MASK Blue Jay Sky Blue</v>
+      </c>
+      <c r="B380" t="str">
+        <v>3</v>
+      </c>
+      <c r="C380" t="str">
+        <v>RM28.50</v>
+      </c>
+      <c r="D380" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="str">
+        <v>MEDICOS 4PLY SURGICAL FACE MASK-50PCS/BOX- BLACK</v>
+      </c>
+      <c r="B381" t="str">
+        <v>11</v>
+      </c>
+      <c r="C381" t="str">
+        <v>RM33.50</v>
+      </c>
+      <c r="D381" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="str">
+        <v>Winheartz Natural health tonic 750ml</v>
+      </c>
+      <c r="B382" t="str">
+        <v>30</v>
+      </c>
+      <c r="C382" t="str">
+        <v>RM79.99</v>
+      </c>
+      <c r="D382" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="str">
+        <v>FAST SHIPMENT! PROFORTIL 60S (100% genuine)</v>
+      </c>
+      <c r="B383" t="str">
+        <v>147</v>
+      </c>
+      <c r="C383" t="str">
+        <v>RM349.00</v>
+      </c>
+      <c r="D383" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="str">
+        <v>RESPACK KN95 pcs/ Respack Kf94 Face Mask Adult 20 Pieces ( Furry white/ sapphire black/ kn95) (1 box ) EXP:04/2023 [READY STOCK]</v>
+      </c>
+      <c r="B384" t="str">
+        <v>145</v>
+      </c>
+      <c r="C384" t="str">
+        <v>RM11.99</v>
+      </c>
+      <c r="D384" t="str">
+        <v>RESPACK KN95 5S</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="str">
+        <v>RESPACK KN95 pcs/ Respack Kf94 Face Mask Adult 20 Pieces ( Furry white/ sapphire black/ kn95) (1 box ) EXP:04/2023 [READY STOCK]</v>
+      </c>
+      <c r="B385" t="str">
+        <v>145</v>
+      </c>
+      <c r="C385" t="str">
+        <v>RM26.99</v>
+      </c>
+      <c r="D385" t="str">
+        <v>RESPACK WHITE 20S</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="str">
+        <v>RESPACK KN95 pcs/ Respack Kf94 Face Mask Adult 20 Pieces ( Furry white/ sapphire black/ kn95) (1 box ) EXP:04/2023 [READY STOCK]</v>
+      </c>
+      <c r="B386" t="str">
+        <v>145</v>
+      </c>
+      <c r="C386" t="str">
+        <v>RM26.99</v>
+      </c>
+      <c r="D386" t="str">
+        <v>RESPACK BLACK 20S</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="str">
+        <v>[FAST SHIPMENT!!] Megalive FloraMax Pro Vegecaps 2x45's Free 15's (20 Billion CFU Per Capsule, Probiotics 19 Strains &amp; Prebiotics 2 Types)</v>
+      </c>
+      <c r="B387" t="str">
+        <v>23</v>
+      </c>
+      <c r="C387" t="str">
+        <v>RM228.50</v>
+      </c>
+      <c r="D387" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="str">
+        <v>NEW ! NEUTROVIS PREMIUM 4PLY EXTRA PROTECTION STEEL GREY 50PCS/BOX</v>
+      </c>
+      <c r="B388" t="str">
+        <v>24</v>
+      </c>
+      <c r="C388" t="str">
+        <v>RM30.99</v>
+      </c>
+      <c r="D388" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="str">
+        <v>[ALL embossed]CROSS PROTECTION RES-Q 300 PLUS ASTM LEVEL 2 MEDICAL FACE MASK 50PCS EARLOOP [WHITE, YELLOW, GREEN, PURPLE, PINK, BLUE]</v>
+      </c>
+      <c r="B389" t="str">
+        <v>91</v>
+      </c>
+      <c r="C389" t="str">
+        <v>RM35.00</v>
+      </c>
+      <c r="D389" t="str">
+        <v>RES Q 300 PLUS</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="str">
+        <v>[ALL embossed]CROSS PROTECTION RES-Q 300 PLUS ASTM LEVEL 2 MEDICAL FACE MASK 50PCS EARLOOP [WHITE, YELLOW, GREEN, PURPLE, PINK, BLUE]</v>
+      </c>
+      <c r="B390" t="str">
+        <v>91</v>
+      </c>
+      <c r="C390" t="str">
+        <v>RM35.00</v>
+      </c>
+      <c r="D390" t="str">
+        <v>RES Q 300 PLUS</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="str">
+        <v>[ALL embossed]CROSS PROTECTION RES-Q 300 PLUS ASTM LEVEL 2 MEDICAL FACE MASK 50PCS EARLOOP [WHITE, YELLOW, GREEN, PURPLE, PINK, BLUE]</v>
+      </c>
+      <c r="B391" t="str">
+        <v>91</v>
+      </c>
+      <c r="C391" t="str">
+        <v>RM35.00</v>
+      </c>
+      <c r="D391" t="str">
+        <v>RES Q 300 PLUS</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="str">
+        <v>[ALL embossed]CROSS PROTECTION RES-Q 300 PLUS ASTM LEVEL 2 MEDICAL FACE MASK 50PCS EARLOOP [WHITE, YELLOW, GREEN, PURPLE, PINK, BLUE]</v>
+      </c>
+      <c r="B392" t="str">
+        <v>91</v>
+      </c>
+      <c r="C392" t="str">
+        <v>RM35.00</v>
+      </c>
+      <c r="D392" t="str">
+        <v>RES Q 300 PLUS</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="str">
+        <v>[ALL embossed]CROSS PROTECTION RES-Q 300 PLUS ASTM LEVEL 2 MEDICAL FACE MASK 50PCS EARLOOP [WHITE, YELLOW, GREEN, PURPLE, PINK, BLUE]</v>
+      </c>
+      <c r="B393" t="str">
+        <v>91</v>
+      </c>
+      <c r="C393" t="str">
+        <v>RM35.00</v>
+      </c>
+      <c r="D393" t="str">
+        <v>RES Q 300 PLUS</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="str">
+        <v>[ALL embossed]CROSS PROTECTION RES-Q 300 PLUS ASTM LEVEL 2 MEDICAL FACE MASK 50PCS EARLOOP [WHITE, YELLOW, GREEN, PURPLE, PINK, BLUE]</v>
+      </c>
+      <c r="B394" t="str">
+        <v>91</v>
+      </c>
+      <c r="C394" t="str">
+        <v>RM35.00</v>
+      </c>
+      <c r="D394" t="str">
+        <v>RES Q 300 PLUS</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="str">
+        <v>[PREMIUM BABY YELLOW] NEUTROVIS 3 PLY MEDICAL FACE MASK 50PCS EARLOOP</v>
+      </c>
+      <c r="B395" t="str">
+        <v>164</v>
+      </c>
+      <c r="C395" t="str">
+        <v>RM28.49</v>
+      </c>
+      <c r="D395" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="str">
+        <v>100% ori Quantum-ION V3 High Quality Reusable Washable Face Mask Antibacterial Coating Technology 3ply kids adult</v>
+      </c>
+      <c r="B396" t="str">
+        <v>16</v>
+      </c>
+      <c r="C396" t="str">
+        <v>RM34.90</v>
+      </c>
+      <c r="D396" t="str">
+        <v>adult black</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="str">
+        <v>100% ori Quantum-ION V3 High Quality Reusable Washable Face Mask Antibacterial Coating Technology 3ply kids adult</v>
+      </c>
+      <c r="B397" t="str">
+        <v>16</v>
+      </c>
+      <c r="C397" t="str">
+        <v>RM34.90</v>
+      </c>
+      <c r="D397" t="str">
+        <v>kids grey</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="str">
+        <v>[LUCKY PHARMACY] [NEUTROVIS premium 3ply medical face mask OMNI GREY 50pcs</v>
+      </c>
+      <c r="B398" t="str">
+        <v>31</v>
+      </c>
+      <c r="C398" t="str">
+        <v>RM32.80</v>
+      </c>
+      <c r="D398" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="str">
+        <v>[FREE HAND SANITIZER][FAST SHIPPING]NUTRIFOOD PRO50/ NUTRI FOOD PRO-50 (VANILLA) 5G X 30 SACHETS [EXP 2/22]</v>
+      </c>
+      <c r="B399" t="str">
+        <v>9</v>
+      </c>
+      <c r="C399" t="str">
+        <v>RM119.90</v>
+      </c>
+      <c r="D399" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="str">
+        <v>LUCKY PHARMACY KF 94 KOREAN PREMIUM RESPIRATOR 10PCS PER BOX</v>
+      </c>
+      <c r="B400" t="str">
+        <v>49</v>
+      </c>
+      <c r="C400" t="str">
+        <v>RM29.90</v>
+      </c>
+      <c r="D400" t="str">
+        <v>JET BLACK</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="str">
+        <v>LUCKY PHARMACY KF 94 KOREAN PREMIUM RESPIRATOR 10PCS PER BOX</v>
+      </c>
+      <c r="B401" t="str">
+        <v>49</v>
+      </c>
+      <c r="C401" t="str">
+        <v>RM29.90</v>
+      </c>
+      <c r="D401" t="str">
+        <v>SWEET MACARON</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="str">
+        <v>LUCKY PHARMACY KF 94 KOREAN PREMIUM RESPIRATOR 10PCS PER BOX</v>
+      </c>
+      <c r="B402" t="str">
+        <v>49</v>
+      </c>
+      <c r="C402" t="str">
+        <v>RM29.90</v>
+      </c>
+      <c r="D402" t="str">
+        <v>OXFORD BLUE</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="str">
+        <v>LUCKY PHARMACY KF 94 KOREAN PREMIUM RESPIRATOR 10PCS PER BOX</v>
+      </c>
+      <c r="B403" t="str">
+        <v>49</v>
+      </c>
+      <c r="C403" t="str">
+        <v>RM29.90</v>
+      </c>
+      <c r="D403" t="str">
+        <v>POOL BLUE</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="str">
+        <v>LUCKY PHARMACY KF 94 KOREAN PREMIUM RESPIRATOR 10PCS PER BOX</v>
+      </c>
+      <c r="B404" t="str">
+        <v>49</v>
+      </c>
+      <c r="C404" t="str">
+        <v>RM29.90</v>
+      </c>
+      <c r="D404" t="str">
+        <v>dynamite grey</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="str">
+        <v>[CHEAPEST IN STORE] HIMAYA headloop/hijab premium medical face mask 50pcs/10PCS [LOVE LATTE, SOFT OLIVE, LOVE LAGOON, APRICOT DREAM, PHILIPSBURG BLUE, ASTER BLUE, FRENCH ROMANCE]]</v>
+      </c>
+      <c r="B405" t="str">
+        <v>417</v>
+      </c>
+      <c r="C405" t="str">
+        <v>RM30.00</v>
+      </c>
+      <c r="D405" t="str">
+        <v>APRICOT DREAM</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="str">
+        <v>[CHEAPEST IN STORE] HIMAYA headloop/hijab premium medical face mask 50pcs/10PCS [LOVE LATTE, SOFT OLIVE, LOVE LAGOON, APRICOT DREAM, PHILIPSBURG BLUE, ASTER BLUE, FRENCH ROMANCE]]</v>
+      </c>
+      <c r="B406" t="str">
+        <v>417</v>
+      </c>
+      <c r="C406" t="str">
+        <v>RM30.00</v>
+      </c>
+      <c r="D406" t="str">
+        <v>BLUE LAGOON</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="str">
+        <v>[CHEAPEST IN STORE] HIMAYA headloop/hijab premium medical face mask 50pcs/10PCS [LOVE LATTE, SOFT OLIVE, LOVE LAGOON, APRICOT DREAM, PHILIPSBURG BLUE, ASTER BLUE, FRENCH ROMANCE]]</v>
+      </c>
+      <c r="B407" t="str">
+        <v>417</v>
+      </c>
+      <c r="C407" t="str">
+        <v>RM30.00</v>
+      </c>
+      <c r="D407" t="str">
+        <v>SOFT OLIVE</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="str">
+        <v>[CHEAPEST IN STORE] HIMAYA headloop/hijab premium medical face mask 50pcs/10PCS [LOVE LATTE, SOFT OLIVE, LOVE LAGOON, APRICOT DREAM, PHILIPSBURG BLUE, ASTER BLUE, FRENCH ROMANCE]]</v>
+      </c>
+      <c r="B408" t="str">
+        <v>417</v>
+      </c>
+      <c r="C408" t="str">
+        <v>RM33.00</v>
+      </c>
+      <c r="D408" t="str">
+        <v>FRENCH ROMANCE</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="str">
+        <v>[CHEAPEST IN STORE] HIMAYA headloop/hijab premium medical face mask 50pcs/10PCS [LOVE LATTE, SOFT OLIVE, LOVE LAGOON, APRICOT DREAM, PHILIPSBURG BLUE, ASTER BLUE, FRENCH ROMANCE]]</v>
+      </c>
+      <c r="B409" t="str">
+        <v>417</v>
+      </c>
+      <c r="C409" t="str">
+        <v>RM30.00</v>
+      </c>
+      <c r="D409" t="str">
+        <v>LOVE LATTE</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="str">
+        <v>[CHEAPEST IN STORE] HIMAYA headloop/hijab premium medical face mask 50pcs/10PCS [LOVE LATTE, SOFT OLIVE, LOVE LAGOON, APRICOT DREAM, PHILIPSBURG BLUE, ASTER BLUE, FRENCH ROMANCE]]</v>
+      </c>
+      <c r="B410" t="str">
+        <v>417</v>
+      </c>
+      <c r="C410" t="str">
+        <v>RM33.00</v>
+      </c>
+      <c r="D410" t="str">
+        <v>PHILIPSBURG BLUE</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="str">
+        <v>[CHEAPEST IN STORE] HIMAYA headloop/hijab premium medical face mask 50pcs/10PCS [LOVE LATTE, SOFT OLIVE, LOVE LAGOON, APRICOT DREAM, PHILIPSBURG BLUE, ASTER BLUE, FRENCH ROMANCE]]</v>
+      </c>
+      <c r="B411" t="str">
+        <v>417</v>
+      </c>
+      <c r="C411" t="str">
+        <v>RM33.00</v>
+      </c>
+      <c r="D411" t="str">
+        <v>ASTER BLUE</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="str">
+        <v>MEDICOS LUMI SERIES SURGICAL FACE MASK EARLOOP 50PCS NEON GREEN</v>
+      </c>
+      <c r="B412" t="str">
+        <v>63</v>
+      </c>
+      <c r="C412" t="str">
+        <v>RM32.90</v>
+      </c>
+      <c r="D412" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="str">
+        <v>[LAST 42!!] NO MORE SEA BLUE!! MEDICOS 3ply SUBMICRON SURGICAL FACE MASK 50pcs Earloop SEA BLUE ULTRA SOFT</v>
+      </c>
+      <c r="B413" t="str">
+        <v>361</v>
+      </c>
+      <c r="C413" t="str">
+        <v>RM35.00</v>
+      </c>
+      <c r="D413" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="str">
+        <v>[LUCKY PHARMACY] [BEWARE OF FAKE PRODUCT! MAKE SURE 4PLY NEUTROVIS FACE MASK WITH AUTHENTIC STICKER!] NEUTROVIS PREMIUM 4PLY MEDICAL FACE MASK EARTHLY BROWN SERIES desert storm &amp; sahara 50PCS</v>
+      </c>
+      <c r="B414" t="str">
+        <v>17</v>
+      </c>
+      <c r="C414" t="str">
+        <v>RM36.90</v>
+      </c>
+      <c r="D414" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="str">
+        <v>MEDICOS LUMI SERIES SURGICAL FACE MASK EARLOOP 50PCS COTTON CANDY</v>
+      </c>
+      <c r="B415" t="str">
+        <v>83</v>
+      </c>
+      <c r="C415" t="str">
+        <v>RM35.00</v>
+      </c>
+      <c r="D415" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="str">
+        <v>[NEW STOCK]CG210 LIQUID FEMALE 80ML</v>
+      </c>
+      <c r="B416" t="str">
+        <v>16</v>
+      </c>
+      <c r="C416" t="str">
+        <v>RM76.90</v>
+      </c>
+      <c r="D416" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="str">
+        <v>NEUTROVIS PREMIUM 4PLY EXTRA PROTECTION MERLOT/FEATHER IRIS 50PCS/BOX</v>
+      </c>
+      <c r="B417" t="str">
+        <v>95</v>
+      </c>
+      <c r="C417" t="str">
+        <v>RM27.00</v>
+      </c>
+      <c r="D417" t="str">
+        <v>MERLOT</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="str">
+        <v>NEUTROVIS PREMIUM 4PLY EXTRA PROTECTION MERLOT/FEATHER IRIS 50PCS/BOX</v>
+      </c>
+      <c r="B418" t="str">
+        <v>95</v>
+      </c>
+      <c r="C418" t="str">
+        <v>RM27.00</v>
+      </c>
+      <c r="D418" t="str">
+        <v>FEATHER IRIS</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="str">
+        <v>NEUTROVIS PREMIUM 4PLY EXTRA PROTECTION MERLOT/FEATHER IRIS 50PCS/BOX</v>
+      </c>
+      <c r="B419" t="str">
+        <v>95</v>
+      </c>
+      <c r="C419" t="str">
+        <v>RM25.78</v>
+      </c>
+      <c r="D419" t="str">
+        <v>MEDIPRO DENIM</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="str">
+        <v>NEUTROVIS PREMIUM 4PLY EXTRA PROTECTION MERLOT/FEATHER IRIS 50PCS/BOX</v>
+      </c>
+      <c r="B420" t="str">
+        <v>95</v>
+      </c>
+      <c r="C420" t="str">
+        <v>RM25.78</v>
+      </c>
+      <c r="D420" t="str">
+        <v>MEDIPRO BLACK</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="str">
+        <v>[KL READY STOCK] EasyCare/ safety plus Adult Non-Surgical Disposable 3ply Face Mask</v>
+      </c>
+      <c r="B421" t="str">
+        <v>43</v>
+      </c>
+      <c r="C421" t="str">
+        <v>RM10.90</v>
+      </c>
+      <c r="D421" t="str">
+        <v>SAFETY PLUS GREEN</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="str">
+        <v>[KL READY STOCK] EasyCare/ safety plus Adult Non-Surgical Disposable 3ply Face Mask</v>
+      </c>
+      <c r="B422" t="str">
+        <v>43</v>
+      </c>
+      <c r="C422" t="str">
+        <v>RM8.81</v>
+      </c>
+      <c r="D422" t="str">
+        <v>EC Black</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="str">
+        <v>[KL READY STOCK] EasyCare/ safety plus Adult Non-Surgical Disposable 3ply Face Mask</v>
+      </c>
+      <c r="B423" t="str">
+        <v>43</v>
+      </c>
+      <c r="C423" t="str">
+        <v>RM10.90</v>
+      </c>
+      <c r="D423" t="str">
+        <v>EC MILKTEA</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="str">
+        <v>[KL READY STOCK] EasyCare/ safety plus Adult Non-Surgical Disposable 3ply Face Mask</v>
+      </c>
+      <c r="B424" t="str">
+        <v>43</v>
+      </c>
+      <c r="C424" t="str">
+        <v>RM10.90</v>
+      </c>
+      <c r="D424" t="str">
+        <v>EC DAY PINK</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="str">
+        <v>[KL READY STOCK] EasyCare/ safety plus Adult Non-Surgical Disposable 3ply Face Mask</v>
+      </c>
+      <c r="B425" t="str">
+        <v>43</v>
+      </c>
+      <c r="C425" t="str">
+        <v>RM10.90</v>
+      </c>
+      <c r="D425" t="str">
+        <v>EC SUNRISE ORANGE</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="str">
+        <v>[KL READY STOCK] EasyCare/ safety plus Adult Non-Surgical Disposable 3ply Face Mask</v>
+      </c>
+      <c r="B426" t="str">
+        <v>43</v>
+      </c>
+      <c r="C426" t="str">
+        <v>RM10.90</v>
+      </c>
+      <c r="D426" t="str">
+        <v>EC WIZARD GREEN</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="str">
+        <v>[KL READY STOCK] EasyCare/ safety plus Adult Non-Surgical Disposable 3ply Face Mask</v>
+      </c>
+      <c r="B427" t="str">
+        <v>43</v>
+      </c>
+      <c r="C427" t="str">
+        <v>RM10.90</v>
+      </c>
+      <c r="D427" t="str">
+        <v>SAFETY PLUS PINK</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="str">
+        <v>[KL READY STOCK] EasyCare/ safety plus Adult Non-Surgical Disposable 3ply Face Mask</v>
+      </c>
+      <c r="B428" t="str">
+        <v>43</v>
+      </c>
+      <c r="C428" t="str">
+        <v>RM10.90</v>
+      </c>
+      <c r="D428" t="str">
+        <v>SAFETY PLUS GREY</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="str">
+        <v>[KL READY STOCK] EasyCare/ safety plus Adult Non-Surgical Disposable 3ply Face Mask</v>
+      </c>
+      <c r="B429" t="str">
+        <v>43</v>
+      </c>
+      <c r="C429" t="str">
+        <v>RM13.50</v>
+      </c>
+      <c r="D429" t="str">
+        <v>EC KIDS KITTY PINK</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="str">
+        <v>[KL READY STOCK] EasyCare/ safety plus Adult Non-Surgical Disposable 3ply Face Mask</v>
+      </c>
+      <c r="B430" t="str">
+        <v>43</v>
+      </c>
+      <c r="C430" t="str">
+        <v>RM13.50</v>
+      </c>
+      <c r="D430" t="str">
+        <v>EC KIDS KITTY PURPLE</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="str">
+        <v>[KL READY STOCK] EasyCare/ safety plus Adult Non-Surgical Disposable 3ply Face Mask</v>
+      </c>
+      <c r="B431" t="str">
+        <v>43</v>
+      </c>
+      <c r="C431" t="str">
+        <v>RM13.50</v>
+      </c>
+      <c r="D431" t="str">
+        <v>EC KIDS DORAEMON</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="str">
+        <v>[KL READY STOCK] EasyCare/ safety plus Adult Non-Surgical Disposable 3ply Face Mask</v>
+      </c>
+      <c r="B432" t="str">
+        <v>43</v>
+      </c>
+      <c r="C432" t="str">
+        <v>RM13.50</v>
+      </c>
+      <c r="D432" t="str">
+        <v>EC KIDS MINION</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="str">
+        <v>[KL READY STOCK] EasyCare/ safety plus Adult Non-Surgical Disposable 3ply Face Mask</v>
+      </c>
+      <c r="B433" t="str">
+        <v>43</v>
+      </c>
+      <c r="C433" t="str">
+        <v>RM13.50</v>
+      </c>
+      <c r="D433" t="str">
+        <v>EC KIDS FROZEN</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="str">
+        <v>[KL READY STOCK] EasyCare/ safety plus Adult Non-Surgical Disposable 3ply Face Mask</v>
+      </c>
+      <c r="B434" t="str">
+        <v>43</v>
+      </c>
+      <c r="C434" t="str">
+        <v>RM13.50</v>
+      </c>
+      <c r="D434" t="str">
+        <v>EC KIDS CAR</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="str">
+        <v>[KL READY STOCK] EasyCare/ safety plus Adult Non-Surgical Disposable 3ply Face Mask</v>
+      </c>
+      <c r="B435" t="str">
+        <v>43</v>
+      </c>
+      <c r="C435" t="str">
+        <v>RM13.50</v>
+      </c>
+      <c r="D435" t="str">
+        <v>EC KIDS PONY</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="str">
+        <v>[KL READY STOCK] EasyCare/ safety plus Adult Non-Surgical Disposable 3ply Face Mask</v>
+      </c>
+      <c r="B436" t="str">
+        <v>43</v>
+      </c>
+      <c r="C436" t="str">
+        <v>RM13.50</v>
+      </c>
+      <c r="D436" t="str">
+        <v>EC KIDS AVENGERS</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="str">
+        <v>MEDICOS LUMI SERIES SURGICAL FACE MASK EARLOOP 50PCS PEACH CRUSH</v>
+      </c>
+      <c r="B437" t="str">
+        <v>98</v>
+      </c>
+      <c r="C437" t="str">
+        <v>RM33.90</v>
+      </c>
+      <c r="D437" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="str">
+        <v>[NEW STOCK]LIVE-WELL CUMIN Turmeric 400mg 60s X 2 Free 30s</v>
+      </c>
+      <c r="B438" t="str">
+        <v>35</v>
+      </c>
+      <c r="C438" t="str">
+        <v>RM131.98</v>
+      </c>
+      <c r="D438" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="str">
+        <v>[READY STOCK!] DR. CLO SANITISING DEODORANT DEVICE - All Round</v>
+      </c>
+      <c r="B439" t="str">
+        <v>151</v>
+      </c>
+      <c r="C439" t="str">
+        <v>RM56.00</v>
+      </c>
+      <c r="D439" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="str">
+        <v>CRITICARE Supplement-D supplement D milk vanilla 400g</v>
+      </c>
+      <c r="B440" t="str">
+        <v>26</v>
+      </c>
+      <c r="C440" t="str">
+        <v>RM49.90</v>
+      </c>
+      <c r="D440" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="str">
+        <v>[READY STOCK] Neutrovis HIJAB/headloop Premium Medical Face Mask 50pcs LAVENDER</v>
+      </c>
+      <c r="B441" t="str">
+        <v>172</v>
+      </c>
+      <c r="C441" t="str">
+        <v>RM28.49</v>
+      </c>
+      <c r="D441" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="str">
+        <v>LENNOX Firm Up + Bight Collagen 16+4's</v>
+      </c>
+      <c r="B442" t="str">
+        <v>55</v>
+      </c>
+      <c r="C442" t="str">
+        <v>RM83.80</v>
+      </c>
+      <c r="D442" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="str">
+        <v>[LUCKY PHARMACY][DUSTY ROSE] Neutrovis airy secure premium medical mask DUSTY ROSE 50pcs</v>
+      </c>
+      <c r="B443" t="str">
+        <v>17</v>
+      </c>
+      <c r="C443" t="str">
+        <v>RM29.90</v>
+      </c>
+      <c r="D443" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="str">
+        <v>NEUTROVIS KF94 / KN95 Face Mask Jet Black / SWEET MACARON/ POOL BLUE/ OXFORD BLUE/ DYNAMIDE GREY/ BUTTERMILK/ BLACK COAL/ CLASSIC WHITE/ BALLET PINK/ MINT TEAL/ GREYSTONE/ LUCID SEA</v>
+      </c>
+      <c r="B444" t="str">
+        <v>57</v>
+      </c>
+      <c r="C444" t="str">
+        <v>RM29.70</v>
+      </c>
+      <c r="D444" t="str">
+        <v>KN95 BALLET PINK 20S</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="str">
+        <v>NEUTROVIS KF94 / KN95 Face Mask Jet Black / SWEET MACARON/ POOL BLUE/ OXFORD BLUE/ DYNAMIDE GREY/ BUTTERMILK/ BLACK COAL/ CLASSIC WHITE/ BALLET PINK/ MINT TEAL/ GREYSTONE/ LUCID SEA</v>
+      </c>
+      <c r="B445" t="str">
+        <v>57</v>
+      </c>
+      <c r="C445" t="str">
+        <v>RM26.50</v>
+      </c>
+      <c r="D445" t="str">
+        <v>KF94 JET BLACK</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="str">
+        <v>NEUTROVIS KF94 / KN95 Face Mask Jet Black / SWEET MACARON/ POOL BLUE/ OXFORD BLUE/ DYNAMIDE GREY/ BUTTERMILK/ BLACK COAL/ CLASSIC WHITE/ BALLET PINK/ MINT TEAL/ GREYSTONE/ LUCID SEA</v>
+      </c>
+      <c r="B446" t="str">
+        <v>57</v>
+      </c>
+      <c r="C446" t="str">
+        <v>RM26.50</v>
+      </c>
+      <c r="D446" t="str">
+        <v>KF94 SWEET MACARON</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="str">
+        <v>NEUTROVIS KF94 / KN95 Face Mask Jet Black / SWEET MACARON/ POOL BLUE/ OXFORD BLUE/ DYNAMIDE GREY/ BUTTERMILK/ BLACK COAL/ CLASSIC WHITE/ BALLET PINK/ MINT TEAL/ GREYSTONE/ LUCID SEA</v>
+      </c>
+      <c r="B447" t="str">
+        <v>57</v>
+      </c>
+      <c r="C447" t="str">
+        <v>RM26.50</v>
+      </c>
+      <c r="D447" t="str">
+        <v>KF94 OXFORD BLUE</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="str">
+        <v>NEUTROVIS KF94 / KN95 Face Mask Jet Black / SWEET MACARON/ POOL BLUE/ OXFORD BLUE/ DYNAMIDE GREY/ BUTTERMILK/ BLACK COAL/ CLASSIC WHITE/ BALLET PINK/ MINT TEAL/ GREYSTONE/ LUCID SEA</v>
+      </c>
+      <c r="B448" t="str">
+        <v>57</v>
+      </c>
+      <c r="C448" t="str">
+        <v>RM26.50</v>
+      </c>
+      <c r="D448" t="str">
+        <v>KF94 POOL BLUE</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="str">
+        <v>NEUTROVIS KF94 / KN95 Face Mask Jet Black / SWEET MACARON/ POOL BLUE/ OXFORD BLUE/ DYNAMIDE GREY/ BUTTERMILK/ BLACK COAL/ CLASSIC WHITE/ BALLET PINK/ MINT TEAL/ GREYSTONE/ LUCID SEA</v>
+      </c>
+      <c r="B449" t="str">
+        <v>57</v>
+      </c>
+      <c r="C449" t="str">
+        <v>RM26.50</v>
+      </c>
+      <c r="D449" t="str">
+        <v>KF94 DYNAMIDE GREY</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="str">
+        <v>NEUTROVIS KF94 / KN95 Face Mask Jet Black / SWEET MACARON/ POOL BLUE/ OXFORD BLUE/ DYNAMIDE GREY/ BUTTERMILK/ BLACK COAL/ CLASSIC WHITE/ BALLET PINK/ MINT TEAL/ GREYSTONE/ LUCID SEA</v>
+      </c>
+      <c r="B450" t="str">
+        <v>57</v>
+      </c>
+      <c r="C450" t="str">
+        <v>RM29.70</v>
+      </c>
+      <c r="D450" t="str">
+        <v>KN95 BLACK COAL 20S</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="str">
+        <v>NEUTROVIS KF94 / KN95 Face Mask Jet Black / SWEET MACARON/ POOL BLUE/ OXFORD BLUE/ DYNAMIDE GREY/ BUTTERMILK/ BLACK COAL/ CLASSIC WHITE/ BALLET PINK/ MINT TEAL/ GREYSTONE/ LUCID SEA</v>
+      </c>
+      <c r="B451" t="str">
+        <v>57</v>
+      </c>
+      <c r="C451" t="str">
+        <v>RM29.70</v>
+      </c>
+      <c r="D451" t="str">
+        <v>KN95 BUTTERMILK 20S</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="str">
+        <v>NEUTROVIS KF94 / KN95 Face Mask Jet Black / SWEET MACARON/ POOL BLUE/ OXFORD BLUE/ DYNAMIDE GREY/ BUTTERMILK/ BLACK COAL/ CLASSIC WHITE/ BALLET PINK/ MINT TEAL/ GREYSTONE/ LUCID SEA</v>
+      </c>
+      <c r="B452" t="str">
+        <v>57</v>
+      </c>
+      <c r="C452" t="str">
+        <v>RM29.70</v>
+      </c>
+      <c r="D452" t="str">
+        <v>KN95 WHITE 20S</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="str">
+        <v>NEUTROVIS KF94 / KN95 Face Mask Jet Black / SWEET MACARON/ POOL BLUE/ OXFORD BLUE/ DYNAMIDE GREY/ BUTTERMILK/ BLACK COAL/ CLASSIC WHITE/ BALLET PINK/ MINT TEAL/ GREYSTONE/ LUCID SEA</v>
+      </c>
+      <c r="B453" t="str">
+        <v>57</v>
+      </c>
+      <c r="C453" t="str">
+        <v>RM38.90</v>
+      </c>
+      <c r="D453" t="str">
+        <v>KN95 MINT TEAL 20S</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="str">
+        <v>NEUTROVIS KF94 / KN95 Face Mask Jet Black / SWEET MACARON/ POOL BLUE/ OXFORD BLUE/ DYNAMIDE GREY/ BUTTERMILK/ BLACK COAL/ CLASSIC WHITE/ BALLET PINK/ MINT TEAL/ GREYSTONE/ LUCID SEA</v>
+      </c>
+      <c r="B454" t="str">
+        <v>57</v>
+      </c>
+      <c r="C454" t="str">
+        <v>RM38.90</v>
+      </c>
+      <c r="D454" t="str">
+        <v>KN95 LUCID SEA 20S</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="str">
+        <v>NEUTROVIS KF94 / KN95 Face Mask Jet Black / SWEET MACARON/ POOL BLUE/ OXFORD BLUE/ DYNAMIDE GREY/ BUTTERMILK/ BLACK COAL/ CLASSIC WHITE/ BALLET PINK/ MINT TEAL/ GREYSTONE/ LUCID SEA</v>
+      </c>
+      <c r="B455" t="str">
+        <v>57</v>
+      </c>
+      <c r="C455" t="str">
+        <v>RM38.90</v>
+      </c>
+      <c r="D455" t="str">
+        <v>KN95 GREYSTONE 20S</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="str">
+        <v>NEUTROVIS KF94 / KN95 Face Mask Jet Black / SWEET MACARON/ POOL BLUE/ OXFORD BLUE/ DYNAMIDE GREY/ BUTTERMILK/ BLACK COAL/ CLASSIC WHITE/ BALLET PINK/ MINT TEAL/ GREYSTONE/ LUCID SEA</v>
+      </c>
+      <c r="B456" t="str">
+        <v>57</v>
+      </c>
+      <c r="C456" t="str">
+        <v>RM25.78</v>
+      </c>
+      <c r="D456" t="str">
+        <v>MEDIPRO DENIM</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="str">
+        <v>NEUTROVIS KF94 / KN95 Face Mask Jet Black / SWEET MACARON/ POOL BLUE/ OXFORD BLUE/ DYNAMIDE GREY/ BUTTERMILK/ BLACK COAL/ CLASSIC WHITE/ BALLET PINK/ MINT TEAL/ GREYSTONE/ LUCID SEA</v>
+      </c>
+      <c r="B457" t="str">
+        <v>57</v>
+      </c>
+      <c r="C457" t="str">
+        <v>RM25.78</v>
+      </c>
+      <c r="D457" t="str">
+        <v>MEDIPRO BLACK</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="str">
+        <v>NEUTROVIS KF94 / KN95 Face Mask Jet Black / SWEET MACARON/ POOL BLUE/ OXFORD BLUE/ DYNAMIDE GREY/ BUTTERMILK/ BLACK COAL/ CLASSIC WHITE/ BALLET PINK/ MINT TEAL/ GREYSTONE/ LUCID SEA</v>
+      </c>
+      <c r="B458" t="str">
+        <v>57</v>
+      </c>
+      <c r="C458" t="str">
+        <v>RM15.78</v>
+      </c>
+      <c r="D458" t="str">
+        <v>MEDIPRO SKY BLUE</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="str">
+        <v>NEUTROVIS KF94 / KN95 Face Mask Jet Black / SWEET MACARON/ POOL BLUE/ OXFORD BLUE/ DYNAMIDE GREY/ BUTTERMILK/ BLACK COAL/ CLASSIC WHITE/ BALLET PINK/ MINT TEAL/ GREYSTONE/ LUCID SEA</v>
+      </c>
+      <c r="B459" t="str">
+        <v>57</v>
+      </c>
+      <c r="C459" t="str">
+        <v>RM17.78</v>
+      </c>
+      <c r="D459" t="str">
+        <v>MEDIPRO SKY BLUE KID</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="str">
+        <v>READY STOCK RAINFOREST HERBS BODY HACK MCT OIL 500ML ketogenic drink or diet</v>
+      </c>
+      <c r="B460" t="str">
+        <v>18</v>
+      </c>
+      <c r="C460" t="str">
+        <v>RM75.00</v>
+      </c>
+      <c r="D460" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="str">
+        <v>Duoderm CGF 5s (10cm x 10cm) READY STOCK!!</v>
+      </c>
+      <c r="B461" t="str">
+        <v>16</v>
+      </c>
+      <c r="C461" t="str">
+        <v>RM67.99</v>
+      </c>
+      <c r="D461" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="str">
+        <v>NEUTROVIS HEADLOOP/HIJAB basic medical face mask SWEET PINK 50s</v>
+      </c>
+      <c r="B462" t="str">
+        <v>22</v>
+      </c>
+      <c r="C462" t="str">
+        <v>RM29.90</v>
+      </c>
+      <c r="D462" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="str">
+        <v>[READY STOCK]Bonlife Sea Buckthorn Softgel 500mg 60's</v>
+      </c>
+      <c r="B463" t="str">
+        <v>64</v>
+      </c>
+      <c r="C463" t="str">
+        <v>RM69.90</v>
+      </c>
+      <c r="D463" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="str">
+        <v>[LAST 100!! READY STOCK]LIMITED EDITION NEUTROVIS Ombre series After dark Premium Medical Mask 50 pcs</v>
+      </c>
+      <c r="B464" t="str">
+        <v>170</v>
+      </c>
+      <c r="C464" t="str">
+        <v>RM31.00</v>
+      </c>
+      <c r="D464" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="str">
+        <v>LAST 100 READY STOCK!! [LIMITED EDITION Neutrovis Ombre Series Dusty Rose 3PLY Premium Extra Soft Medical Mask Suitable for sensitive skin</v>
+      </c>
+      <c r="B465" t="str">
+        <v>188</v>
+      </c>
+      <c r="C465" t="str">
+        <v>RM31.00</v>
+      </c>
+      <c r="D465" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="str">
+        <v>[FAST SHIPPING] Duoderm Extra Thin 10s (10cmx10cm) REF187955</v>
+      </c>
+      <c r="B466" t="str">
+        <v>19</v>
+      </c>
+      <c r="C466" t="str">
+        <v>RM62.90</v>
+      </c>
+      <c r="D466" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="str">
+        <v>Bio-D SleepTite Bed Bug and Dust Mite Control Spray 300ml (Lavender)</v>
+      </c>
+      <c r="B467" t="str">
+        <v>31</v>
+      </c>
+      <c r="C467" t="str">
+        <v>RM39.90</v>
+      </c>
+      <c r="D467" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="str">
+        <v>[FAST SHIPPING]Dermaveen Moisturising Cream 100ml</v>
+      </c>
+      <c r="B468" t="str">
+        <v>12</v>
+      </c>
+      <c r="C468" t="str">
+        <v>RM25.99</v>
+      </c>
+      <c r="D468" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="str">
+        <v>[LAZADA BIRTHDAY SALE][LUCKY PHARMACY] WIZBIOTECH NASAL COVID 19 covid self test kit Antigen Test Kit 1 PCS/ BOX</v>
+      </c>
+      <c r="B469" t="str">
+        <v>3</v>
+      </c>
+      <c r="C469" t="str">
+        <v>RM5.69</v>
+      </c>
+      <c r="D469" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="str">
+        <v>[LUCKY PHARMACY]NEUTROVIS PREMIUM MEDICAL FACE MAKS PINK BABY EARLOOP 50PCS/BOX</v>
+      </c>
+      <c r="B470" t="str">
+        <v>3</v>
+      </c>
+      <c r="C470" t="str">
+        <v>RM32.90</v>
+      </c>
+      <c r="D470" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="str">
+        <v>[NEW STOCK] Hialid 0.1% Ophthalmic Solution 5ml[EXP 10/2022]</v>
+      </c>
+      <c r="B471" t="str">
+        <v>20</v>
+      </c>
+      <c r="C471" t="str">
+        <v>RM13.50</v>
+      </c>
+      <c r="D471" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="str">
+        <v>Belcid Suspension 120/ 240ml Antacid, Antiflatulence, Gastric [READY STOCK]</v>
+      </c>
+      <c r="B472" t="str">
+        <v>16</v>
+      </c>
+      <c r="C472" t="str">
+        <v>RM9.90</v>
+      </c>
+      <c r="D472" t="str">
+        <v>240ml</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="str">
+        <v>VERYGOOD Grain High Fibre Natural Grain 1kg x 2 FREE 500gm ( FREE Shaker ) PROMO PACK VERY GOOD</v>
+      </c>
+      <c r="B473" t="str">
+        <v>25</v>
+      </c>
+      <c r="C473" t="str">
+        <v>RM134.00</v>
+      </c>
+      <c r="D473" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="str">
+        <v>Lohas Premium Raw Honey (1KG x 2)</v>
+      </c>
+      <c r="B474" t="str">
+        <v>156</v>
+      </c>
+      <c r="C474" t="str">
+        <v>RM57.50</v>
+      </c>
+      <c r="D474" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="str">
+        <v>[JOINT SUPPLEMENT!] GLUJOINT 25G X 20 SACHETS Collagen Hydrolysate [new]</v>
+      </c>
+      <c r="B475" t="str">
+        <v>10</v>
+      </c>
+      <c r="C475" t="str">
+        <v>RM85.00</v>
+      </c>
+      <c r="D475" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="str">
+        <v>FLANIL ANALGESIC CREAM 60G READY STOCK</v>
+      </c>
+      <c r="B476" t="str">
+        <v>1</v>
+      </c>
+      <c r="C476" t="str">
+        <v>RM12.30</v>
+      </c>
+      <c r="D476" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="str">
+        <v>[NEW STOCK]VitaHealth Asta Glutathione 300mg Plus 2x30s (High Strength)</v>
+      </c>
+      <c r="B477" t="str">
+        <v>39</v>
+      </c>
+      <c r="C477" t="str">
+        <v>RM205.00</v>
+      </c>
+      <c r="D477" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="str">
+        <v>[LATEST STOCK]Vitahealth Grape Seed (90's x 3) EXP: 9/2022</v>
+      </c>
+      <c r="B478" t="str">
+        <v>15</v>
+      </c>
+      <c r="C478" t="str">
+        <v>RM159.90</v>
+      </c>
+      <c r="D478" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="str">
+        <v>[WHOLESALE PRICE]IMPORTED Goli Apple Cider Vinegar Gummy Vitamins (Organic, Vegan, Gluten-free, Non-Gmo) for Weight Loss</v>
+      </c>
+      <c r="B479" t="str">
+        <v>10</v>
+      </c>
+      <c r="C479" t="str">
+        <v>RM76.00</v>
+      </c>
+      <c r="D479" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="str">
+        <v>HIMAYA HEADLOOP hijab Premium Medical Face Mask LOVE LATTE 50pcs</v>
+      </c>
+      <c r="B480" t="str">
+        <v>170</v>
+      </c>
+      <c r="C480" t="str">
+        <v>RM34.90</v>
+      </c>
+      <c r="D480" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="str">
+        <v>[NEW PACKING] OPCEDEN Bilberry Eyebright Plus (60 Veg Capsules x 300mg)/ 60sx2</v>
+      </c>
+      <c r="B481" t="str">
+        <v>4</v>
+      </c>
+      <c r="C481" t="str">
+        <v>RM112.89</v>
+      </c>
+      <c r="D481" t="str">
+        <v>60sx2</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="str">
+        <v>[NEW STOCK][FAST SHIPPING]CLEAROGOUT 30 + 5 SACHETS</v>
+      </c>
+      <c r="B482" t="str">
+        <v>12</v>
+      </c>
+      <c r="C482" t="str">
+        <v>RM34.49</v>
+      </c>
+      <c r="D482" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="str">
+        <v>GMATE SALIVA TEST KIT READY STOCK!! [LUCKY PHARMACY][MDA/KKM Approved][WHOLESALE PM] Gmate Saliva Antigen Test Kit 1's/Gmate Saliva Antigen Home Kit 1s [READY STOCK SHIP IN 1 DAY] COVIID19 HOME TEST KIT</v>
+      </c>
+      <c r="B483" t="str">
+        <v>1202</v>
+      </c>
+      <c r="C483" t="str">
+        <v>RM14.78</v>
+      </c>
+      <c r="D483" t="str">
+        <v>1s</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="str">
+        <v>GMATE SALIVA TEST KIT READY STOCK!! [LUCKY PHARMACY][MDA/KKM Approved][WHOLESALE PM] Gmate Saliva Antigen Test Kit 1's/Gmate Saliva Antigen Home Kit 1s [READY STOCK SHIP IN 1 DAY] COVIID19 HOME TEST KIT</v>
+      </c>
+      <c r="B484" t="str">
+        <v>1202</v>
+      </c>
+      <c r="C484" t="str">
+        <v>RM207.60</v>
+      </c>
+      <c r="D484" t="str">
+        <v>6s</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="str">
+        <v>Duoderm Hydroactive Gel 30gm 3s</v>
+      </c>
+      <c r="B485" t="str">
+        <v>23</v>
+      </c>
+      <c r="C485" t="str">
+        <v>RM55.70</v>
+      </c>
+      <c r="D485" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="str">
+        <v>LUCKY PHARMACY Gmate saliva antigen test kit 6s (READY STOCK) Home Test Kit</v>
+      </c>
+      <c r="B486" t="str">
+        <v>15</v>
+      </c>
+      <c r="C486" t="str">
+        <v>RM107.40</v>
+      </c>
+      <c r="D486" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="str">
+        <v>[100G, ANTI-ACNE] Jf Skin Solutions Anti-Acne Sulfur Soap Fungal Infections</v>
+      </c>
+      <c r="B487" t="str">
+        <v>139</v>
+      </c>
+      <c r="C487" t="str">
+        <v>RM6.79</v>
+      </c>
+      <c r="D487" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="str">
+        <v>[LUCKY PHARMACY] NEUTROVIS GALAXY SERIES cosmic marble/ twilight/ galactic star premium medical face mask earloop 50pcs/box</v>
+      </c>
+      <c r="B488" t="str">
+        <v>19</v>
+      </c>
+      <c r="C488" t="str">
+        <v>RM29.99</v>
+      </c>
+      <c r="D488" t="str">
+        <v>cosmic marble</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="str">
+        <v>[LUCKY PHARMACY] NEUTROVIS GALAXY SERIES cosmic marble/ twilight/ galactic star premium medical face mask earloop 50pcs/box</v>
+      </c>
+      <c r="B489" t="str">
+        <v>19</v>
+      </c>
+      <c r="C489" t="str">
+        <v>RM29.99</v>
+      </c>
+      <c r="D489" t="str">
+        <v>galactic series</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="str">
+        <v>[LUCKY PHARMACY] NEUTROVIS GALAXY SERIES cosmic marble/ twilight/ galactic star premium medical face mask earloop 50pcs/box</v>
+      </c>
+      <c r="B490" t="str">
+        <v>19</v>
+      </c>
+      <c r="C490" t="str">
+        <v>RM29.99</v>
+      </c>
+      <c r="D490" t="str">
+        <v>twilight</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="str">
+        <v>[EXP 2023]timo super fiber 30+3pack.free1multipurpose tumbler</v>
+      </c>
+      <c r="B491" t="str">
+        <v>49</v>
+      </c>
+      <c r="C491" t="str">
+        <v>RM130.00</v>
+      </c>
+      <c r="D491" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="str">
+        <v>[NEW STOCK] Country Farm Organics Virgin Coconut Oil 1000ml +100ML [2 set]</v>
+      </c>
+      <c r="B492" t="str">
+        <v>4</v>
+      </c>
+      <c r="C492" t="str">
+        <v>RM115.00</v>
+      </c>
+      <c r="D492" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="str">
+        <v>[READY STOCK] HIMAYA Headloop Hijab Premium medical face mask SOFT OLIVE ultra soft for sensitive skin</v>
+      </c>
+      <c r="B493" t="str">
+        <v>83</v>
+      </c>
+      <c r="C493" t="str">
+        <v>RM29.99</v>
+      </c>
+      <c r="D493" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="str">
+        <v>[READY STOCK] Neilmed Sinus Rinse Premixed Sachets 120S</v>
+      </c>
+      <c r="B494" t="str">
+        <v>7</v>
+      </c>
+      <c r="C494" t="str">
+        <v>RM68.90</v>
+      </c>
+      <c r="D494" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="str">
+        <v>[MDA REGISTERED] OXITECH FINGERTIP PULSE OXIMETER / AEON OXIMETER [READY STOCK] 100% ORIGINAL</v>
+      </c>
+      <c r="B495" t="str">
+        <v>37</v>
+      </c>
+      <c r="C495" t="str">
+        <v>RM88.97</v>
+      </c>
+      <c r="D495" t="str">
+        <v>OXITECH</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="str">
+        <v>[MDA REGISTERED] OXITECH FINGERTIP PULSE OXIMETER / AEON OXIMETER [READY STOCK] 100% ORIGINAL</v>
+      </c>
+      <c r="B496" t="str">
+        <v>37</v>
+      </c>
+      <c r="C496" t="str">
+        <v>RM75.00</v>
+      </c>
+      <c r="D496" t="str">
+        <v>AEON OXIMETER</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="str">
+        <v>[READY STOCK] Neilmed Sinus Rinse Starter Kit 1bottle + 10 SACHETS</v>
+      </c>
+      <c r="B497" t="str">
+        <v>7</v>
+      </c>
+      <c r="C497" t="str">
+        <v>RM31.70</v>
+      </c>
+      <c r="D497" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="str">
+        <v>ClearBlue Easy Pregnancy Test (99% accuracy)</v>
+      </c>
+      <c r="B498" t="str">
+        <v>9</v>
+      </c>
+      <c r="C498" t="str">
+        <v>RM19.19</v>
+      </c>
+      <c r="D498" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="str">
+        <v>READY STOCK!! WARTNER WART REMOVER Cryotherapy 12 TREATMETNS</v>
+      </c>
+      <c r="B499" t="str">
+        <v>9</v>
+      </c>
+      <c r="C499" t="str">
+        <v>RM68.90</v>
+      </c>
+      <c r="D499" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="str">
+        <v>[LAVENDER EMBOSSED] CROSS PROTECTION RES-Q 300 PLUS ASTM LEVEL 2 MEDICAL FACE MASK 50PCS EARLOOP</v>
+      </c>
+      <c r="B500" t="str">
+        <v>48</v>
+      </c>
+      <c r="C500" t="str">
+        <v>RM50.00</v>
+      </c>
+      <c r="D500" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="str">
+        <v>[WHITE EMBOSSED] CROSS PROTECTION RES-Q 300 PLUS ASTM LEVEL 2 MEDICAL FACE MASK 50PCS EARLOOP</v>
+      </c>
+      <c r="B501" t="str">
+        <v>56</v>
+      </c>
+      <c r="C501" t="str">
+        <v>RM35.00</v>
+      </c>
+      <c r="D501" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="str">
+        <v>[FAST SHIPPING] Vitamode CalciVit D3 Plus K2 60’S</v>
+      </c>
+      <c r="B502" t="str">
+        <v>11</v>
+      </c>
+      <c r="C502" t="str">
+        <v>RM50.99</v>
+      </c>
+      <c r="D502" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="str">
+        <v>[30s ONLY] VITAMODE Coq10 ubiquinol 100mg/ A'SOLUT coq10 ubiquinol 100mg 30s</v>
+      </c>
+      <c r="B503" t="str">
+        <v>24</v>
+      </c>
+      <c r="C503" t="str">
+        <v>RM95.50</v>
+      </c>
+      <c r="D503" t="str">
+        <v>vitamode coq10 30s</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="str">
+        <v>[30s ONLY] VITAMODE Coq10 ubiquinol 100mg/ A'SOLUT coq10 ubiquinol 100mg 30s</v>
+      </c>
+      <c r="B504" t="str">
+        <v>24</v>
+      </c>
+      <c r="C504" t="str">
+        <v>RM81.90</v>
+      </c>
+      <c r="D504" t="str">
+        <v>a'solute coq10 30s</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="str">
+        <v>[FREE 50 FACE MASK!!]Tigerus Tiger Milk Mushroom Sclerotia 300mg (60s)[EXP 3/2023]</v>
+      </c>
+      <c r="B505" t="str">
+        <v>13</v>
+      </c>
+      <c r="C505" t="str">
+        <v>RM148.00</v>
+      </c>
+      <c r="D505" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="str">
+        <v>[BABYGREEN EMBOSSED] CROSS PROTECTION RES-Q 300 PLUS ASTM LEVEL 2 MEDICAL FACE MASK 50PCS EARLOOP</v>
+      </c>
+      <c r="B506" t="str">
+        <v>97</v>
+      </c>
+      <c r="C506" t="str">
+        <v>RM50.00</v>
+      </c>
+      <c r="D506" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="str">
+        <v>[BLUE SENSITIVE EMBOSSED] CROSS PROTECTION RES-Q 300 PLUS ASTM LEVEL 2 MEDICAL FACE MASK 50PCS EAR LOOP</v>
+      </c>
+      <c r="B507" t="str">
+        <v>15</v>
+      </c>
+      <c r="C507" t="str">
+        <v>RM34.85</v>
+      </c>
+      <c r="D507" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="str">
+        <v>[BLUE EMBOSSED] CROSS PROTECTION RES-Q 300 PLUS ASTM LEVEL 2 50PCS EAR LOOP</v>
+      </c>
+      <c r="B508" t="str">
+        <v>69</v>
+      </c>
+      <c r="C508" t="str">
+        <v>RM50.00</v>
+      </c>
+      <c r="D508" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="str">
+        <v>[FAST SHIPMENT]MEGALIVE GINGKO BACOPA PLUS 2X45'S free 15s</v>
+      </c>
+      <c r="B509" t="str">
+        <v>1</v>
+      </c>
+      <c r="C509" t="str">
+        <v>RM166.40</v>
+      </c>
+      <c r="D509" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="str">
+        <v>Berocca Effervescent Orange (15'S)</v>
+      </c>
+      <c r="B510" t="str">
+        <v>1</v>
+      </c>
+      <c r="C510" t="str">
+        <v>RM26.99</v>
+      </c>
+      <c r="D510" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="str">
+        <v>[FREE SHAKER ONLY]Duolacto Synbiotic Multiblends 20B CFU 15's[EXP 6/2022]</v>
+      </c>
+      <c r="B511" t="str">
+        <v>30</v>
+      </c>
+      <c r="C511" t="str">
+        <v>RM73.00</v>
+      </c>
+      <c r="D511" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="str">
+        <v>[JUST ARRIVED STOCK]Natures Way Vitamin C 500mg - 200 tablets</v>
+      </c>
+      <c r="B512" t="str">
+        <v>30</v>
+      </c>
+      <c r="C512" t="str">
+        <v>RM52.90</v>
+      </c>
+      <c r="D512" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="str">
+        <v>NEUTROVIS PREMIUM SUNSET ORANGE 3ply medical mask</v>
+      </c>
+      <c r="B513" t="str">
+        <v>151</v>
+      </c>
+      <c r="C513" t="str">
+        <v>RM32.90</v>
+      </c>
+      <c r="D513" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="str">
+        <v>[PINK EMBOSSED] CROSS PROTECTION RES-Q 300 PLUS ASTM LEVEL 2 MEDICAL FACE MAKS 50PCS EARLOOP</v>
+      </c>
+      <c r="B514" t="str">
+        <v>42</v>
+      </c>
+      <c r="C514" t="str">
+        <v>RM50.00</v>
+      </c>
+      <c r="D514" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="str">
+        <v>Superb quality/ Disposable Face Mask/ NEUTROVIS FACE MASK (disposable face mask 50s'/box)</v>
+      </c>
+      <c r="B515" t="str">
+        <v>33</v>
+      </c>
+      <c r="C515" t="str">
+        <v>RM18.50</v>
+      </c>
+      <c r="D515" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="str">
+        <v>[READY STOCK] COUNTRY FARM EXTRA VIRGIN COCONUT OIL (1LITRE +100ml]</v>
+      </c>
+      <c r="B516" t="str">
+        <v>28</v>
+      </c>
+      <c r="C516" t="str">
+        <v>RM69.90</v>
+      </c>
+      <c r="D516" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="str">
+        <v>Thomson Osteopro Adjunctive Theraphy 120s x2 + 60s free</v>
+      </c>
+      <c r="B517" t="str">
+        <v>17</v>
+      </c>
+      <c r="C517" t="str">
+        <v>RM310.00</v>
+      </c>
+      <c r="D517" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="str">
+        <v>NEW STOCK! Vitamode Asta-I-Care Capsule 30'S[EXP 11/2021]</v>
+      </c>
+      <c r="B518" t="str">
+        <v>3</v>
+      </c>
+      <c r="C518" t="str">
+        <v>RM66.50</v>
+      </c>
+      <c r="D518" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="str">
+        <v>[FAST SHIPPING]Tribestan 250mg 60s Dietary Supplement for Men[EXP 8/21]</v>
+      </c>
+      <c r="B519" t="str">
+        <v>7</v>
+      </c>
+      <c r="C519" t="str">
+        <v>RM154.90</v>
+      </c>
+      <c r="D519" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="str">
+        <v>VITAHEALTH GRAPE SEED 90S</v>
+      </c>
+      <c r="B520" t="str">
+        <v>3</v>
+      </c>
+      <c r="C520" t="str">
+        <v>RM42.49</v>
+      </c>
+      <c r="D520" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="str">
+        <v>Viartril S POWDER Glucosamine 1500mg 30’s</v>
+      </c>
+      <c r="B521" t="str">
+        <v>17</v>
+      </c>
+      <c r="C521" t="str">
+        <v>RM118.00</v>
+      </c>
+      <c r="D521" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="str">
+        <v>[FAST SHIPMENT] MEGALIVE GINVITON (2X60'S FOC 15'S)</v>
+      </c>
+      <c r="B522" t="str">
+        <v>1</v>
+      </c>
+      <c r="C522" t="str">
+        <v>RM154.50</v>
+      </c>
+      <c r="D522" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="str">
+        <v>RYCOM new generation NASAL ASPIRATOR . Baby Nasal cleaner, LIMITED TIME PROMO</v>
+      </c>
+      <c r="B523" t="str">
+        <v>25</v>
+      </c>
+      <c r="C523" t="str">
+        <v>RM45.88</v>
+      </c>
+      <c r="D523" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="str">
+        <v>READY STOCK RAINFOREST HERBS KETOCREME CHOCOLATE 400GM ketogenic diet or drink</v>
+      </c>
+      <c r="B524" t="str">
+        <v>9</v>
+      </c>
+      <c r="C524" t="str">
+        <v>RM73.99</v>
+      </c>
+      <c r="D524" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="str">
+        <v>VERYGOOD V3 Organic Oat BETA GLUCAN Powder (750gm x 2 FREE 500gm) PROMO PACK free 500GM barley &amp; shaker</v>
+      </c>
+      <c r="B525" t="str">
+        <v>3</v>
+      </c>
+      <c r="C525" t="str">
+        <v>RM135.90</v>
+      </c>
+      <c r="D525" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="str">
+        <v>[fast shipping]Hexbio Granule Probiotic 3g x 10 sachets (Exp 04/2022)</v>
+      </c>
+      <c r="B526" t="str">
+        <v>11</v>
+      </c>
+      <c r="C526" t="str">
+        <v>RM25.99</v>
+      </c>
+      <c r="D526" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="str">
+        <v>[2 x 30s] VITAMODE Coq10 ubiquinol 100mg</v>
+      </c>
+      <c r="B527" t="str">
+        <v>71</v>
+      </c>
+      <c r="C527" t="str">
+        <v>RM190.99</v>
+      </c>
+      <c r="D527" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="str">
+        <v>[LUKCY PHARMACY] NOVA Activmax 700g Low Glycemic Index 低升糖指数 营养代餐 ( Vanilla ) EXP 10/2023</v>
+      </c>
+      <c r="B528" t="str">
+        <v>No</v>
+      </c>
+      <c r="C528" t="str">
+        <v>RM60.99</v>
+      </c>
+      <c r="D528" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="str">
+        <v>[READY STOCK] CHAMPS Vitamin C 250mg + Zinc Effervescent (ORANGE0 15'S[EXP: 6/21]</v>
+      </c>
+      <c r="B529" t="str">
+        <v>7</v>
+      </c>
+      <c r="C529" t="str">
+        <v>RM16.00</v>
+      </c>
+      <c r="D529" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="str">
+        <v>[FAST SHIPMENT] Megalive Flora Kids 2x30's FOC 5's</v>
+      </c>
+      <c r="B530" t="str">
+        <v>No</v>
+      </c>
+      <c r="C530" t="str">
+        <v>RM163.00</v>
+      </c>
+      <c r="D530" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="str">
+        <v>[NEW STOCK]Live Well Ostesamin Plus Chondroitin 3 x 100S + Free MSM 150s (Exp: 07/2022)</v>
+      </c>
+      <c r="B531" t="str">
+        <v>57</v>
+      </c>
+      <c r="C531" t="str">
+        <v>RM142.90</v>
+      </c>
+      <c r="D531" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="str">
+        <v>RAINFOREST HERBS KETOCREME COLLAGEN 400GM ketogenic diet</v>
+      </c>
+      <c r="B532" t="str">
+        <v>4</v>
+      </c>
+      <c r="C532" t="str">
+        <v>RM145.00</v>
+      </c>
+      <c r="D532" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="str">
+        <v>VITAHEALTH VitaEPA Double Strength Fish oil 120s</v>
+      </c>
+      <c r="B533" t="str">
+        <v>1</v>
+      </c>
+      <c r="C533" t="str">
+        <v>RM64.99</v>
+      </c>
+      <c r="D533" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="str">
+        <v>SWISSMED Enzo GS 430mg 60CAPSULES/ 60sx2</v>
+      </c>
+      <c r="B534" t="str">
+        <v>4</v>
+      </c>
+      <c r="C534" t="str">
+        <v>RM250.00</v>
+      </c>
+      <c r="D534" t="str">
+        <v>60s</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="str">
+        <v>Bio-D SleepTite Bed Bug and Dust Mite Control Spray 300ml (NATURAL)</v>
+      </c>
+      <c r="B535" t="str">
+        <v>5</v>
+      </c>
+      <c r="C535" t="str">
+        <v>RM39.90</v>
+      </c>
+      <c r="D535" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="str">
+        <v>Suu Balm™ Cooling Itch Relief Facial Moisturiser 50ML [suitable for sensitive skin]</v>
+      </c>
+      <c r="B536" t="str">
+        <v>No</v>
+      </c>
+      <c r="C536" t="str">
+        <v>RM89.90</v>
+      </c>
+      <c r="D536" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="str">
+        <v>[FAST SHIPMENT]MEGALIVE GRAPE SEED PLUS (3X10'S+10'S)</v>
+      </c>
+      <c r="B537" t="str">
+        <v>2</v>
+      </c>
+      <c r="C537" t="str">
+        <v>RM120.50</v>
+      </c>
+      <c r="D537" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="str">
+        <v>Sebamed Cleansing Bar 100g</v>
+      </c>
+      <c r="B538" t="str">
+        <v>6</v>
+      </c>
+      <c r="C538" t="str">
+        <v>RM8.80</v>
+      </c>
+      <c r="D538" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="str">
+        <v>AROS Hot Water Bag With Cover (2Litre) Assorted design</v>
+      </c>
+      <c r="B539" t="str">
+        <v>3</v>
+      </c>
+      <c r="C539" t="str">
+        <v>RM8.29</v>
+      </c>
+      <c r="D539" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="str">
+        <v>Live Well Mecomin 500mcg[ 90s +90s+60s][exp:12/22]</v>
+      </c>
+      <c r="B540" t="str">
+        <v>53</v>
+      </c>
+      <c r="C540" t="str">
+        <v>RM99.90</v>
+      </c>
+      <c r="D540" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="str">
+        <v>PK24 Natural 24-Hour Vaginal Advanced Tightening Creme 5ML</v>
+      </c>
+      <c r="B541" t="str">
+        <v>11</v>
+      </c>
+      <c r="C541" t="str">
+        <v>RM99.99</v>
+      </c>
+      <c r="D541" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="str">
+        <v>Oilum Moisturizing Soap With Collagen 85g (for Dry Skin)</v>
+      </c>
+      <c r="B542" t="str">
+        <v>46</v>
+      </c>
+      <c r="C542" t="str">
+        <v>RM11.90</v>
+      </c>
+      <c r="D542" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="str">
+        <v>JF Skin Solutions Anti-Acne face and Body Care Soap. JF SULFUR 10%[20g]</v>
+      </c>
+      <c r="B543" t="str">
+        <v>92</v>
+      </c>
+      <c r="C543" t="str">
+        <v>RM1.08</v>
+      </c>
+      <c r="D543" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="str">
+        <v>[LUCKY PHARMACY] 100% ORIGINAL WITH LOGO EMBOSSED ] NEUTROVIS premium medical face mask airy secure ombre series blue aurora [SUNGLOW/MOJITO MINT/BLUE AURORA] 50S</v>
+      </c>
+      <c r="B544" t="str">
+        <v>47</v>
+      </c>
+      <c r="C544" t="str">
+        <v>RM29.99</v>
+      </c>
+      <c r="D544" t="str">
+        <v>BLUE AURORA</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="str">
+        <v>[LUCKY PHARMACY] 100% ORIGINAL WITH LOGO EMBOSSED ] NEUTROVIS premium medical face mask airy secure ombre series blue aurora [SUNGLOW/MOJITO MINT/BLUE AURORA] 50S</v>
+      </c>
+      <c r="B545" t="str">
+        <v>47</v>
+      </c>
+      <c r="C545" t="str">
+        <v>RM29.00</v>
+      </c>
+      <c r="D545" t="str">
+        <v>MOJITO MINT</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="str">
+        <v>[LUCKY PHARMACY] 100% ORIGINAL WITH LOGO EMBOSSED ] NEUTROVIS premium medical face mask airy secure ombre series blue aurora [SUNGLOW/MOJITO MINT/BLUE AURORA] 50S</v>
+      </c>
+      <c r="B546" t="str">
+        <v>47</v>
+      </c>
+      <c r="C546" t="str">
+        <v>RM32.87</v>
+      </c>
+      <c r="D546" t="str">
+        <v>SUNGLOW</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="str">
+        <v>Abbott Surbex zinc b plus twin pack 60s x2</v>
+      </c>
+      <c r="B547" t="str">
+        <v>3</v>
+      </c>
+      <c r="C547" t="str">
+        <v>RM99.99</v>
+      </c>
+      <c r="D547" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="str">
+        <v>[LATEST STOCK]VITAHEALTH Vita Bilberry Plus 60's x 2[ EXP 20/11/22]</v>
+      </c>
+      <c r="B548" t="str">
+        <v>7</v>
+      </c>
+      <c r="C548" t="str">
+        <v>RM159.90</v>
+      </c>
+      <c r="D548" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="str">
+        <v>[T/P PROMO PACK] Megalive Nj Flex 2 X 20 sachets with</v>
+      </c>
+      <c r="B549" t="str">
+        <v>4</v>
+      </c>
+      <c r="C549" t="str">
+        <v>RM163.00</v>
+      </c>
+      <c r="D549" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="str">
+        <v>KIDS!! NeilMed Sinus Rinse Premixed Kids Packets 120's (Paediatric)</v>
+      </c>
+      <c r="B550" t="str">
+        <v>2</v>
+      </c>
+      <c r="C550" t="str">
+        <v>RM66.98</v>
+      </c>
+      <c r="D550" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="str">
+        <v>[WHOLESALE PRICE!!]Nova Hepar-P Forte/ HEPAR P FORTE 500mg [30'S] exp 1/2023</v>
+      </c>
+      <c r="B551" t="str">
+        <v>14</v>
+      </c>
+      <c r="C551" t="str">
+        <v>RM108.00</v>
+      </c>
+      <c r="D551" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="str">
+        <v>[FAST SHIPMENT]Megalive Carotenoid Complex Plus 30's x 2</v>
+      </c>
+      <c r="B552" t="str">
+        <v>2</v>
+      </c>
+      <c r="C552" t="str">
+        <v>RM101.80</v>
+      </c>
+      <c r="D552" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="str">
+        <v>[READY STOCK] NEILMED KIDS STARTER KIT PREMIXED PACKETS 30'S</v>
+      </c>
+      <c r="B553" t="str">
+        <v>1</v>
+      </c>
+      <c r="C553" t="str">
+        <v>RM43.80</v>
+      </c>
+      <c r="D553" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="str">
+        <v>[ FAST SHIPMENT!]Megalive Omega fish oil 600/300 [Expiry05/2024]</v>
+      </c>
+      <c r="B554" t="str">
+        <v>9</v>
+      </c>
+      <c r="C554" t="str">
+        <v>RM253.10</v>
+      </c>
+      <c r="D554" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="str">
+        <v>UPHAVIT SYRUP 120ML + FREE syringe</v>
+      </c>
+      <c r="B555" t="str">
+        <v>3</v>
+      </c>
+      <c r="C555" t="str">
+        <v>RM4.94</v>
+      </c>
+      <c r="D555" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="str">
+        <v>[Fast delivery]Clearblue Digital Pregnancy Test With Conception Indicator (1's)</v>
+      </c>
+      <c r="B556" t="str">
+        <v>No</v>
+      </c>
+      <c r="C556" t="str">
+        <v>RM39.57</v>
+      </c>
+      <c r="D556" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="str">
+        <v>CRITICARE OPTIMAXE LITE MILK 400G VANILLA [EXP 11/21]</v>
+      </c>
+      <c r="B557" t="str">
+        <v>2</v>
+      </c>
+      <c r="C557" t="str">
+        <v>RM35.90</v>
+      </c>
+      <c r="D557" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="str">
+        <v>Surgical spirit 4 Litres (70% conc.) Hand sanitizer hand sanitizer</v>
+      </c>
+      <c r="B558" t="str">
+        <v>19</v>
+      </c>
+      <c r="C558" t="str">
+        <v>RM61.98</v>
+      </c>
+      <c r="D558" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="str">
+        <v>[FREE HAND SANITIZER][NEW STOCK]Opceden Ocumin Areds 6x10s</v>
+      </c>
+      <c r="B559" t="str">
+        <v>1</v>
+      </c>
+      <c r="C559" t="str">
+        <v>RM159.00</v>
+      </c>
+      <c r="D559" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="str">
+        <v>[FAST SHIPMENT]MEGALIVE BREVCARE 475MG 2 X 30 VEGE CAPSULES FREE 15 VEGE CAPSULES</v>
+      </c>
+      <c r="B560" t="str">
+        <v>No</v>
+      </c>
+      <c r="C560" t="str">
+        <v>RM206.50</v>
+      </c>
+      <c r="D560" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="str">
+        <v>LIMITED TIME PROMO! VITAMODE JointCare Plus Powder 30s</v>
+      </c>
+      <c r="B561" t="str">
+        <v>2</v>
+      </c>
+      <c r="C561" t="str">
+        <v>RM121.00</v>
+      </c>
+      <c r="D561" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="str">
+        <v>AKUARIZ® GAMACAP Sea Cucumber (GAMAT) Extract (67mg) 60s</v>
+      </c>
+      <c r="B562" t="str">
+        <v>1</v>
+      </c>
+      <c r="C562" t="str">
+        <v>RM83.00</v>
+      </c>
+      <c r="D562" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="str">
+        <v>FLANIL ANALGESIC CREAM 30G LUCKY PHARMACY</v>
+      </c>
+      <c r="B563" t="str">
+        <v>2</v>
+      </c>
+      <c r="C563" t="str">
+        <v>RM7.40</v>
+      </c>
+      <c r="D563" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="str">
+        <v>Sebamed Cleansing Bar 150g</v>
+      </c>
+      <c r="B564" t="str">
+        <v>5</v>
+      </c>
+      <c r="C564" t="str">
+        <v>RM11.50</v>
+      </c>
+      <c r="D564" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="str">
+        <v>[FAST DELIVERY] Vitamode Mecobin Plus ALA Capsule (6x10s)</v>
+      </c>
+      <c r="B565" t="str">
+        <v>10</v>
+      </c>
+      <c r="C565" t="str">
+        <v>RM60.00</v>
+      </c>
+      <c r="D565" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="str">
+        <v>ClearBlue Digital Ovulation Test 10 Tests</v>
+      </c>
+      <c r="B566" t="str">
+        <v>2</v>
+      </c>
+      <c r="C566" t="str">
+        <v>RM115.90</v>
+      </c>
+      <c r="D566" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="str">
+        <v>[NEW STOCK]Vitamode Luric Capsule 30s (Exp 07/2021)</v>
+      </c>
+      <c r="B567" t="str">
+        <v>3</v>
+      </c>
+      <c r="C567" t="str">
+        <v>RM55.50</v>
+      </c>
+      <c r="D567" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="str">
+        <v>Vitamode Lyclear (Delice) Natural Herbal Hair Wash 40ml</v>
+      </c>
+      <c r="B568" t="str">
+        <v>No</v>
+      </c>
+      <c r="C568" t="str">
+        <v>RM15.89</v>
+      </c>
+      <c r="D568" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED ] NEUTROVIS KID MEDICAL/ PREMIUM MEDICAL FACE MASK EARLOOP 50PCS</v>
+      </c>
+      <c r="B569" t="str">
+        <v>85</v>
+      </c>
+      <c r="C569" t="str">
+        <v>RM26.79</v>
+      </c>
+      <c r="D569" t="str">
+        <v>PREMIUM PINKBABY 50s</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED ] NEUTROVIS KID MEDICAL/ PREMIUM MEDICAL FACE MASK EARLOOP 50PCS</v>
+      </c>
+      <c r="B570" t="str">
+        <v>85</v>
+      </c>
+      <c r="C570" t="str">
+        <v>RM26.79</v>
+      </c>
+      <c r="D570" t="str">
+        <v>PREMIUM Lavender 50s</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED ] NEUTROVIS KID MEDICAL/ PREMIUM MEDICAL FACE MASK EARLOOP 50PCS</v>
+      </c>
+      <c r="B571" t="str">
+        <v>85</v>
+      </c>
+      <c r="C571" t="str">
+        <v>RM26.79</v>
+      </c>
+      <c r="D571" t="str">
+        <v>PREMIUM YELLOW 50s</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED ] NEUTROVIS KID MEDICAL/ PREMIUM MEDICAL FACE MASK EARLOOP 50PCS</v>
+      </c>
+      <c r="B572" t="str">
+        <v>85</v>
+      </c>
+      <c r="C572" t="str">
+        <v>RM26.79</v>
+      </c>
+      <c r="D572" t="str">
+        <v>PREMIUM WHITE 50s</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED ] NEUTROVIS KID MEDICAL/ PREMIUM MEDICAL FACE MASK EARLOOP 50PCS</v>
+      </c>
+      <c r="B573" t="str">
+        <v>85</v>
+      </c>
+      <c r="C573" t="str">
+        <v>RM22.80</v>
+      </c>
+      <c r="D573" t="str">
+        <v>BASIC SKY BLUE 50s</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED ] NEUTROVIS KID MEDICAL/ PREMIUM MEDICAL FACE MASK EARLOOP 50PCS</v>
+      </c>
+      <c r="B574" t="str">
+        <v>85</v>
+      </c>
+      <c r="C574" t="str">
+        <v>RM30.79</v>
+      </c>
+      <c r="D574" t="str">
+        <v>DENIM 4PLY KID 50s</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED ] NEUTROVIS KID MEDICAL/ PREMIUM MEDICAL FACE MASK EARLOOP 50PCS</v>
+      </c>
+      <c r="B575" t="str">
+        <v>85</v>
+      </c>
+      <c r="C575" t="str">
+        <v>RM29.79</v>
+      </c>
+      <c r="D575" t="str">
+        <v>BLACK 4ply kid 50s</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED ] NEUTROVIS KID MEDICAL/ PREMIUM MEDICAL FACE MASK EARLOOP 50PCS</v>
+      </c>
+      <c r="B576" t="str">
+        <v>85</v>
+      </c>
+      <c r="C576" t="str">
+        <v>RM29.79</v>
+      </c>
+      <c r="D576" t="str">
+        <v>hunter 4ply kid 50s</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED ] NEUTROVIS KID MEDICAL/ PREMIUM MEDICAL FACE MASK EARLOOP 50PCS</v>
+      </c>
+      <c r="B577" t="str">
+        <v>85</v>
+      </c>
+      <c r="C577" t="str">
+        <v>RM28.90</v>
+      </c>
+      <c r="D577" t="str">
+        <v>KF94 BUMBLEBEE 20s</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED ] NEUTROVIS KID MEDICAL/ PREMIUM MEDICAL FACE MASK EARLOOP 50PCS</v>
+      </c>
+      <c r="B578" t="str">
+        <v>85</v>
+      </c>
+      <c r="C578" t="str">
+        <v>RM28.90</v>
+      </c>
+      <c r="D578" t="str">
+        <v>KF94 SAKURA 20s</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED ] NEUTROVIS KID MEDICAL/ PREMIUM MEDICAL FACE MASK EARLOOP 50PCS</v>
+      </c>
+      <c r="B579" t="str">
+        <v>85</v>
+      </c>
+      <c r="C579" t="str">
+        <v>RM29.79</v>
+      </c>
+      <c r="D579" t="str">
+        <v>FEATHER 4PLY KID 50s</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED ] NEUTROVIS KID MEDICAL/ PREMIUM MEDICAL FACE MASK EARLOOP 50PCS</v>
+      </c>
+      <c r="B580" t="str">
+        <v>85</v>
+      </c>
+      <c r="C580" t="str">
+        <v>RM29.79</v>
+      </c>
+      <c r="D580" t="str">
+        <v>MERLOT 4 PLY KID 50s</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED ] NEUTROVIS KID MEDICAL/ PREMIUM MEDICAL FACE MASK EARLOOP 50PCS</v>
+      </c>
+      <c r="B581" t="str">
+        <v>85</v>
+      </c>
+      <c r="C581" t="str">
+        <v>RM29.79</v>
+      </c>
+      <c r="D581" t="str">
+        <v>SAGE 4PLY KID 50s</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED ] NEUTROVIS KID MEDICAL/ PREMIUM MEDICAL FACE MASK EARLOOP 50PCS</v>
+      </c>
+      <c r="B582" t="str">
+        <v>85</v>
+      </c>
+      <c r="C582" t="str">
+        <v>RM29.79</v>
+      </c>
+      <c r="D582" t="str">
+        <v>MISTY BLUE 4 KID 50s</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="str">
+        <v>[LUCKY PHARMACY]100% ORIGINAL WITH LOGO EMBOSSED ] NEUTROVIS KID MEDICAL/ PREMIUM MEDICAL FACE MASK EARLOOP 50PCS</v>
+      </c>
+      <c r="B583" t="str">
+        <v>85</v>
+      </c>
+      <c r="C583" t="str">
+        <v>RM29.79</v>
+      </c>
+      <c r="D583" t="str">
+        <v>aimalseries 4ply 50s</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="str">
+        <v>Nature's Way Australian Manuka Honey MGO100 500g</v>
+      </c>
+      <c r="B584" t="str">
+        <v>2</v>
+      </c>
+      <c r="C584" t="str">
+        <v>RM95.00</v>
+      </c>
+      <c r="D584" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="str">
+        <v>[PACK WITH ICE PACKS &amp; THERMAL BAG] BioGaia Probiotics Drops/ BioGaia Chewable Tablets</v>
+      </c>
+      <c r="B585" t="str">
+        <v>2</v>
+      </c>
+      <c r="C585" t="str">
+        <v>RM160.00</v>
+      </c>
+      <c r="D585" t="str">
+        <v>Chewable tab 30SX2</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="str">
+        <v>Suu Balm™ Rapid Itch Relief Scalp Spray Moisturiser (40ml)</v>
+      </c>
+      <c r="B586" t="str">
+        <v>2</v>
+      </c>
+      <c r="C586" t="str">
+        <v>RM44.90</v>
+      </c>
+      <c r="D586" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="str">
+        <v>75% IPA/ Isopropyl Alcohol/ Rubbing Alcohol 5L/ sanitizer</v>
+      </c>
+      <c r="B587" t="str">
+        <v>62</v>
+      </c>
+      <c r="C587" t="str">
+        <v>RM65.00</v>
+      </c>
+      <c r="D587" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="str">
+        <v>Enercal Plus 900g X 6 TINS</v>
+      </c>
+      <c r="B588" t="str">
+        <v>1</v>
+      </c>
+      <c r="C588" t="str">
+        <v>RM384.99</v>
+      </c>
+      <c r="D588" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="str">
+        <v>[FAST SHIPMENT]MegaLive De-Gard (2x60s)</v>
+      </c>
+      <c r="B589" t="str">
+        <v>No</v>
+      </c>
+      <c r="C589" t="str">
+        <v>RM198.70</v>
+      </c>
+      <c r="D589" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="str">
+        <v>Oilum Moisturizing Soap With Collagen 20G</v>
+      </c>
+      <c r="B590" t="str">
+        <v>39</v>
+      </c>
+      <c r="C590" t="str">
+        <v>RM1.50</v>
+      </c>
+      <c r="D590" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="str">
         <v>LUCKY PHARMACY Portable Finger Oximeter Fingertip Pulsoximeter Medical Equipment With Sleep Monitor Heart Rate Spo2 PR Pulse Oximeter</v>
       </c>
-      <c r="B44" t="str">
+      <c r="B591" t="str">
         <v>9</v>
       </c>
-      <c r="C44" t="str">
+      <c r="C591" t="str">
+        <v>RM29.90</v>
+      </c>
+      <c r="D591" t="str">
+        <v>OXIMETER LK88</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="str">
+        <v>LUCKY PHARMACY Portable Finger Oximeter Fingertip Pulsoximeter Medical Equipment With Sleep Monitor Heart Rate Spo2 PR Pulse Oximeter</v>
+      </c>
+      <c r="B592" t="str">
+        <v>9</v>
+      </c>
+      <c r="C592" t="str">
         <v>RM59.90</v>
       </c>
-      <c r="D44" t="str">
+      <c r="D592" t="str">
+        <v>OXIMETER SMH01 BLACK</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="str">
+        <v>LUCKY PHARMACY Portable Finger Oximeter Fingertip Pulsoximeter Medical Equipment With Sleep Monitor Heart Rate Spo2 PR Pulse Oximeter</v>
+      </c>
+      <c r="B593" t="str">
+        <v>9</v>
+      </c>
+      <c r="C593" t="str">
+        <v>RM59.90</v>
+      </c>
+      <c r="D593" t="str">
+        <v>OXIMETER SMH01 WHITE</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="str">
+        <v>LUCKY PHARMACY Portable Finger Oximeter Fingertip Pulsoximeter Medical Equipment With Sleep Monitor Heart Rate Spo2 PR Pulse Oximeter</v>
+      </c>
+      <c r="B594" t="str">
+        <v>9</v>
+      </c>
+      <c r="C594" t="str">
+        <v>RM59.90</v>
+      </c>
+      <c r="D594" t="str">
         <v>OXIMETER SMH01 PINK</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="str">
+        <v>[FAST SHIPMENT]MegaLive Natto Plus 2 x 60's Free 30's</v>
+      </c>
+      <c r="B595" t="str">
+        <v>3</v>
+      </c>
+      <c r="C595" t="str">
+        <v>RM169.80</v>
+      </c>
+      <c r="D595" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="str">
+        <v>KORDEL'S Bio-Curmin 100mg (60's)</v>
+      </c>
+      <c r="B596" t="str">
+        <v>3</v>
+      </c>
+      <c r="C596" t="str">
+        <v>RM91.00</v>
+      </c>
+      <c r="D596" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="str">
+        <v>[NEW PACKING] Opceden Omega-3 Fish Oil 90s + 90s softgels 1000mg twin pack</v>
+      </c>
+      <c r="B597" t="str">
+        <v>8</v>
+      </c>
+      <c r="C597" t="str">
+        <v>RM161.99</v>
+      </c>
+      <c r="D597" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="str">
+        <v>[LUCKY PHARMACY] NEUTROVIS Premium Medical Face Mask Raya limited Edition series [JOM RAYA: blue moon, festive green] [GAYA RAYA: lilac dream, royal green]</v>
+      </c>
+      <c r="B598" t="str">
+        <v>4</v>
+      </c>
+      <c r="C598" t="str">
+        <v>RM26.90</v>
+      </c>
+      <c r="D598" t="str">
+        <v>GAYA RAYA</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="str">
+        <v>[LUCKY PHARMACY] NEUTROVIS Premium Medical Face Mask Raya limited Edition series [JOM RAYA: blue moon, festive green] [GAYA RAYA: lilac dream, royal green]</v>
+      </c>
+      <c r="B599" t="str">
+        <v>4</v>
+      </c>
+      <c r="C599" t="str">
+        <v>RM26.90</v>
+      </c>
+      <c r="D599" t="str">
+        <v>JOM RAYA</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="str">
+        <v>[FAST SHIPPING]Madaus Legalon 140Mg 100S Liver Detox Supplement[6/2022]</v>
+      </c>
+      <c r="B600" t="str">
+        <v>14</v>
+      </c>
+      <c r="C600" t="str">
+        <v>RM129.99</v>
+      </c>
+      <c r="D600" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="str">
+        <v>[FAST SHIPMENT][LAST 5 UNIT OFFER] VitaHealth Turmercare (30's) [EXP 10/2020]</v>
+      </c>
+      <c r="B601" t="str">
+        <v>1</v>
+      </c>
+      <c r="C601" t="str">
+        <v>RM52.00</v>
+      </c>
+      <c r="D601" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="str">
+        <v>[FAST DELIVERY]Vitamode Tumecap 280mg 3x10's (For Joint and Muscular Pain)</v>
+      </c>
+      <c r="B602" t="str">
+        <v>8</v>
+      </c>
+      <c r="C602" t="str">
+        <v>RM61.90</v>
+      </c>
+      <c r="D602" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="str">
+        <v>READY STOCK FAST SHIPPING ROUND BLOOD LANCETS 50PCS</v>
+      </c>
+      <c r="B603" t="str">
+        <v>7</v>
+      </c>
+      <c r="C603" t="str">
+        <v>RM5.89</v>
+      </c>
+      <c r="D603" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="str">
+        <v>One Touch Ultra Soft Lancets 25''s [NO BOX!]</v>
+      </c>
+      <c r="B604" t="str">
+        <v>8</v>
+      </c>
+      <c r="C604" t="str">
+        <v>RM8.99</v>
+      </c>
+      <c r="D604" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="str">
+        <v>LENNOX Firm Up Men + Collagen 50ml 16+4s</v>
+      </c>
+      <c r="B605" t="str">
+        <v>40</v>
+      </c>
+      <c r="C605" t="str">
+        <v>RM83.80</v>
+      </c>
+      <c r="D605" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="str">
+        <v>DONNA FORTE CAPSULE 500MG 30'S (EXP:09-2022)</v>
+      </c>
+      <c r="B606" t="str">
+        <v>1</v>
+      </c>
+      <c r="C606" t="str">
+        <v>RM9.50</v>
+      </c>
+      <c r="D606" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="str">
+        <v>ABBOTT FREESTYLE OPTIUM TEST STRIPS (BARCODE REMOVED) medical supplies blood glucose monitoring strips</v>
+      </c>
+      <c r="B607" t="str">
+        <v>6</v>
+      </c>
+      <c r="C607" t="str">
+        <v>RM67.00</v>
+      </c>
+      <c r="D607" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="str">
+        <v>[READY STOCK] MEGALIVE LAVIE SHEEP PLACENTA +COLLAGEN 2X45S+15S(EXP-11/21)</v>
+      </c>
+      <c r="B608" t="str">
+        <v>1</v>
+      </c>
+      <c r="C608" t="str">
+        <v>RM408.70</v>
+      </c>
+      <c r="D608" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="str">
+        <v>[FREE TRANSPARENT FACE MASK CASE]Dermatix Advance Scar Remover Gel with Vitamin C 15g [EXP 8/2021]</v>
+      </c>
+      <c r="B609" t="str">
+        <v>7</v>
+      </c>
+      <c r="C609" t="str">
+        <v>RM55.90</v>
+      </c>
+      <c r="D609" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="str">
+        <v>【NEW STOCK][FAST SHIPPING]CHEMIFREE/CHEMFREE ADVANCED SPOT Treatment 10ML</v>
+      </c>
+      <c r="B610" t="str">
+        <v>5</v>
+      </c>
+      <c r="C610" t="str">
+        <v>RM42.50</v>
+      </c>
+      <c r="D610" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="str">
+        <v>[NEW PACKING] Opceden Kalmzz capsule 400mg 30s</v>
+      </c>
+      <c r="B611" t="str">
+        <v>3</v>
+      </c>
+      <c r="C611" t="str">
+        <v>RM58.98</v>
+      </c>
+      <c r="D611" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="str">
+        <v>[NEW STOCK] MEGALIVE KIDS MULTIVITAMIN (2X60'S)</v>
+      </c>
+      <c r="B612" t="str">
+        <v>1</v>
+      </c>
+      <c r="C612" t="str">
+        <v>RM101.80</v>
+      </c>
+      <c r="D612" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="str">
+        <v>Megalive Nj Flex (4 Boxes ) Expiry 11/2021 FREE SHAKER</v>
+      </c>
+      <c r="B613" t="str">
+        <v>1</v>
+      </c>
+      <c r="C613" t="str">
+        <v>RM316.00</v>
+      </c>
+      <c r="D613" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="str">
+        <v>[FAST SHIPMENT]MEGALIVE EGGSHELL CALCIUM PLUS (2X45'S FOC15'S)</v>
+      </c>
+      <c r="B614" t="str">
+        <v>No</v>
+      </c>
+      <c r="C614" t="str">
+        <v>RM170.70</v>
+      </c>
+      <c r="D614" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="str">
+        <v>PK24 Natural 24-Hour Vaginal Advanced Tightening Creme 30ml</v>
+      </c>
+      <c r="B615" t="str">
+        <v>9</v>
+      </c>
+      <c r="C615" t="str">
+        <v>RM306.00</v>
+      </c>
+      <c r="D615" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="str">
+        <v>Cebion Vitamin C 1000mg + Calcium (Orange Flavour) 10S'</v>
+      </c>
+      <c r="B616" t="str">
+        <v>1</v>
+      </c>
+      <c r="C616" t="str">
+        <v>RM8.69</v>
+      </c>
+      <c r="D616" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="str">
+        <v>VITRAFLEX Botanical Beverage Mix 4-in-1 Formula 20 supplement for joint/sakit lutut</v>
+      </c>
+      <c r="B617" t="str">
+        <v>2</v>
+      </c>
+      <c r="C617" t="str">
+        <v>RM105.00</v>
+      </c>
+      <c r="D617" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="str">
+        <v>[READY STOK]ULTRA D'TOX / ULTRA DTOX DIETARY FIBERS 20G X 15 SACHETS</v>
+      </c>
+      <c r="B618" t="str">
+        <v>109</v>
+      </c>
+      <c r="C618" t="str">
+        <v>RM65.00</v>
+      </c>
+      <c r="D618" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="str">
+        <v>[LIMITED OFFER]VITAHEALTH TURMERCUMIN 60'S X 2[EXP 7/2022]</v>
+      </c>
+      <c r="B619" t="str">
+        <v>4</v>
+      </c>
+      <c r="C619" t="str">
+        <v>RM132.50</v>
+      </c>
+      <c r="D619" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="str">
+        <v>FAST SHIPPING!CLEARANCE!!READY STOK! Vitahealth COQ10 Plus [60'S + 30'S] exp 9/20</v>
+      </c>
+      <c r="B620" t="str">
+        <v>No</v>
+      </c>
+      <c r="C620" t="str">
+        <v>RM252.00</v>
+      </c>
+      <c r="D620" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="str">
+        <v>Neurobion box 60's (New stock)</v>
+      </c>
+      <c r="B621" t="str">
+        <v>5</v>
+      </c>
+      <c r="C621" t="str">
+        <v>RM35.50</v>
+      </c>
+      <c r="D621" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="str">
+        <v>Accu-Chek Instant S + 10 test strips Complete Set (Lifetime warranty)</v>
+      </c>
+      <c r="B622" t="str">
+        <v>1</v>
+      </c>
+      <c r="C622" t="str">
+        <v>RM62.50</v>
+      </c>
+      <c r="D622" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="str">
+        <v>[FAST SHIPPING] Dermaveen Moisturising Lotion 500ml</v>
+      </c>
+      <c r="B623" t="str">
+        <v>31</v>
+      </c>
+      <c r="C623" t="str">
+        <v>RM44.90</v>
+      </c>
+      <c r="D623" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="str">
+        <v>CHEMIFREE/CHEMFREE NATURAL VITAMIN E SERUM 10ML</v>
+      </c>
+      <c r="B624" t="str">
+        <v>6</v>
+      </c>
+      <c r="C624" t="str">
+        <v>RM44.50</v>
+      </c>
+      <c r="D624" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="str">
+        <v>Bactepro Antibacterial Antiseptic Disinfectant Brown Liquid 5000ml - OFFER</v>
+      </c>
+      <c r="B625" t="str">
+        <v>57</v>
+      </c>
+      <c r="C625" t="str">
+        <v>RM109.90</v>
+      </c>
+      <c r="D625" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="str">
+        <v>[FAST SHIPMENT] MegaLive Neuromium ALA Plus 2x60s+15s</v>
+      </c>
+      <c r="B626" t="str">
+        <v>2</v>
+      </c>
+      <c r="C626" t="str">
+        <v>RM224.20</v>
+      </c>
+      <c r="D626" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="str">
+        <v>[NEW STOCK]Lennox Collagen Powder 5000 280g</v>
+      </c>
+      <c r="B627" t="str">
+        <v>94</v>
+      </c>
+      <c r="C627" t="str">
+        <v>RM69.90</v>
+      </c>
+      <c r="D627" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="str">
+        <v>[NEW PACKING] Opceden Toco-Enols 440mg 60 softgels x2 / 60s</v>
+      </c>
+      <c r="B628" t="str">
+        <v>5</v>
+      </c>
+      <c r="C628" t="str">
+        <v>RM131.99</v>
+      </c>
+      <c r="D628" t="str">
+        <v>60sx2 promo pack</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="str">
+        <v>[FAST SHIPPING][NEW STOCK]CHEMFREE/CHEMIFREE INTENSIVE ACNE Solution 10ML</v>
+      </c>
+      <c r="B629" t="str">
+        <v>5</v>
+      </c>
+      <c r="C629" t="str">
+        <v>RM43.90</v>
+      </c>
+      <c r="D629" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="str">
+        <v>FLEXPLUS ALTERNATING PRESSURE PUMP &amp; BUBBLE PAD RIPPLE MATTRESS</v>
+      </c>
+      <c r="B630" t="str">
+        <v>No</v>
+      </c>
+      <c r="C630" t="str">
+        <v>RM139.99</v>
+      </c>
+      <c r="D630" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="str">
+        <v>Oat King Sport 6X800g [expired 8/2021]</v>
+      </c>
+      <c r="B631" t="str">
+        <v>1</v>
+      </c>
+      <c r="C631" t="str">
+        <v>RM359.40</v>
+      </c>
+      <c r="D631" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="str">
+        <v>[WHOLESALE] 3-PLY Disposable TIE-ON Medicmad Face Mask</v>
+      </c>
+      <c r="B632" t="str">
+        <v>3</v>
+      </c>
+      <c r="C632" t="str">
+        <v>RM29.90</v>
+      </c>
+      <c r="D632" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="str">
+        <v>JENKANGS NICE GO FIBRES 25S (Detox Body/ Relieves Constipation)</v>
+      </c>
+      <c r="B633" t="str">
+        <v>54</v>
+      </c>
+      <c r="C633" t="str">
+        <v>RM59.90</v>
+      </c>
+      <c r="D633" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="str">
+        <v>[LATEST STOCK]MEDIKRILL KRILL OIL 500MG 60 SOFTGEL CAPSULES</v>
+      </c>
+      <c r="B634" t="str">
+        <v>40</v>
+      </c>
+      <c r="C634" t="str">
+        <v>RM168.00</v>
+      </c>
+      <c r="D634" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="str">
+        <v>VITAHEALTH vita bilberry plus 60s</v>
+      </c>
+      <c r="B635" t="str">
+        <v>No</v>
+      </c>
+      <c r="C635" t="str">
+        <v>RM52.00</v>
+      </c>
+      <c r="D635" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="str">
+        <v>[EXP 11/2021] Oat King Sport 2KG NEW STOCK!!</v>
+      </c>
+      <c r="B636" t="str">
+        <v>2</v>
+      </c>
+      <c r="C636" t="str">
+        <v>RM99.00</v>
+      </c>
+      <c r="D636" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="str">
+        <v>Flavettes Effervescent Vital (Vitamin C+Calcium+Vitamin D) 30 tablets</v>
+      </c>
+      <c r="B637" t="str">
+        <v>6</v>
+      </c>
+      <c r="C637" t="str">
+        <v>RM37.50</v>
+      </c>
+      <c r="D637" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="str">
+        <v>Oat King Sport 800g [EXP 8/2021] WITH FREE GIFT!!!</v>
+      </c>
+      <c r="B638" t="str">
+        <v>2</v>
+      </c>
+      <c r="C638" t="str">
+        <v>RM59.90</v>
+      </c>
+      <c r="D638" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="str">
+        <v>[FAST SHIPPING] BAYER CONTOUR PLUS TEST STRIPS 25S medical supplies blood glucose monitoring strips</v>
+      </c>
+      <c r="B639" t="str">
+        <v>8</v>
+      </c>
+      <c r="C639" t="str">
+        <v>RM37.99</v>
+      </c>
+      <c r="D639" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="str">
+        <v>Dr. Clo Sanitizing Deodorant Device For HOUSEHOLD Anti-Virus Stick Sterilization Stick</v>
+      </c>
+      <c r="B640" t="str">
+        <v>6</v>
+      </c>
+      <c r="C640" t="str">
+        <v>RM49.00</v>
+      </c>
+      <c r="D640" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="str">
+        <v>READY STOCK BONLIFE PHYTO POMEGRANATE 500MG 60S SOFTGELS</v>
+      </c>
+      <c r="B641" t="str">
+        <v>4</v>
+      </c>
+      <c r="C641" t="str">
+        <v>RM68.00</v>
+      </c>
+      <c r="D641" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="str">
+        <v>[WHOLESALE][READY STOCK] 3PLY KIDS MASK 50PCS</v>
+      </c>
+      <c r="B642" t="str">
+        <v>1</v>
+      </c>
+      <c r="C642" t="str">
+        <v>RM22.00</v>
+      </c>
+      <c r="D642" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="str">
+        <v>[FREE SHAKER] Swissmed Total Woman Capsule[TWC]/ Total Man Capsule[TMC] 400mg - 60's supplement for men or women health</v>
+      </c>
+      <c r="B643" t="str">
+        <v>No</v>
+      </c>
+      <c r="C643" t="str">
+        <v>RM188.00</v>
+      </c>
+      <c r="D643" t="str">
+        <v>60S TOTAL MEN CAPSULE</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="str">
+        <v>Limited PROMO!! Vitamode Redusterol 30 Sachet with no shaker</v>
+      </c>
+      <c r="B644" t="str">
+        <v>No</v>
+      </c>
+      <c r="C644" t="str">
+        <v>RM76.90</v>
+      </c>
+      <c r="D644" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="str">
+        <v>CNY EDITION • Neutrovis Premium 4PLY/kf94 • Yoohoo Prosperity/ Auspicious Wild/ Spring treasure/ Blossom prosperity • Extra Protection Series • 2 Design ( Medical Face Mask )</v>
+      </c>
+      <c r="B645" t="str">
+        <v>6</v>
+      </c>
+      <c r="C645" t="str">
+        <v>RM21.90</v>
+      </c>
+      <c r="D645" t="str">
+        <v>Yoohoo ADULT 30S</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="str">
+        <v>CNY EDITION • Neutrovis Premium 4PLY/kf94 • Yoohoo Prosperity/ Auspicious Wild/ Spring treasure/ Blossom prosperity • Extra Protection Series • 2 Design ( Medical Face Mask )</v>
+      </c>
+      <c r="B646" t="str">
+        <v>6</v>
+      </c>
+      <c r="C646" t="str">
+        <v>RM21.90</v>
+      </c>
+      <c r="D646" t="str">
+        <v>Yoohoo KIDS 30s</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="str">
+        <v>[BUY 6 FREE1+1SHAKER+1HAND SANITIZER] Oat King Sport Sachet 40g x 20 sachets[exp 4/21]</v>
+      </c>
+      <c r="B647" t="str">
+        <v>No</v>
+      </c>
+      <c r="C647" t="str">
+        <v>RM359.40</v>
+      </c>
+      <c r="D647" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="str">
+        <v>READY STOCK Vitahealth Vita Bilberry Plus 60sx2</v>
+      </c>
+      <c r="B648" t="str">
+        <v>No</v>
+      </c>
+      <c r="C648" t="str">
+        <v>RM109.80</v>
+      </c>
+      <c r="D648" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="str">
+        <v>[OFFER] Vitahealth Crowning glory extra 90sx2</v>
+      </c>
+      <c r="B649" t="str">
+        <v>1</v>
+      </c>
+      <c r="C649" t="str">
+        <v>RM179.99</v>
+      </c>
+      <c r="D649" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="str">
+        <v>[Ready Stock]Certified Organic Bragg Apple Cider Vinegar 946mL (NEW STOCK)</v>
+      </c>
+      <c r="B650" t="str">
+        <v>13</v>
+      </c>
+      <c r="C650" t="str">
+        <v>RM20.98</v>
+      </c>
+      <c r="D650" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="str">
+        <v>VITRAPLUS Cabloc 60S Carbohydrate Blocker Green Coffee Bean Extract [NEW STOCK]</v>
+      </c>
+      <c r="B651" t="str">
+        <v>No</v>
+      </c>
+      <c r="C651" t="str">
+        <v>RM82.90</v>
+      </c>
+      <c r="D651" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="str">
+        <v>Suu Balm rapid itch relief moisturizer 75ml or 350ml [READY STOCK] suitable for sensitive skin</v>
+      </c>
+      <c r="B652" t="str">
+        <v>6</v>
+      </c>
+      <c r="C652" t="str">
+        <v>RM50.85</v>
+      </c>
+      <c r="D652" t="str">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="str">
+        <v>[READY STOCK] SATO HAKUBI White C Plus 180 Tablet</v>
+      </c>
+      <c r="B653" t="str">
+        <v>18</v>
+      </c>
+      <c r="C653" t="str">
+        <v>RM82.50</v>
+      </c>
+      <c r="D653" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="str">
+        <v>Germisep Effervescent Cleaning Tablets 2.5g (100 tablets)</v>
+      </c>
+      <c r="B654" t="str">
+        <v>No</v>
+      </c>
+      <c r="C654" t="str">
+        <v>RM92.90</v>
+      </c>
+      <c r="D654" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="str">
+        <v>Vitamode Daily Cleanse Fiber Drink 10g x 15s</v>
+      </c>
+      <c r="B655" t="str">
+        <v>No</v>
+      </c>
+      <c r="C655" t="str">
+        <v>RM58.50</v>
+      </c>
+      <c r="D655" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="str">
+        <v>kordel's hyaluronic acid with collagen 30s LUCKY PHARMACY</v>
+      </c>
+      <c r="B656" t="str">
+        <v>No</v>
+      </c>
+      <c r="C656" t="str">
+        <v>RM96.00</v>
+      </c>
+      <c r="D656" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="str">
+        <v>[FAST SHIPMENT] VITAHEALTH CROWNING GLORY EXTRA 90S ONLY supplement for hair growth</v>
+      </c>
+      <c r="B657" t="str">
+        <v>No</v>
+      </c>
+      <c r="C657" t="str">
+        <v>RM91.00</v>
+      </c>
+      <c r="D657" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="str">
+        <v>[BUY 1 FREE 1 SACHET] OAT KING Original flavour 500g [EXP 4/2021]</v>
+      </c>
+      <c r="B658" t="str">
+        <v>No</v>
+      </c>
+      <c r="C658" t="str">
+        <v>RM42.90</v>
+      </c>
+      <c r="D658" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="str">
+        <v>[BUY 1 free 2 sachet ][BUY 3 FREE SHAKER+6SACHET]Oat King Sport 800g sachets [EXP 4/21]</v>
+      </c>
+      <c r="B659" t="str">
+        <v>No</v>
+      </c>
+      <c r="C659" t="str">
+        <v>RM59.90</v>
+      </c>
+      <c r="D659" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="str">
+        <v>BIOSHIELD S ANTI-ACNE CLEANSING BAR 15G -For Fungal Infection(Gatal)</v>
+      </c>
+      <c r="B660" t="str">
+        <v>5</v>
+      </c>
+      <c r="C660" t="str">
+        <v>RM1.20</v>
+      </c>
+      <c r="D660" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="str">
+        <v>[FAST SHIPMENT]MegaLive Smaxlim Complex Capsule 400mg</v>
+      </c>
+      <c r="B661" t="str">
+        <v>1</v>
+      </c>
+      <c r="C661" t="str">
+        <v>RM134.10</v>
+      </c>
+      <c r="D661" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="str">
+        <v>[FAST SHIPMENT]MegaLive EPO Evening Primrose Oil Plus Vit E 120's / 120's x 2 + 30's</v>
+      </c>
+      <c r="B662" t="str">
+        <v>No</v>
+      </c>
+      <c r="C662" t="str">
+        <v>RM195.30</v>
+      </c>
+      <c r="D662" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="str">
+        <v>TIOX-C L-GLUTATHIONE COMPLEX VEGECAPS 10'SX6 FOC 30s</v>
+      </c>
+      <c r="B663" t="str">
+        <v>4</v>
+      </c>
+      <c r="C663" t="str">
+        <v>RM219.79</v>
+      </c>
+      <c r="D663" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="str">
+        <v>FAST SHIPMENT! NITRILE GLOVE SIZE S, M, L</v>
+      </c>
+      <c r="B664" t="str">
+        <v>9</v>
+      </c>
+      <c r="C664" t="str">
+        <v>RM50.00</v>
+      </c>
+      <c r="D664" t="str">
+        <v>Dark blue</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="str">
+        <v>[FAST SHIPPING] BAYER CONTOUR TS TEST STRIPS 25S blood glucose monitoring strips</v>
+      </c>
+      <c r="B665" t="str">
+        <v>1</v>
+      </c>
+      <c r="C665" t="str">
+        <v>RM36.99</v>
+      </c>
+      <c r="D665" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="str">
+        <v>Suu Balm™ Kids Dual Rapid Itch Relieving &amp; Restoring Ceramide Moisturiser (75ml) suitable for dry and sensitive skin</v>
+      </c>
+      <c r="B666" t="str">
+        <v>No</v>
+      </c>
+      <c r="C666" t="str">
+        <v>RM76.30</v>
+      </c>
+      <c r="D666" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="str">
+        <v>Eurobio Hipoten C Plus Forte 60 tablets(Exp 03/2022)</v>
+      </c>
+      <c r="B667" t="str">
+        <v>4</v>
+      </c>
+      <c r="C667" t="str">
+        <v>RM89.90</v>
+      </c>
+      <c r="D667" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="str">
+        <v>50pcs 3Layer Headloop Medical Face Mask Disposable Medicmad</v>
+      </c>
+      <c r="B668" t="str">
+        <v>No</v>
+      </c>
+      <c r="C668" t="str">
+        <v>RM22.90</v>
+      </c>
+      <c r="D668" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="str">
+        <v>ABBOTT FREESTYLE LITE TEST STRIPS 50S (BARCODE REMOVED) MEDICAL SUPPLIES BLOOD GLUCOSE MONITORING STRIPS</v>
+      </c>
+      <c r="B669" t="str">
+        <v>1</v>
+      </c>
+      <c r="C669" t="str">
+        <v>RM68.00</v>
+      </c>
+      <c r="D669" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="str">
+        <v>[super new stock]Zambon Fluimucil A 600mg Effervescent Tablets 10s Lemon Flavours EXP: 11/2022</v>
+      </c>
+      <c r="B670" t="str">
+        <v>5</v>
+      </c>
+      <c r="C670" t="str">
+        <v>RM32.50</v>
+      </c>
+      <c r="D670" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="str">
+        <v>RANBAXY'S GARLIC PEARLS 100S</v>
+      </c>
+      <c r="B671" t="str">
+        <v>No</v>
+      </c>
+      <c r="C671" t="str">
+        <v>RM18.49</v>
+      </c>
+      <c r="D671" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="str">
+        <v>[NEW STOCK] CG210 LIQUID MEN -80ml</v>
+      </c>
+      <c r="B672" t="str">
+        <v>1</v>
+      </c>
+      <c r="C672" t="str">
+        <v>RM76.90</v>
+      </c>
+      <c r="D672" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="str">
+        <v>Ensure Gold Vanilla 850g Tin (Adult Complete Nutrition) /MAXSURE PLATINUM NUTRITION DRINK</v>
+      </c>
+      <c r="B673" t="str">
+        <v>26</v>
+      </c>
+      <c r="C673" t="str">
+        <v>RM79.90</v>
+      </c>
+      <c r="D673" t="str">
+        <v>MAXSURE 850G</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="str">
+        <v>Ensure Gold Vanilla 850g Tin (Adult Complete Nutrition) /MAXSURE PLATINUM NUTRITION DRINK</v>
+      </c>
+      <c r="B674" t="str">
+        <v>26</v>
+      </c>
+      <c r="C674" t="str">
+        <v>RM86.90</v>
+      </c>
+      <c r="D674" t="str">
+        <v>ENSURE 850G</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="str">
+        <v>Suu Balm™ Kids Dual Soothing &amp; Moisturising Head-to-Toe Wash (420ml) suitable for dry and sensitive skin</v>
+      </c>
+      <c r="B675" t="str">
+        <v>No</v>
+      </c>
+      <c r="C675" t="str">
+        <v>RM67.40</v>
+      </c>
+      <c r="D675" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D44"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D675"/>
   </ignoredErrors>
 </worksheet>
 </file>